--- a/Income_accounting_Mufindi.xlsx
+++ b/Income_accounting_Mufindi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hawkj\Documents\GitHub\Tanzania Dairy Mitigation Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579F43DA-3F83-4D00-999A-7D0F7574DC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407EEDAC-89E1-44CD-B12B-370762E62414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{64B7B528-6AFC-453E-A699-FBF307BA8192}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{64B7B528-6AFC-453E-A699-FBF307BA8192}"/>
   </bookViews>
   <sheets>
     <sheet name="Dairy_Income_Roadmap" sheetId="27" r:id="rId1"/>
@@ -899,28 +899,38 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -932,16 +942,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="169" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1947,8 +1947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14480F15-C477-4BA6-893B-82C05841FF6B}">
   <dimension ref="A1:L561"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1962,26 +1962,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="97" t="s">
+      <c r="C1" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="102" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98" t="s">
+      <c r="D2" s="102"/>
+      <c r="E2" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="F2" s="98"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="91" t="s">
         <v>114</v>
       </c>
@@ -1990,16 +1990,16 @@
       <c r="A3" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="99">
+      <c r="C3" s="105">
         <f>G3</f>
         <v>0.55747885382429763</v>
       </c>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99">
+      <c r="D3" s="105"/>
+      <c r="E3" s="105">
         <f>Dairy_Income_Baseline!B3</f>
         <v>0.54509043485042441</v>
       </c>
-      <c r="F3" s="99"/>
+      <c r="F3" s="105"/>
       <c r="G3" s="76">
         <f>[1]All!$L$7*L16</f>
         <v>0.55747885382429763</v>
@@ -2009,16 +2009,16 @@
       <c r="A4" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="100">
+      <c r="C4" s="101">
         <f>[2]prod_herd_data!F39</f>
         <v>2760.7763092360706</v>
       </c>
-      <c r="D4" s="100"/>
-      <c r="E4" s="100">
+      <c r="D4" s="101"/>
+      <c r="E4" s="101">
         <f>[2]prod_herd_data!F38</f>
         <v>711.5958362201842</v>
       </c>
-      <c r="F4" s="100"/>
+      <c r="F4" s="101"/>
       <c r="G4" s="75">
         <f>[2]prod_herd_data!F39</f>
         <v>2760.7763092360706</v>
@@ -2028,50 +2028,50 @@
       <c r="A5" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="100">
+      <c r="C5" s="101">
         <f>C4*C3*(12*L11-9)/(12*L11)</f>
         <v>1442.882261754562</v>
       </c>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100">
+      <c r="D5" s="101"/>
+      <c r="E5" s="101">
         <f>E4*E3</f>
         <v>387.88408380301161</v>
       </c>
-      <c r="F5" s="100"/>
+      <c r="F5" s="101"/>
       <c r="G5" s="75">
         <f>G4*G3</f>
         <v>1539.0744125381993</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="102"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="100">
+      <c r="C8" s="101">
         <f>(([2]concentrate_feeding!$F$23*L29)+([2]concentrate_feeding!$F$24*L30))</f>
         <v>330.9357539306377</v>
       </c>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100">
+      <c r="D8" s="101"/>
+      <c r="E8" s="101">
         <f>(([2]concentrate_feeding!$F$17*L29)+([2]concentrate_feeding!$F$18*L30))</f>
         <v>86.361328970444447</v>
       </c>
-      <c r="F8" s="100"/>
+      <c r="F8" s="101"/>
       <c r="G8" s="75">
         <f>(([2]concentrate_feeding!$F$20*L29)+([2]concentrate_feeding!$F$21*L30))</f>
         <v>330.9357539306377</v>
@@ -2081,16 +2081,16 @@
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="100">
+      <c r="C9" s="101">
         <f>Dairy_Income_Baseline!D9</f>
         <v>13.537859909593482</v>
       </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100">
+      <c r="D9" s="101"/>
+      <c r="E9" s="101">
         <f>Dairy_Income_Baseline!B9</f>
         <v>16.603035738180687</v>
       </c>
-      <c r="F9" s="100"/>
+      <c r="F9" s="101"/>
       <c r="G9" s="75">
         <f>Dairy_Income_Baseline!D9</f>
         <v>13.537859909593482</v>
@@ -2100,16 +2100,16 @@
       <c r="A10" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="100">
+      <c r="C10" s="101">
         <f>Dairy_Income_Baseline!D10</f>
         <v>15.453594802460485</v>
       </c>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100">
+      <c r="D10" s="101"/>
+      <c r="E10" s="101">
         <f>Dairy_Income_Baseline!B10</f>
         <v>15.453594802460485</v>
       </c>
-      <c r="F10" s="100"/>
+      <c r="F10" s="101"/>
       <c r="G10" s="75">
         <f>Dairy_Income_Baseline!D10</f>
         <v>15.453594802460485</v>
@@ -2122,16 +2122,16 @@
       <c r="A11" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="100">
+      <c r="C11" s="101">
         <f>Dairy_Income_Baseline!D11</f>
         <v>1.6603035738180687</v>
       </c>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100">
+      <c r="D11" s="101"/>
+      <c r="E11" s="101">
         <f>Dairy_Income_Baseline!B11</f>
         <v>0.38314697857340047</v>
       </c>
-      <c r="F11" s="100"/>
+      <c r="F11" s="101"/>
       <c r="G11" s="75">
         <f>Dairy_Income_Baseline!D11</f>
         <v>1.6603035738180687</v>
@@ -2145,26 +2145,26 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
       <c r="G12" s="74"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="100">
+      <c r="C13" s="101">
         <f>SUM(C8:C11)</f>
         <v>361.58751221650971</v>
       </c>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100">
+      <c r="D13" s="101"/>
+      <c r="E13" s="101">
         <f>SUM(E8:E11)</f>
         <v>118.80110648965903</v>
       </c>
-      <c r="F13" s="100"/>
+      <c r="F13" s="101"/>
       <c r="G13" s="75">
         <f>SUM(G8:G11)</f>
         <v>361.58751221650971</v>
@@ -2178,36 +2178,36 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="102"/>
       <c r="G14" s="74"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="100">
+      <c r="C15" s="101">
         <f>L13/L11</f>
         <v>33.141666666666666</v>
       </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100">
+      <c r="D15" s="101"/>
+      <c r="E15" s="101">
         <f>Dairy_Income_Baseline!B12</f>
         <v>0</v>
       </c>
-      <c r="F15" s="100"/>
+      <c r="F15" s="101"/>
       <c r="G15" s="82">
         <f>Dairy_Income_Baseline!D12</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
       <c r="G16" s="75"/>
       <c r="K16" t="s">
         <v>96</v>
@@ -2218,20 +2218,20 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C17" s="100"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
       <c r="G17" s="75"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="103" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
       <c r="K18" s="2" t="s">
         <v>79</v>
       </c>
@@ -2240,16 +2240,16 @@
       <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="100">
+      <c r="C19" s="101">
         <f>L35*L16</f>
         <v>286.58935981411065</v>
       </c>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100">
+      <c r="D19" s="101"/>
+      <c r="E19" s="101">
         <f>L35*L16</f>
         <v>286.58935981411065</v>
       </c>
-      <c r="F19" s="100"/>
+      <c r="F19" s="101"/>
       <c r="G19" s="50">
         <f>L37*L16</f>
         <v>241.57020027586674</v>
@@ -2266,16 +2266,16 @@
       <c r="A20" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="100">
+      <c r="C20" s="101">
         <f>(((1/1000)*(1/L23)*[2]feeding_change_data!$F$25/L32))</f>
         <v>9.3507093735687649E-2</v>
       </c>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100">
+      <c r="D20" s="101"/>
+      <c r="E20" s="101">
         <f>(((1/1000)*(1/L23)*[2]feeding_change_data!$F$19/L32))</f>
         <v>3.7294666446903491E-2</v>
       </c>
-      <c r="F20" s="100"/>
+      <c r="F20" s="101"/>
       <c r="G20" s="50">
         <f>(((1/1000)*(1/L23)*[2]feeding_change_data!$F$22/L32))</f>
         <v>7.6722961159293057E-2</v>
@@ -2285,16 +2285,16 @@
       <c r="A21" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="100">
+      <c r="C21" s="101">
         <f>(((1/1000)*(1/L24)*[2]feeding_change_data_pasture!$F$25/L33))</f>
         <v>8.468543212860484E-2</v>
       </c>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100">
+      <c r="D21" s="101"/>
+      <c r="E21" s="101">
         <f>(((1/1000)*(1/L24)*[2]feeding_change_data_pasture!$F$19/L33))</f>
         <v>-1.9654796350922508E-2</v>
       </c>
-      <c r="F21" s="100"/>
+      <c r="F21" s="101"/>
       <c r="G21" s="50">
         <f>(((1/1000)*(1/L24)*[2]feeding_change_data_pasture!$F$22/L33))</f>
         <v>-6.9536395371996339E-3</v>
@@ -2303,23 +2303,23 @@
         <v>112</v>
       </c>
       <c r="L21">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="100">
+      <c r="C22" s="101">
         <f>SUM(C20:C21)</f>
         <v>0.17819252586429249</v>
       </c>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100">
+      <c r="D22" s="101"/>
+      <c r="E22" s="101">
         <f>SUM(E20:E21)</f>
         <v>1.7639870095980982E-2</v>
       </c>
-      <c r="F22" s="100"/>
+      <c r="F22" s="101"/>
       <c r="G22" s="57">
         <f t="shared" ref="G22" si="0">SUM(G20:H21)</f>
         <v>6.9769321622093428E-2</v>
@@ -2329,16 +2329,16 @@
       <c r="A23" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="100">
+      <c r="C23" s="101">
         <f>L19*(C20+C21)</f>
         <v>4.9893907242001898</v>
       </c>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100">
+      <c r="D23" s="101"/>
+      <c r="E23" s="101">
         <f>L19*(E20+E21)</f>
         <v>0.49391636268746753</v>
       </c>
-      <c r="F23" s="100"/>
+      <c r="F23" s="101"/>
       <c r="G23" s="50">
         <f>L19*(G20+G21)</f>
         <v>1.953541005418616</v>
@@ -2355,16 +2355,16 @@
       <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="100">
+      <c r="C24" s="101">
         <f>(C20+C21)*C19+C23</f>
         <v>56.057472635307128</v>
       </c>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100">
+      <c r="D24" s="101"/>
+      <c r="E24" s="101">
         <f>(E20+E21)*E19+E23</f>
         <v>5.5493154406987317</v>
       </c>
-      <c r="F24" s="100"/>
+      <c r="F24" s="101"/>
       <c r="G24" s="50">
         <f>(G20+G21)*G19+G23</f>
         <v>18.807730002779085</v>
@@ -2377,17 +2377,17 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C25" s="98"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
       <c r="G25" s="46"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
       <c r="G26" s="46"/>
       <c r="K26" t="s">
         <v>28</v>
@@ -2401,16 +2401,16 @@
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="100">
+      <c r="C27" s="101">
         <f>C5-C13-C15</f>
         <v>1048.1530828713855</v>
       </c>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100">
+      <c r="D27" s="101"/>
+      <c r="E27" s="101">
         <f>E5-E13</f>
         <v>269.08297731335256</v>
       </c>
-      <c r="F27" s="100"/>
+      <c r="F27" s="101"/>
       <c r="G27" s="75">
         <f>G5-G13</f>
         <v>1177.4869003216895</v>
@@ -2428,26 +2428,26 @@
       <c r="A28" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="100">
+      <c r="C28" s="101">
         <f>C27-[5]NPV_Baseline!C33</f>
         <v>945.77110352003592</v>
       </c>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100">
+      <c r="D28" s="101"/>
+      <c r="E28" s="101">
         <f>E27-[5]NPV_Baseline!E33</f>
         <v>109.47235241853747</v>
       </c>
-      <c r="F28" s="100"/>
+      <c r="F28" s="101"/>
       <c r="G28" s="50">
         <f>G27-[5]NPV_Baseline!E33</f>
         <v>1017.8762754268744</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
       <c r="K29" t="s">
         <v>30</v>
       </c>
@@ -2457,15 +2457,15 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="97" t="s">
+      <c r="A30" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="97"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="103"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="103"/>
       <c r="K30" t="s">
         <v>29</v>
       </c>
@@ -2475,30 +2475,30 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="98" t="s">
+      <c r="A31" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="98"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="101">
+      <c r="C32" s="104">
         <f>Dairy_Income_Baseline!D36</f>
         <v>0.11494409357202014</v>
       </c>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101">
+      <c r="D32" s="104"/>
+      <c r="E32" s="104">
         <f>Dairy_Income_Baseline!B36</f>
         <v>7.6629395714680082E-2</v>
       </c>
-      <c r="F32" s="101"/>
+      <c r="F32" s="104"/>
       <c r="G32" s="49">
         <f>Dairy_Income_Baseline!D36</f>
         <v>0.11494409357202014</v>
@@ -2511,10 +2511,10 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C33" s="98"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="98"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
       <c r="K33" t="s">
         <v>61</v>
       </c>
@@ -2526,16 +2526,16 @@
       <c r="A34" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="100">
+      <c r="C34" s="101">
         <f>Dairy_Income_Baseline!D38</f>
         <v>156.45168291747186</v>
       </c>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100">
+      <c r="D34" s="101"/>
+      <c r="E34" s="101">
         <f>Dairy_Income_Baseline!B38</f>
         <v>92.082990517140573</v>
       </c>
-      <c r="F34" s="100"/>
+      <c r="F34" s="101"/>
       <c r="G34" s="28">
         <f>Dairy_Income_Baseline!D38</f>
         <v>156.45168291747186</v>
@@ -2545,16 +2545,16 @@
       <c r="A35" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="100">
+      <c r="C35" s="101">
         <f>Dairy_Income_Baseline!D39</f>
         <v>99.873645748133058</v>
       </c>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100">
+      <c r="D35" s="101"/>
+      <c r="E35" s="101">
         <f>Dairy_Income_Baseline!B39</f>
         <v>92.210706176665042</v>
       </c>
-      <c r="F35" s="100"/>
+      <c r="F35" s="101"/>
       <c r="G35" s="28">
         <f>Dairy_Income_Baseline!D39</f>
         <v>99.873645748133058</v>
@@ -2571,16 +2571,16 @@
       <c r="A36" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="100">
+      <c r="C36" s="101">
         <f>Dairy_Income_Baseline!D40</f>
         <v>12.643850292922215</v>
       </c>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100">
+      <c r="D36" s="101"/>
+      <c r="E36" s="101">
         <f>Dairy_Income_Baseline!B40</f>
         <v>32.695208838263504</v>
       </c>
-      <c r="F36" s="100"/>
+      <c r="F36" s="101"/>
       <c r="G36" s="28">
         <f>Dairy_Income_Baseline!D40</f>
         <v>12.643850292922215</v>
@@ -2597,16 +2597,16 @@
       <c r="A37" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="100">
+      <c r="C37" s="101">
         <f>Dairy_Income_Baseline!D41</f>
         <v>4.853195061929739</v>
       </c>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100">
+      <c r="D37" s="101"/>
+      <c r="E37" s="101">
         <f>Dairy_Income_Baseline!B41</f>
         <v>3.0651758285872037</v>
       </c>
-      <c r="F37" s="100"/>
+      <c r="F37" s="101"/>
       <c r="G37" s="28">
         <f>Dairy_Income_Baseline!D41</f>
         <v>4.853195061929739</v>
@@ -2623,16 +2623,16 @@
       <c r="A38" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="100">
+      <c r="C38" s="101">
         <f>Dairy_Income_Baseline!D42</f>
         <v>0</v>
       </c>
-      <c r="D38" s="100"/>
-      <c r="E38" s="100">
+      <c r="D38" s="101"/>
+      <c r="E38" s="101">
         <f>Dairy_Income_Baseline!B42</f>
         <v>0</v>
       </c>
-      <c r="F38" s="100"/>
+      <c r="F38" s="101"/>
       <c r="G38" s="28">
         <f>Dairy_Income_Baseline!D42</f>
         <v>0</v>
@@ -2649,16 +2649,16 @@
       <c r="A39" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="100">
+      <c r="C39" s="101">
         <f>(C20*L26+C21*L27)/100</f>
         <v>2.3950118455897541E-2</v>
       </c>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100">
+      <c r="D39" s="101"/>
+      <c r="E39" s="101">
         <f>(E20*L26+E21*L27)/100</f>
         <v>-1.1338592866667401E-3</v>
       </c>
-      <c r="F39" s="100"/>
+      <c r="F39" s="101"/>
       <c r="G39" s="28">
         <f>(G20*L26+G21*L27)/100</f>
         <v>4.3634941795070523E-3</v>
@@ -2668,170 +2668,170 @@
       <c r="A40" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="100">
+      <c r="C40" s="101">
         <f>C19*L36</f>
         <v>252.98810305730544</v>
       </c>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100">
+      <c r="D40" s="101"/>
+      <c r="E40" s="101">
         <f>E19*L36</f>
         <v>252.98810305730544</v>
       </c>
-      <c r="F40" s="100"/>
+      <c r="F40" s="101"/>
       <c r="G40" s="28">
         <f>G19*L38</f>
         <v>283.00087608280137</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="98"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B42" s="97" t="s">
+      <c r="B42" s="103" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="103"/>
+      <c r="E42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="103"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="101">
+      <c r="C43" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),C3,C32)</f>
-        <v>0.6953236909546936</v>
-      </c>
-      <c r="D43" s="101"/>
-      <c r="E43" s="101">
+        <v>0.42399636891665482</v>
+      </c>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),E3,E32)</f>
-        <v>0.37209807261292793</v>
-      </c>
-      <c r="F43" s="101"/>
+        <v>0.58503067592307489</v>
+      </c>
+      <c r="F43" s="104"/>
       <c r="G43" s="48">
         <f ca="1">_xlfn.NORM.INV(RAND(),G3,G32)</f>
-        <v>0.49677910076809162</v>
+        <v>0.6007417924522126</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="99">
+      <c r="C44" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),C4,C4*L21)</f>
-        <v>2149.8135210261453</v>
-      </c>
-      <c r="D44" s="99"/>
-      <c r="E44" s="101">
+        <v>3572.6317610768942</v>
+      </c>
+      <c r="D44" s="105"/>
+      <c r="E44" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),E4,E4*L21)</f>
-        <v>836.34919702179616</v>
-      </c>
-      <c r="F44" s="101"/>
+        <v>540.08409726524587</v>
+      </c>
+      <c r="F44" s="104"/>
       <c r="G44" s="85">
         <f ca="1">_xlfn.NORM.INV(RAND(),G4,G4*L21)</f>
-        <v>3049.5505120357689</v>
+        <v>2156.9405607383978</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C45" s="98"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="98"/>
-      <c r="F45" s="98"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
       <c r="G45" s="46"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="100">
+      <c r="C46" s="101">
         <f ca="1">_xlfn.NORM.INV(RAND(),C8,C34)</f>
-        <v>414.67231105032386</v>
-      </c>
-      <c r="D46" s="100"/>
-      <c r="E46" s="100">
+        <v>508.63690660045438</v>
+      </c>
+      <c r="D46" s="101"/>
+      <c r="E46" s="101">
         <f ca="1">_xlfn.NORM.INV(RAND(),E8,E34)</f>
-        <v>202.82976617405927</v>
-      </c>
-      <c r="F46" s="100"/>
+        <v>61.108605710393931</v>
+      </c>
+      <c r="F46" s="101"/>
       <c r="G46" s="50">
         <f ca="1">_xlfn.NORM.INV(RAND(),G8,G34)</f>
-        <v>264.74810620086083</v>
+        <v>210.82616892139464</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="100">
+      <c r="C47" s="101">
         <f ca="1">_xlfn.NORM.INV(RAND(),C9,C35)</f>
-        <v>-54.335841452125763</v>
-      </c>
-      <c r="D47" s="100"/>
-      <c r="E47" s="100">
+        <v>-90.705694971543835</v>
+      </c>
+      <c r="D47" s="101"/>
+      <c r="E47" s="101">
         <f ca="1">_xlfn.NORM.INV(RAND(),E9,E35)</f>
-        <v>-55.284771603189746</v>
-      </c>
-      <c r="F47" s="100"/>
+        <v>73.351510090076061</v>
+      </c>
+      <c r="F47" s="101"/>
       <c r="G47" s="50">
         <f ca="1">_xlfn.NORM.INV(RAND(),G9,G35)</f>
-        <v>137.07050306076465</v>
+        <v>147.40967167679071</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="100">
+      <c r="C48" s="101">
         <f ca="1">_xlfn.NORM.INV(RAND(),C10,C36)</f>
-        <v>30.466758210310147</v>
-      </c>
-      <c r="D48" s="100"/>
-      <c r="E48" s="100">
+        <v>8.5956048400924736</v>
+      </c>
+      <c r="D48" s="101"/>
+      <c r="E48" s="101">
         <f ca="1">_xlfn.NORM.INV(RAND(),E10,E36)</f>
-        <v>-48.308091024695273</v>
-      </c>
-      <c r="F48" s="100"/>
+        <v>45.193067129776175</v>
+      </c>
+      <c r="F48" s="101"/>
       <c r="G48" s="50">
         <f ca="1">_xlfn.NORM.INV(RAND(),G10,G36)</f>
-        <v>30.498253784309235</v>
+        <v>10.416890911694972</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="100">
+      <c r="C49" s="101">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C37)</f>
-        <v>-2.2239729352622772</v>
-      </c>
-      <c r="D49" s="100"/>
-      <c r="E49" s="100">
+        <v>-5.6343355706072424</v>
+      </c>
+      <c r="D49" s="101"/>
+      <c r="E49" s="101">
         <f ca="1">_xlfn.NORM.INV(RAND(),E11,E37)</f>
-        <v>-2.9369246769801598</v>
-      </c>
-      <c r="F49" s="100"/>
+        <v>-3.316171410185337</v>
+      </c>
+      <c r="F49" s="101"/>
       <c r="G49" s="50">
         <f ca="1">_xlfn.NORM.INV(RAND(),G11,G37)</f>
-        <v>-4.2008465665057004E-2</v>
+        <v>0.36055388318037496</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="100">
+      <c r="C50" s="101">
         <v>1E-4</v>
       </c>
-      <c r="D50" s="100"/>
-      <c r="E50" s="100">
+      <c r="D50" s="101"/>
+      <c r="E50" s="101">
         <v>1E-4</v>
       </c>
-      <c r="F50" s="100"/>
+      <c r="F50" s="101"/>
       <c r="G50" s="50">
         <v>1E-4</v>
       </c>
@@ -2840,154 +2840,154 @@
       <c r="A51" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="100">
+      <c r="C51" s="101">
         <f ca="1">_xlfn.NORM.INV(RAND(),C20+C21,C39)</f>
-        <v>0.15961324172512409</v>
-      </c>
-      <c r="D51" s="100"/>
-      <c r="E51" s="100">
+        <v>0.1375820143359533</v>
+      </c>
+      <c r="D51" s="101"/>
+      <c r="E51" s="101">
         <f ca="1">_xlfn.NORM.INV(RAND(),E20+ABS(E21),ABS(E39))</f>
-        <v>5.6973015700769715E-2</v>
-      </c>
-      <c r="F51" s="100"/>
+        <v>5.7694539596490943E-2</v>
+      </c>
+      <c r="F51" s="101"/>
       <c r="G51" s="50">
         <f ca="1">_xlfn.NORM.INV(RAND(),ABS(G20+G21),ABS(G39))</f>
-        <v>6.922384929775241E-2</v>
+        <v>6.6566463500596765E-2</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="100">
+      <c r="C52" s="101">
         <f ca="1">_xlfn.NORM.INV(RAND(),C19,C40)</f>
-        <v>131.03908302625055</v>
-      </c>
-      <c r="D52" s="100"/>
-      <c r="E52" s="100">
+        <v>627.72798943489988</v>
+      </c>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101">
         <f ca="1">_xlfn.NORM.INV(RAND(),E19,E40)</f>
-        <v>159.6811672063123</v>
-      </c>
-      <c r="F52" s="100"/>
+        <v>570.41223470901059</v>
+      </c>
+      <c r="F52" s="101"/>
       <c r="G52" s="50">
         <f ca="1">_xlfn.NORM.INV(RAND(),G19,G40)</f>
-        <v>-173.93100757552384</v>
+        <v>164.86503893711983</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C53" s="100"/>
-      <c r="D53" s="100"/>
-      <c r="E53" s="100"/>
-      <c r="F53" s="100"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="101"/>
+      <c r="E53" s="101"/>
+      <c r="F53" s="101"/>
       <c r="G53" s="50"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="100">
+      <c r="C54" s="101">
         <f ca="1">SUM(C46:C50)</f>
-        <v>388.57935487324596</v>
-      </c>
-      <c r="D54" s="100"/>
-      <c r="E54" s="100">
+        <v>420.89258089839575</v>
+      </c>
+      <c r="D54" s="101"/>
+      <c r="E54" s="101">
         <f ca="1">SUM(E46:E50)</f>
-        <v>96.30007886919411</v>
-      </c>
-      <c r="F54" s="100"/>
+        <v>176.33711152006083</v>
+      </c>
+      <c r="F54" s="101"/>
       <c r="G54" s="50">
         <f ca="1">SUM(G46:G50)</f>
-        <v>432.27495458026965</v>
+        <v>369.01338539306067</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C55" s="100"/>
-      <c r="D55" s="100"/>
-      <c r="E55" s="100"/>
-      <c r="F55" s="100"/>
+      <c r="C55" s="101"/>
+      <c r="D55" s="101"/>
+      <c r="E55" s="101"/>
+      <c r="F55" s="101"/>
       <c r="G55" s="50"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="100">
+      <c r="C56" s="101">
         <f ca="1">C43*C44-C54</f>
-        <v>1106.2369174309592</v>
-      </c>
-      <c r="D56" s="100"/>
-      <c r="E56" s="100">
+        <v>1093.8903132745213</v>
+      </c>
+      <c r="D56" s="101"/>
+      <c r="E56" s="101">
         <f ca="1">E43*E44-E54</f>
-        <v>214.90384537398614</v>
-      </c>
-      <c r="F56" s="100"/>
+        <v>139.62865295832967</v>
+      </c>
+      <c r="F56" s="101"/>
       <c r="G56" s="83">
         <f ca="1">G43*G44-G54</f>
-        <v>1082.6780065357329</v>
+        <v>926.75095327780514</v>
       </c>
       <c r="H56" s="84"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
-      <c r="C57" s="100"/>
-      <c r="D57" s="100"/>
-      <c r="E57" s="100"/>
-      <c r="F57" s="100"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="101"/>
       <c r="G57" s="50"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="100">
+      <c r="C58" s="101">
         <f ca="1">AVERAGE(C62:C561)</f>
-        <v>899.11558199785827</v>
-      </c>
-      <c r="D58" s="100"/>
-      <c r="E58" s="100">
+        <v>899.09088878954537</v>
+      </c>
+      <c r="D58" s="101"/>
+      <c r="E58" s="101">
         <f ca="1">AVERAGE(E62:E561)</f>
-        <v>6.7002533447988091</v>
-      </c>
-      <c r="F58" s="100"/>
+        <v>6.5497029599674965</v>
+      </c>
+      <c r="F58" s="101"/>
       <c r="G58" s="50">
         <f ca="1">AVERAGE(G62:G561)</f>
-        <v>946.69834126680416</v>
+        <v>946.38648716028831</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="100">
+      <c r="C59" s="101">
         <f ca="1">STDEVA(C62:C561)</f>
-        <v>314.81997453102588</v>
-      </c>
-      <c r="D59" s="100"/>
-      <c r="E59" s="100">
+        <v>314.80418002539551</v>
+      </c>
+      <c r="D59" s="101"/>
+      <c r="E59" s="101">
         <f t="shared" ref="E59" ca="1" si="1">STDEVA(E62:E561)</f>
-        <v>27.923504172497982</v>
-      </c>
-      <c r="F59" s="100"/>
+        <v>26.985901890880744</v>
+      </c>
+      <c r="F59" s="101"/>
       <c r="G59" s="50">
         <f ca="1">STDEVA(G62:G561)</f>
-        <v>285.1745518696776</v>
+        <v>285.11080289725788</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
-      <c r="C60" s="98"/>
-      <c r="D60" s="98"/>
-      <c r="E60" s="98"/>
-      <c r="F60" s="98"/>
+      <c r="C60" s="102"/>
+      <c r="D60" s="102"/>
+      <c r="E60" s="102"/>
+      <c r="F60" s="102"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C61" s="98"/>
-      <c r="D61" s="98"/>
-      <c r="E61" s="98"/>
-      <c r="F61" s="98"/>
+      <c r="C61" s="102"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B62">
@@ -2995,21 +2995,21 @@
       </c>
       <c r="C62" s="28">
         <f ca="1">C56</f>
-        <v>1106.2369174309592</v>
+        <v>1093.8903132745213</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" s="28">
         <f ca="1">E56</f>
-        <v>214.90384537398614</v>
+        <v>139.62865295832967</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
       <c r="G62" s="28">
         <f ca="1">G56</f>
-        <v>1082.6780065357329</v>
+        <v>926.75095327780514</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -12994,6 +12994,99 @@
     </row>
   </sheetData>
   <mergeCells count="117">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E43:F43"/>
     <mergeCell ref="E53:F53"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="E37:F37"/>
@@ -13018,99 +13111,6 @@
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13136,133 +13136,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="97" t="s">
+      <c r="B1" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="106" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104" t="s">
+      <c r="C2" s="106"/>
+      <c r="D2" s="106" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="104"/>
+      <c r="E2" s="106"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="99">
+      <c r="B3" s="105">
         <f>[1]All!$L$3*L17</f>
         <v>0.54509043485042441</v>
       </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99">
+      <c r="C3" s="105"/>
+      <c r="D3" s="105">
         <f>[1]All!$L$4*L17</f>
         <v>0.55747885382429763</v>
       </c>
-      <c r="E3" s="99"/>
+      <c r="E3" s="105"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="99">
+      <c r="B4" s="105">
         <f>[2]prod_herd_data!F17</f>
         <v>300.56148880662164</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="99">
+      <c r="C4" s="105"/>
+      <c r="D4" s="105">
         <f>[2]prod_herd_data!F18</f>
         <v>1672.7289168977238</v>
       </c>
-      <c r="E4" s="99"/>
+      <c r="E4" s="105"/>
     </row>
     <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="99">
+      <c r="B5" s="105">
         <f>B4*B3</f>
         <v>163.83319263289235</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99">
+      <c r="C5" s="105"/>
+      <c r="D5" s="105">
         <f>D4*D3</f>
         <v>932.5109993509019</v>
       </c>
-      <c r="E5" s="99"/>
+      <c r="E5" s="105"/>
       <c r="K5" s="45"/>
     </row>
     <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
       <c r="K6" s="45"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="99">
+      <c r="B8" s="105">
         <f xml:space="preserve"> (([2]FEEDING_base!$J$17*L32)+([2]FEEDING_base!$J$18*L31))</f>
         <v>78.85461887370262</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99">
+      <c r="C8" s="105"/>
+      <c r="D8" s="105">
         <f>(([2]FEEDING_base!$J$23*L30)+([2]FEEDING_base!$J$24*L31))</f>
         <v>241.16030694690787</v>
       </c>
-      <c r="E8" s="99"/>
+      <c r="E8" s="105"/>
       <c r="H8" s="84"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="99">
+      <c r="B9" s="105">
         <f>[1]All!$P$3*L17</f>
         <v>16.603035738180687</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99">
+      <c r="C9" s="105"/>
+      <c r="D9" s="105">
         <f>[1]All!$P$4*L17</f>
         <v>13.537859909593482</v>
       </c>
-      <c r="E9" s="99"/>
+      <c r="E9" s="105"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="99">
+      <c r="B10" s="105">
         <f>[1]All!$Q$4*L17</f>
         <v>15.453594802460485</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99">
+      <c r="C10" s="105"/>
+      <c r="D10" s="105">
         <f>[1]All!$Q$4*L17</f>
         <v>15.453594802460485</v>
       </c>
-      <c r="E10" s="99"/>
+      <c r="E10" s="105"/>
       <c r="K10" s="2" t="str">
         <f>Dairy_Income_Roadmap!K10</f>
         <v>Basic income parameters</v>
@@ -13273,16 +13273,16 @@
       <c r="A11" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="99">
+      <c r="B11" s="105">
         <f>[1]All!$R$3*L17</f>
         <v>0.38314697857340047</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99">
+      <c r="C11" s="105"/>
+      <c r="D11" s="105">
         <f>[1]All!$R$4*L17</f>
         <v>1.6603035738180687</v>
       </c>
-      <c r="E11" s="99"/>
+      <c r="E11" s="105"/>
       <c r="K11" t="s">
         <v>90</v>
       </c>
@@ -13294,37 +13294,37 @@
       <c r="A12" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="99">
+      <c r="B12" s="105">
         <f>0*L17</f>
         <v>0</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99">
+      <c r="C12" s="105"/>
+      <c r="D12" s="105">
         <f>0*L17</f>
         <v>0</v>
       </c>
-      <c r="E12" s="99"/>
+      <c r="E12" s="105"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
+      <c r="B13" s="102"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="99">
+      <c r="B14" s="105">
         <f>SUM(B8:B12)</f>
         <v>111.29439639291719</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99">
+      <c r="C14" s="105"/>
+      <c r="D14" s="105">
         <f>SUM(D8:D12)</f>
         <v>271.8120652327799</v>
       </c>
-      <c r="E14" s="99"/>
+      <c r="E14" s="105"/>
       <c r="K14" t="str">
         <f>[5]NPV_Roadmap!K14</f>
         <v>Price acquring new animal (USD/head)</v>
@@ -13335,22 +13335,22 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="105"/>
       <c r="K17" t="str">
         <f>Dairy_Income_Roadmap!K16</f>
         <v>Price deflator</v>
@@ -13361,27 +13361,27 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="103" t="s">
+      <c r="B18" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="103"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="100">
+      <c r="B19" s="101">
         <f>L36*L17</f>
         <v>286.58935981411065</v>
       </c>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100">
+      <c r="C19" s="101"/>
+      <c r="D19" s="101">
         <f>L38*L17</f>
         <v>241.57020027586674</v>
       </c>
-      <c r="E19" s="100"/>
+      <c r="E19" s="101"/>
       <c r="K19" s="2" t="str">
         <f>[5]NPV_Roadmap!K24</f>
         <v>Cropping parameters</v>
@@ -13391,16 +13391,16 @@
       <c r="A20" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="100">
+      <c r="B20" s="101">
         <f>( [6]Sheet1!$QH$11*[2]feeding_change_data!$F$4+      [6]Sheet1!$QH$2*[2]feeding_change_data!$G$4)/([2]feeding_change_data!$F$4+[2]feeding_change_data!$G$4)</f>
         <v>19.866809639577287</v>
       </c>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100">
+      <c r="C20" s="101"/>
+      <c r="D20" s="101">
         <f>( [6]Sheet1!$QG$11*[2]feeding_change_data!$F$4+      [6]Sheet1!$QG$2*[2]feeding_change_data!$G$4)/([2]feeding_change_data!$F$4+[2]feeding_change_data!$G$4)</f>
         <v>183.51210225942458</v>
       </c>
-      <c r="E20" s="100"/>
+      <c r="E20" s="101"/>
       <c r="K20" t="str">
         <f>[5]NPV_Roadmap!K25</f>
         <v>Forage seeding cost (USD/ha/yr)</v>
@@ -13414,46 +13414,46 @@
       <c r="A21" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="101">
+      <c r="B21" s="104">
         <f>(((1/1000)*(1/L23)/L33))*B20</f>
         <v>2.0376215014951062E-3</v>
       </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="100">
+      <c r="C21" s="104"/>
+      <c r="D21" s="101">
         <f>(((1/1000)*(1/L23)/L33))*D20</f>
         <v>1.8821754077889701E-2</v>
       </c>
-      <c r="E21" s="100"/>
+      <c r="E21" s="101"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="100">
+      <c r="B22" s="101">
         <f>( [6]Sheet1!$QP$11*[2]feeding_change_data_pasture!$F$4+      [6]Sheet1!$QP$2*[2]feeding_change_data_pasture!$G$4)/([2]feeding_change_data_pasture!$F$4+[2]feeding_change_data_pasture!$G$4)</f>
         <v>57.294900274394081</v>
       </c>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100">
+      <c r="C22" s="101"/>
+      <c r="D22" s="101">
         <f>( [6]Sheet1!$QO$11*[2]feeding_change_data_pasture!$F$4+      [6]Sheet1!$QO$2*[2]feeding_change_data_pasture!$G$4)/([2]feeding_change_data_pasture!$F$4+[2]feeding_change_data_pasture!$G$4)</f>
         <v>248.36567251830056</v>
       </c>
-      <c r="E22" s="100"/>
+      <c r="E22" s="101"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="101">
+      <c r="B23" s="104">
         <f>(((1/1000)*(1/L25)/L34))*B22</f>
         <v>2.2917960109757635E-2</v>
       </c>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101">
+      <c r="C23" s="104"/>
+      <c r="D23" s="104">
         <f>(((1/1000)*(1/L25)/L34))*D22</f>
         <v>9.9346269007320229E-2</v>
       </c>
-      <c r="E23" s="101"/>
+      <c r="E23" s="104"/>
       <c r="K23" t="str">
         <f>[5]NPV_Roadmap!K28</f>
         <v>Use efficiency napier</v>
@@ -13467,31 +13467,31 @@
       <c r="A24" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="101">
+      <c r="B24" s="104">
         <f>SUM(B21+B23)</f>
         <v>2.495558161125274E-2</v>
       </c>
-      <c r="C24" s="101"/>
-      <c r="D24" s="101">
+      <c r="C24" s="104"/>
+      <c r="D24" s="104">
         <f>SUM(D21+D23)</f>
         <v>0.11816802308520993</v>
       </c>
-      <c r="E24" s="101"/>
+      <c r="E24" s="104"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="100">
+      <c r="B25" s="101">
         <f>(B21+B23)*L17*L20</f>
         <v>0.89242119800338404</v>
       </c>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100">
+      <c r="C25" s="101"/>
+      <c r="D25" s="101">
         <f>(D21+D23)*L17*L20</f>
         <v>4.2257339608484017</v>
       </c>
-      <c r="E25" s="100"/>
+      <c r="E25" s="101"/>
       <c r="K25" t="str">
         <f>[5]NPV_Roadmap!K29</f>
         <v>Use efficiency pasture</v>
@@ -13505,22 +13505,22 @@
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="100">
+      <c r="B26" s="101">
         <f>(B21+B23)*B19+B25</f>
         <v>8.0444253557610992</v>
       </c>
-      <c r="C26" s="100"/>
-      <c r="D26" s="100">
+      <c r="C26" s="101"/>
+      <c r="D26" s="101">
         <f>(D21+D23)*D19+D25</f>
         <v>32.771606963745811</v>
       </c>
-      <c r="E26" s="100"/>
+      <c r="E26" s="101"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="98"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
       <c r="K27" t="str">
         <f>[5]NPV_Roadmap!K31</f>
         <v>Standard error (%) improved forage yield</v>
@@ -13534,16 +13534,16 @@
       <c r="A28" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="99">
+      <c r="B28" s="105">
         <f>B5-B14</f>
         <v>52.538796239975156</v>
       </c>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99">
+      <c r="C28" s="105"/>
+      <c r="D28" s="105">
         <f>D5-D14</f>
         <v>660.698934118122</v>
       </c>
-      <c r="E28" s="99"/>
+      <c r="E28" s="105"/>
       <c r="K28" t="str">
         <f>[5]NPV_Roadmap!K32</f>
         <v>Standard error (%) improved forage yield</v>
@@ -13554,16 +13554,16 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="102"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="98"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
       <c r="K30" t="str">
         <f>[5]NPV_Roadmap!K34</f>
         <v>Market price Sunflower cake (USD/kg)</v>
@@ -13574,10 +13574,10 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="98"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
       <c r="K31" t="str">
         <f>[5]NPV_Roadmap!K35</f>
         <v>Market price Maize bran (USD/kg)</v>
@@ -13588,16 +13588,16 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="98"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="99"/>
-      <c r="E32" s="99"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="98"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="99"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
       <c r="K33" t="str">
         <f>[5]NPV_Roadmap!K37</f>
         <v>Napier yield (Mg/ha)</v>
@@ -13608,13 +13608,13 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="97" t="s">
+      <c r="A34" s="103" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="98"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="98"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
       <c r="K34" t="str">
         <f>[5]NPV_Roadmap!K38</f>
         <v>Pasture yield (Mg/ha)</v>
@@ -13625,28 +13625,28 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="98" t="s">
+      <c r="A35" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="98"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="98"/>
+      <c r="B35" s="102"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="102"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="99">
+      <c r="B36" s="105">
         <f>[1]All!$S$3*L17</f>
         <v>7.6629395714680082E-2</v>
       </c>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99">
+      <c r="C36" s="105"/>
+      <c r="D36" s="105">
         <f>[1]All!$S$4*L17</f>
         <v>0.11494409357202014</v>
       </c>
-      <c r="E36" s="99"/>
+      <c r="E36" s="105"/>
       <c r="K36" t="str">
         <f>[5]NPV_Roadmap!K40</f>
         <v xml:space="preserve">Opportunity cost land strata 1 </v>
@@ -13657,10 +13657,10 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="98"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="99"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="105"/>
       <c r="K37" t="str">
         <f>[5]NPV_Roadmap!K41</f>
         <v>SE (fraction)</v>
@@ -13674,16 +13674,16 @@
       <c r="A38" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="99">
+      <c r="B38" s="105">
         <f>[1]All!$V$3*L17</f>
         <v>92.082990517140573</v>
       </c>
-      <c r="C38" s="99"/>
-      <c r="D38" s="99">
+      <c r="C38" s="105"/>
+      <c r="D38" s="105">
         <f>[1]All!$V$4*L17</f>
         <v>156.45168291747186</v>
       </c>
-      <c r="E38" s="99"/>
+      <c r="E38" s="105"/>
       <c r="K38" t="str">
         <f>[5]NPV_Roadmap!K42</f>
         <v>Opportunity cost land strata 2</v>
@@ -13697,16 +13697,16 @@
       <c r="A39" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="99">
+      <c r="B39" s="105">
         <f>[1]All!$W$3*L17</f>
         <v>92.210706176665042</v>
       </c>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99">
+      <c r="C39" s="105"/>
+      <c r="D39" s="105">
         <f>[1]All!$W$4*L17</f>
         <v>99.873645748133058</v>
       </c>
-      <c r="E39" s="99"/>
+      <c r="E39" s="105"/>
       <c r="K39" t="str">
         <f>[5]NPV_Roadmap!K43</f>
         <v>SE (fraction)</v>
@@ -13720,88 +13720,88 @@
       <c r="A40" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="99">
+      <c r="B40" s="105">
         <f>[1]All!$X$3*L17</f>
         <v>32.695208838263504</v>
       </c>
-      <c r="C40" s="99"/>
-      <c r="D40" s="99">
+      <c r="C40" s="105"/>
+      <c r="D40" s="105">
         <f>[1]All!$X$4*L17</f>
         <v>12.643850292922215</v>
       </c>
-      <c r="E40" s="99"/>
+      <c r="E40" s="105"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="99">
+      <c r="B41" s="105">
         <f>[1]All!$Y$3*L17</f>
         <v>3.0651758285872037</v>
       </c>
-      <c r="C41" s="99"/>
-      <c r="D41" s="99">
+      <c r="C41" s="105"/>
+      <c r="D41" s="105">
         <f>[1]All!$Y$4*L17</f>
         <v>4.853195061929739</v>
       </c>
-      <c r="E41" s="99"/>
+      <c r="E41" s="105"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="99">
+      <c r="B42" s="105">
         <f>B12*L17</f>
         <v>0</v>
       </c>
-      <c r="C42" s="99"/>
-      <c r="D42" s="99">
+      <c r="C42" s="105"/>
+      <c r="D42" s="105">
         <f>D12*L17</f>
         <v>0</v>
       </c>
-      <c r="E42" s="99"/>
+      <c r="E42" s="105"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="99">
+      <c r="B43" s="105">
         <f>(1/100)*(B21*L27+B23*L28)/SUM(B21,B23)</f>
         <v>0.18979375870077736</v>
       </c>
-      <c r="C43" s="99"/>
-      <c r="D43" s="99">
+      <c r="C43" s="105"/>
+      <c r="D43" s="105">
         <f>(1/100)*(D21*L27+D23*L28)/SUM(D21,D23)</f>
         <v>0.18009005145123153</v>
       </c>
-      <c r="E43" s="99"/>
+      <c r="E43" s="105"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="100">
+      <c r="B44" s="101">
         <f>B19*L37</f>
         <v>252.98810305730544</v>
       </c>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100">
+      <c r="C44" s="101"/>
+      <c r="D44" s="101">
         <f>D19*L39</f>
         <v>283.00087608280137</v>
       </c>
-      <c r="E44" s="100"/>
+      <c r="E44" s="101"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B45" s="98"/>
-      <c r="C45" s="98"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="98"/>
-      <c r="C46" s="98"/>
-      <c r="D46" s="99"/>
-      <c r="E46" s="99"/>
+      <c r="B46" s="102"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="105"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C47" s="95" t="s">
@@ -13814,206 +13814,206 @@
       <c r="A48" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="99">
+      <c r="B48" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),B3,B36)</f>
-        <v>0.54815683536714566</v>
-      </c>
-      <c r="C48" s="99"/>
-      <c r="D48" s="99">
+        <v>0.55975911074521822</v>
+      </c>
+      <c r="C48" s="105"/>
+      <c r="D48" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),D3,D36)</f>
-        <v>0.54978956853360128</v>
-      </c>
-      <c r="E48" s="99"/>
+        <v>0.60826664360802818</v>
+      </c>
+      <c r="E48" s="105"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f>Dairy_Income_Roadmap!A44</f>
         <v>Milk yield</v>
       </c>
-      <c r="B49" s="99">
+      <c r="B49" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),B3,B3*Dairy_Income_Roadmap!L21)</f>
-        <v>0.59486400803772277</v>
-      </c>
-      <c r="C49" s="99"/>
-      <c r="D49" s="99">
+        <v>0.50821039072980412</v>
+      </c>
+      <c r="C49" s="105"/>
+      <c r="D49" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),D3,D3*Dairy_Income_Roadmap!L21)</f>
-        <v>0.50918810977592399</v>
-      </c>
-      <c r="E49" s="99"/>
+        <v>0.70409511205818631</v>
+      </c>
+      <c r="E49" s="105"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="98"/>
-      <c r="C50" s="98"/>
-      <c r="D50" s="99"/>
-      <c r="E50" s="99"/>
+      <c r="B50" s="102"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="99">
+      <c r="B51" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),B8,B38)</f>
-        <v>78.35120587851398</v>
-      </c>
-      <c r="C51" s="99"/>
-      <c r="D51" s="99">
+        <v>-71.863112265574003</v>
+      </c>
+      <c r="C51" s="105"/>
+      <c r="D51" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),D8,D38)</f>
-        <v>419.30128873170952</v>
-      </c>
-      <c r="E51" s="99"/>
+        <v>158.32011754759901</v>
+      </c>
+      <c r="E51" s="105"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="99">
+      <c r="B52" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),B9,B39)</f>
-        <v>71.156538595109794</v>
-      </c>
-      <c r="C52" s="99"/>
-      <c r="D52" s="99">
+        <v>60.727481420374446</v>
+      </c>
+      <c r="C52" s="105"/>
+      <c r="D52" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),D9,D39)</f>
-        <v>-85.699561903917356</v>
-      </c>
-      <c r="E52" s="99"/>
+        <v>-146.22986328453624</v>
+      </c>
+      <c r="E52" s="105"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="99">
+      <c r="B53" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),B10,B40)</f>
-        <v>12.664913097794546</v>
-      </c>
-      <c r="C53" s="99"/>
-      <c r="D53" s="99">
+        <v>31.292132223213912</v>
+      </c>
+      <c r="C53" s="105"/>
+      <c r="D53" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),D10,D40)</f>
-        <v>6.4333175575348331</v>
-      </c>
-      <c r="E53" s="99"/>
+        <v>22.287677836834437</v>
+      </c>
+      <c r="E53" s="105"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="99">
+      <c r="B54" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B41)</f>
-        <v>-3.3606416180374037</v>
-      </c>
-      <c r="C54" s="99"/>
-      <c r="D54" s="99">
+        <v>1.9523056371782388</v>
+      </c>
+      <c r="C54" s="105"/>
+      <c r="D54" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),D11,D41)</f>
-        <v>-1.1778946101810168</v>
-      </c>
-      <c r="E54" s="99"/>
+        <v>1.6424168119389375</v>
+      </c>
+      <c r="E54" s="105"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="99">
+      <c r="B55" s="105">
         <v>1E-4</v>
       </c>
-      <c r="C55" s="99"/>
-      <c r="D55" s="99">
+      <c r="C55" s="105"/>
+      <c r="D55" s="105">
         <v>1E-4</v>
       </c>
-      <c r="E55" s="99"/>
+      <c r="E55" s="105"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="98"/>
-      <c r="C56" s="98"/>
-      <c r="D56" s="99"/>
-      <c r="E56" s="99"/>
+      <c r="B56" s="102"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="105"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="99">
+      <c r="B57" s="105">
         <f>SUM(C51:C55)</f>
         <v>0</v>
       </c>
-      <c r="C57" s="99"/>
-      <c r="D57" s="99">
+      <c r="C57" s="105"/>
+      <c r="D57" s="105">
         <f>SUM(E51:E55)</f>
         <v>0</v>
       </c>
-      <c r="E57" s="99"/>
+      <c r="E57" s="105"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
-      <c r="B58" s="98"/>
-      <c r="C58" s="98"/>
-      <c r="D58" s="99"/>
-      <c r="E58" s="99"/>
+      <c r="B58" s="102"/>
+      <c r="C58" s="102"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="105"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="99">
+      <c r="B59" s="105">
         <f ca="1">B48*B49-B57</f>
-        <v>0.32607877211977443</v>
-      </c>
-      <c r="C59" s="99"/>
-      <c r="D59" s="99">
+        <v>0.28447539638639507</v>
+      </c>
+      <c r="C59" s="105"/>
+      <c r="D59" s="105">
         <f ca="1">D48*D49-D57</f>
-        <v>0.27994631117614527</v>
-      </c>
-      <c r="E59" s="99"/>
+        <v>0.42827757059245147</v>
+      </c>
+      <c r="E59" s="105"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
-      <c r="B60" s="98"/>
-      <c r="C60" s="98"/>
-      <c r="D60" s="99"/>
-      <c r="E60" s="99"/>
+      <c r="B60" s="102"/>
+      <c r="C60" s="102"/>
+      <c r="D60" s="105"/>
+      <c r="E60" s="105"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B61" s="99">
+      <c r="B61" s="105">
         <f ca="1">AVERAGE(C65:C564)</f>
-        <v>109.22469170244574</v>
-      </c>
-      <c r="C61" s="99"/>
-      <c r="D61" s="99">
+        <v>109.22460849569427</v>
+      </c>
+      <c r="C61" s="105"/>
+      <c r="D61" s="105">
         <f ca="1">AVERAGE(E65:E564)</f>
-        <v>132.14156293197883</v>
-      </c>
-      <c r="E61" s="99"/>
+        <v>132.14185959449762</v>
+      </c>
+      <c r="E61" s="105"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="99">
+      <c r="B62" s="105">
         <f ca="1">STDEVA(C65:C564)</f>
-        <v>51.721848759069076</v>
-      </c>
-      <c r="C62" s="99"/>
-      <c r="D62" s="99">
+        <v>51.72202433233231</v>
+      </c>
+      <c r="C62" s="105"/>
+      <c r="D62" s="105">
         <f ca="1">STDEVA(E65:E564)</f>
-        <v>164.99716259369302</v>
-      </c>
-      <c r="E62" s="99"/>
+        <v>164.9969251664651</v>
+      </c>
+      <c r="E62" s="105"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="98"/>
-      <c r="C63" s="98"/>
-      <c r="D63" s="98"/>
-      <c r="E63" s="98"/>
+      <c r="B63" s="102"/>
+      <c r="C63" s="102"/>
+      <c r="D63" s="102"/>
+      <c r="E63" s="102"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B64" s="98"/>
-      <c r="C64" s="98"/>
-      <c r="D64" s="98"/>
-      <c r="E64" s="98"/>
+      <c r="B64" s="102"/>
+      <c r="C64" s="102"/>
+      <c r="D64" s="102"/>
+      <c r="E64" s="102"/>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B65">
@@ -14021,7 +14021,7 @@
       </c>
       <c r="C65" s="28">
         <f ca="1">B59</f>
-        <v>0.32607877211977443</v>
+        <v>0.28447539638639507</v>
       </c>
       <c r="D65">
         <f>B65</f>
@@ -14029,7 +14029,7 @@
       </c>
       <c r="E65" s="28">
         <f ca="1">D59</f>
-        <v>0.27994631117614527</v>
+        <v>0.42827757059245147</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
@@ -21519,61 +21519,49 @@
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D63:E63"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="D61:E61"/>
@@ -21598,49 +21586,61 @@
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21680,38 +21680,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="105" t="s">
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="109" t="s">
         <v>142</v>
       </c>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-      <c r="Q1" s="105"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="105"/>
-      <c r="T1" s="105"/>
-      <c r="U1" s="105" t="s">
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109" t="s">
         <v>143</v>
       </c>
-      <c r="V1" s="105"/>
-      <c r="W1" s="105"/>
-      <c r="X1" s="105"/>
-      <c r="Y1" s="105"/>
-      <c r="Z1" s="105" t="s">
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109" t="s">
         <v>144</v>
       </c>
-      <c r="AA1" s="105"/>
-      <c r="AB1" s="105"/>
+      <c r="AA1" s="109"/>
+      <c r="AB1" s="109"/>
     </row>
     <row r="2" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
@@ -21861,7 +21861,7 @@
       </c>
       <c r="O3" s="53">
         <f ca="1">Dairy_Income_Baseline!B62</f>
-        <v>51.721848759069076</v>
+        <v>51.72202433233231</v>
       </c>
       <c r="P3" s="53">
         <f>(G3-F3)*(Dairy_Income_Baseline!B24)</f>
@@ -21881,7 +21881,7 @@
       </c>
       <c r="T3" s="5">
         <f ca="1">F3*O3*I3</f>
-        <v>229.95533958282113</v>
+        <v>229.95612018154947</v>
       </c>
       <c r="U3" s="55">
         <f>N3*(M3*K3*I3)/(D3)</f>
@@ -21909,7 +21909,7 @@
       </c>
       <c r="AA3" s="90">
         <f ca="1">T3*D3</f>
-        <v>18244811.049352843</v>
+        <v>18244872.982580092</v>
       </c>
       <c r="AB3" s="51">
         <f>Y3*D3</f>
@@ -21971,7 +21971,7 @@
       </c>
       <c r="O4" s="53">
         <f ca="1">Dairy_Income_Baseline!D62</f>
-        <v>164.99716259369302</v>
+        <v>164.9969251664651</v>
       </c>
       <c r="P4" s="53">
         <f>(G4-F4)*(Dairy_Income_Baseline!B24)</f>
@@ -21991,7 +21991,7 @@
       </c>
       <c r="T4" s="5">
         <f ca="1">F4*O4*I4</f>
-        <v>236.02399414874105</v>
+        <v>236.02365451549056</v>
       </c>
       <c r="U4" s="55">
         <f>N4*(M4*K4*I4)/(D4)</f>
@@ -22019,7 +22019,7 @@
       </c>
       <c r="AA4" s="90">
         <f ca="1">T4*D4</f>
-        <v>6562409.33885023</v>
+        <v>6562399.8956899159</v>
       </c>
       <c r="AB4" s="57">
         <f>Y4*D4</f>
@@ -22028,7 +22028,7 @@
       <c r="AC4" s="18"/>
       <c r="AD4" s="28">
         <f ca="1">MC_Baseline!H20</f>
-        <v>20.039859928423819</v>
+        <v>20.565227798485964</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -22113,7 +22113,7 @@
       </c>
       <c r="O6" s="53">
         <f ca="1">Dairy_Income_Roadmap!C59</f>
-        <v>314.81997453102588</v>
+        <v>314.80418002539551</v>
       </c>
       <c r="P6" s="53">
         <f>(F6*(Dairy_Income_Roadmap!C22 + Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -22133,7 +22133,7 @@
       </c>
       <c r="T6" s="5">
         <f ca="1">F6*O6*I6</f>
-        <v>264.36012141498674</v>
+        <v>264.34685847818497</v>
       </c>
       <c r="U6" s="51">
         <f>U3</f>
@@ -22161,7 +22161,7 @@
       </c>
       <c r="AA6" s="90">
         <f ca="1">T6*D6</f>
-        <v>7341078.3395275176</v>
+        <v>7340710.0379185127</v>
       </c>
       <c r="AB6" s="56">
         <f>Y6*D6</f>
@@ -22218,7 +22218,7 @@
       </c>
       <c r="O7" s="53">
         <f ca="1">Dairy_Income_Roadmap!E59</f>
-        <v>27.923504172497982</v>
+        <v>26.985901890880744</v>
       </c>
       <c r="P7" s="53">
         <f>(F7*(Dairy_Income_Roadmap!E22 + Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -22238,7 +22238,7 @@
       </c>
       <c r="T7" s="5">
         <f ca="1">F7*O7*I7</f>
-        <v>103.55765597936011</v>
+        <v>100.08044574366156</v>
       </c>
       <c r="U7" s="51">
         <f t="shared" ref="U7:W8" si="0">U3</f>
@@ -22266,7 +22266,7 @@
       </c>
       <c r="AA7" s="90">
         <f ca="1">T7*D7</f>
-        <v>5340617.0744512556</v>
+        <v>5161292.3477508985</v>
       </c>
       <c r="AB7" s="51">
         <f>Y7*D7</f>
@@ -22324,7 +22324,7 @@
       </c>
       <c r="O8" s="53">
         <f ca="1">Dairy_Income_Roadmap!G59</f>
-        <v>285.1745518696776</v>
+        <v>285.11080289725788</v>
       </c>
       <c r="P8" s="53">
         <f>(F8*(Dairy_Income_Roadmap!G22 + Dairy_Income_Baseline!D24)  -   F5*Dairy_Income_Baseline!D24)</f>
@@ -22344,7 +22344,7 @@
       </c>
       <c r="T8" s="5">
         <f ca="1">F8*O8*I8</f>
-        <v>464.41891299225279</v>
+        <v>464.31509507343281</v>
       </c>
       <c r="U8" s="51">
         <f t="shared" si="0"/>
@@ -22372,7 +22372,7 @@
       </c>
       <c r="AA8" s="90">
         <f ca="1">T8*D8</f>
-        <v>12912699.925916785</v>
+        <v>12909813.373291228</v>
       </c>
       <c r="AB8" s="51">
         <f>Y8*D8</f>
@@ -22384,7 +22384,7 @@
       </c>
       <c r="AD8" s="28">
         <f ca="1">MC_High_ambition!I20</f>
-        <v>15.024343713931545</v>
+        <v>14.001545545058608</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -22470,7 +22470,7 @@
       </c>
       <c r="O10" s="53">
         <f ca="1">Dairy_Income_Roadmap!C59</f>
-        <v>314.81997453102588</v>
+        <v>314.80418002539551</v>
       </c>
       <c r="P10" s="53">
         <f>(F10*(Dairy_Income_Roadmap!C22+Dairy_Income_Baseline!B24)-F3*Dairy_Income_Baseline!B24)</f>
@@ -22490,7 +22490,7 @@
       </c>
       <c r="T10" s="5">
         <f ca="1">F10*O10*I10</f>
-        <v>223.39700745435408</v>
+        <v>223.38579963535435</v>
       </c>
       <c r="U10" s="51">
         <f>U6</f>
@@ -22518,7 +22518,7 @@
       </c>
       <c r="AA10" s="90">
         <f ca="1">T10*D10</f>
-        <v>3367649.0291726561</v>
+        <v>3367480.0743544889</v>
       </c>
       <c r="AB10" s="51">
         <f>Y10*D10</f>
@@ -22576,7 +22576,7 @@
       </c>
       <c r="O11" s="53">
         <f ca="1">Dairy_Income_Roadmap!E59</f>
-        <v>27.923504172497982</v>
+        <v>26.985901890880744</v>
       </c>
       <c r="P11" s="53">
         <f>(F11*(Dairy_Income_Roadmap!E22 + Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -22596,7 +22596,7 @@
       </c>
       <c r="T11" s="5">
         <f ca="1">F11*O11*I11</f>
-        <v>129.85945530564143</v>
+        <v>125.49909563043779</v>
       </c>
       <c r="U11" s="51">
         <f t="shared" ref="U11:W12" si="3">U7</f>
@@ -22624,7 +22624,7 @@
       </c>
       <c r="AA11" s="90">
         <f ca="1">T11*D11</f>
-        <v>8345540.4677728433</v>
+        <v>8065317.8375622882</v>
       </c>
       <c r="AB11" s="51">
         <f>Y11*D11</f>
@@ -22683,7 +22683,7 @@
       </c>
       <c r="O12" s="53">
         <f ca="1">Dairy_Income_Roadmap!G59</f>
-        <v>285.1745518696776</v>
+        <v>285.11080289725788</v>
       </c>
       <c r="P12" s="53">
         <f>(F12*(Dairy_Income_Roadmap!G22 + Dairy_Income_Baseline!D24)  -   F4*Dairy_Income_Baseline!D24)</f>
@@ -22703,7 +22703,7 @@
       </c>
       <c r="T12" s="5">
         <f ca="1">F12*O12*I12</f>
-        <v>518.58123841258634</v>
+        <v>518.46531284753098</v>
       </c>
       <c r="U12" s="51">
         <f t="shared" si="3"/>
@@ -22731,7 +22731,7 @@
       </c>
       <c r="AA12" s="90">
         <f ca="1">T12*D12</f>
-        <v>14418628.810114248</v>
+        <v>14415405.616584817</v>
       </c>
       <c r="AB12" s="51">
         <f>Y12*D12</f>
@@ -22743,7 +22743,7 @@
       </c>
       <c r="AD12" s="28">
         <f ca="1">MC_Middle_road!I20</f>
-        <v>15.712829614357204</v>
+        <v>14.97603760432227</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -22832,7 +22832,7 @@
       </c>
       <c r="O14" s="53">
         <f ca="1">Dairy_Income_Roadmap!C59</f>
-        <v>314.81997453102588</v>
+        <v>314.80418002539551</v>
       </c>
       <c r="P14" s="53">
         <f>(F14*(Dairy_Income_Roadmap!C22+ Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -22852,7 +22852,7 @@
       </c>
       <c r="T14" s="5">
         <f ca="1">F14*O14*I14</f>
-        <v>141.71085531633713</v>
+        <v>141.7037456883489</v>
       </c>
       <c r="U14" s="51">
         <f t="shared" ref="U14:U16" si="5">U10</f>
@@ -22880,7 +22880,7 @@
       </c>
       <c r="AA14" s="90">
         <f ca="1">T14*D14</f>
-        <v>337303.03243829083</v>
+        <v>337286.10995853733</v>
       </c>
       <c r="AB14" s="51">
         <f>Y14*D14</f>
@@ -22938,7 +22938,7 @@
       </c>
       <c r="O15" s="53">
         <f ca="1">Dairy_Income_Roadmap!E59</f>
-        <v>27.923504172497982</v>
+        <v>26.985901890880744</v>
       </c>
       <c r="P15" s="53">
         <f>(F15*(Dairy_Income_Roadmap!E22 + Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -22958,7 +22958,7 @@
       </c>
       <c r="T15" s="5">
         <f ca="1">F15*O15*I15</f>
-        <v>172.63132899260464</v>
+        <v>166.83479547223442</v>
       </c>
       <c r="U15" s="51">
         <f t="shared" si="5"/>
@@ -22986,7 +22986,7 @@
       </c>
       <c r="AA15" s="90">
         <f ca="1">T15*D15</f>
-        <v>13285784.991343211</v>
+        <v>12839681.155520622</v>
       </c>
       <c r="AB15" s="51">
         <f>Y15*D15</f>
@@ -23045,7 +23045,7 @@
       </c>
       <c r="O16" s="53">
         <f ca="1">Dairy_Income_Roadmap!G59</f>
-        <v>285.1745518696776</v>
+        <v>285.11080289725788</v>
       </c>
       <c r="P16" s="53">
         <f>(F16*(Dairy_Income_Roadmap!G22 + Dairy_Income_Baseline!D24)  -   F4*Dairy_Income_Baseline!D24)</f>
@@ -23065,7 +23065,7 @@
       </c>
       <c r="T16" s="5">
         <f ca="1">F16*O16*I16</f>
-        <v>459.96999779415074</v>
+        <v>459.86717440226317</v>
       </c>
       <c r="U16" s="51">
         <f t="shared" si="5"/>
@@ -23093,7 +23093,7 @@
       </c>
       <c r="AA16" s="90">
         <f ca="1">T16*D16</f>
-        <v>12789002.32157331</v>
+        <v>12786143.420767022</v>
       </c>
       <c r="AB16" s="51">
         <f>Y16*D16</f>
@@ -23105,7 +23105,7 @@
       </c>
       <c r="AD16" s="28">
         <f ca="1">MC_Status_quo!I20</f>
-        <v>17.613008835134206</v>
+        <v>19.016713869000629</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -23194,7 +23194,7 @@
       </c>
       <c r="O18" s="53">
         <f ca="1">Dairy_Income_Roadmap!C59</f>
-        <v>314.81997453102588</v>
+        <v>314.80418002539551</v>
       </c>
       <c r="P18" s="53">
         <f>(F18*(Dairy_Income_Roadmap!C22 + Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -23214,7 +23214,7 @@
       </c>
       <c r="T18" s="5">
         <f ca="1">F18*O18*I18</f>
-        <v>334.70917571116587</v>
+        <v>334.69238336510148</v>
       </c>
       <c r="U18" s="51">
         <f t="shared" ref="U18:U20" si="8">U14</f>
@@ -23242,7 +23242,7 @@
       </c>
       <c r="AA18" s="90">
         <f ca="1">T18*D18</f>
-        <v>9294617.7611910179</v>
+        <v>9294151.4505867437</v>
       </c>
       <c r="AB18" s="51">
         <f>Y18*D18</f>
@@ -23300,7 +23300,7 @@
       </c>
       <c r="O19" s="53">
         <f ca="1">Dairy_Income_Roadmap!E59</f>
-        <v>27.923504172497982</v>
+        <v>26.985901890880744</v>
       </c>
       <c r="P19" s="53">
         <f>(F19*(Dairy_Income_Roadmap!E22 + Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -23320,7 +23320,7 @@
       </c>
       <c r="T19" s="5">
         <f ca="1">F19*O19*I19</f>
-        <v>131.11545525817391</v>
+        <v>126.71292220766853</v>
       </c>
       <c r="U19" s="51">
         <f t="shared" si="8"/>
@@ -23348,7 +23348,7 @@
       </c>
       <c r="AA19" s="90">
         <f ca="1">T19*D19</f>
-        <v>6761812.3687138734</v>
+        <v>6534767.4152721772</v>
       </c>
       <c r="AB19" s="51">
         <f>Y19*D19</f>
@@ -23407,7 +23407,7 @@
       </c>
       <c r="O20" s="53">
         <f ca="1">Dairy_Income_Roadmap!G59</f>
-        <v>285.1745518696776</v>
+        <v>285.11080289725788</v>
       </c>
       <c r="P20" s="53">
         <f>(F20*(Dairy_Income_Roadmap!G22+ Dairy_Income_Baseline!D24)  -   F4*Dairy_Income_Baseline!D24)</f>
@@ -23427,7 +23427,7 @@
       </c>
       <c r="T20" s="5">
         <f ca="1">F20*O20*I20</f>
-        <v>588.00575033894029</v>
+        <v>587.87430536211741</v>
       </c>
       <c r="U20" s="51">
         <f t="shared" si="8"/>
@@ -23455,7 +23455,7 @@
       </c>
       <c r="AA20" s="90">
         <f ca="1">T20*D20</f>
-        <v>16348907.411888577</v>
+        <v>16345252.716752354</v>
       </c>
       <c r="AB20" s="51">
         <f>Y20*D20</f>
@@ -23467,7 +23467,7 @@
       </c>
       <c r="AD20" s="28">
         <f ca="1">MC_High_ambition_plus!I20</f>
-        <v>14.0755914087579</v>
+        <v>13.532307690846137</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -23531,7 +23531,7 @@
         <v>146</v>
       </c>
       <c r="B24" s="2"/>
-      <c r="C24" s="111">
+      <c r="C24" s="100">
         <f>532194/(250800+532194)</f>
         <v>0.67969103211518866</v>
       </c>
@@ -23541,7 +23541,7 @@
         <v>147</v>
       </c>
       <c r="B25" s="2"/>
-      <c r="C25" s="111">
+      <c r="C25" s="100">
         <f>9226165/(9226165+3518000)</f>
         <v>0.723952098862499</v>
       </c>
@@ -23554,7 +23554,7 @@
         <v>38</v>
       </c>
       <c r="B26" s="59"/>
-      <c r="C26" s="111">
+      <c r="C26" s="100">
         <f>1-0.259</f>
         <v>0.74099999999999999</v>
       </c>
@@ -23565,7 +23565,7 @@
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A27" s="109" t="s">
+      <c r="A27" s="98" t="s">
         <v>148</v>
       </c>
       <c r="B27" s="58" t="s">
@@ -23583,7 +23583,7 @@
       <c r="P27" s="2"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A28" s="109"/>
+      <c r="A28" s="98"/>
       <c r="B28" s="58" t="s">
         <v>105</v>
       </c>
@@ -23603,7 +23603,7 @@
       <c r="T28" s="7"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A29" s="109"/>
+      <c r="A29" s="98"/>
       <c r="B29" s="58" t="s">
         <v>106</v>
       </c>
@@ -23619,7 +23619,7 @@
       <c r="R29" s="20"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A30" s="109"/>
+      <c r="A30" s="98"/>
       <c r="B30" s="58" t="s">
         <v>107</v>
       </c>
@@ -23635,7 +23635,7 @@
       <c r="R30" s="20"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="99" t="s">
         <v>149</v>
       </c>
       <c r="B31" s="58" t="s">
@@ -23653,7 +23653,7 @@
       <c r="R31" s="16"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="A32" s="110"/>
+      <c r="A32" s="99"/>
       <c r="B32" s="58" t="s">
         <v>105</v>
       </c>
@@ -23670,7 +23670,7 @@
       <c r="R32" s="21"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A33" s="110"/>
+      <c r="A33" s="99"/>
       <c r="B33" s="58" t="s">
         <v>106</v>
       </c>
@@ -23701,14 +23701,14 @@
       <c r="R34" s="22"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="99" t="s">
         <v>150</v>
       </c>
       <c r="B35" s="58" t="str">
         <f>B31</f>
         <v>High ambition</v>
       </c>
-      <c r="C35" s="108">
+      <c r="C35" s="97">
         <f>(C6+C8)/SUM(C6,C7,C8)</f>
         <v>0.51867470956339246</v>
       </c>
@@ -24027,11 +24027,11 @@
       </c>
       <c r="B4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N3,Mappings!O3)</f>
-        <v>83.278091568415718</v>
+        <v>76.445062936461397</v>
       </c>
       <c r="C4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N4,Mappings!O4)</f>
-        <v>965.51372036322562</v>
+        <v>668.09512277664805</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -24079,11 +24079,11 @@
       </c>
       <c r="B8" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B7,B7*25/100)</f>
-        <v>8692.6667556753164</v>
+        <v>7768.3108051310501</v>
       </c>
       <c r="C8" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C7,C7*25/100)</f>
-        <v>5916.7862109446069</v>
+        <v>4787.3290371267794</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -24105,11 +24105,11 @@
       </c>
       <c r="B10" s="28">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L38),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L38))</f>
-        <v>-12.96285315118093</v>
+        <v>-23.882741777934363</v>
       </c>
       <c r="C10" s="28">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L38),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L38))</f>
-        <v>2.5894630279771969</v>
+        <v>8.1756250547563827</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -24148,11 +24148,11 @@
       </c>
       <c r="B14" s="28">
         <f ca="1">B4*B6</f>
-        <v>370.25439511317632</v>
+        <v>339.87474981550741</v>
       </c>
       <c r="C14" s="28">
         <f ca="1">C4*C6</f>
-        <v>1381.1413548165465</v>
+        <v>955.69206688324925</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -24161,11 +24161,11 @@
       </c>
       <c r="B15" s="28">
         <f ca="1">IF(B9&gt;0,B8-B10,    B8 +B10)</f>
-        <v>8705.6296088264971</v>
+        <v>7792.193546908984</v>
       </c>
       <c r="C15" s="28">
         <f ca="1">C8-IF(C9&gt;0,C10,(-1)*C10)</f>
-        <v>5914.1967479166296</v>
+        <v>4779.1534120720235</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -24174,11 +24174,11 @@
       </c>
       <c r="B16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>77426.972783514007</v>
+        <v>78890.802365807074</v>
       </c>
       <c r="C16" s="28">
         <f t="shared" ref="C16" ca="1" si="0">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>28126.815746072341</v>
+        <v>28584.275230108338</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -24191,15 +24191,15 @@
       </c>
       <c r="B18" s="28">
         <f ca="1">(B14+B15)*B16</f>
-        <v>702718223.75936723</v>
+        <v>641545392.82213724</v>
       </c>
       <c r="C18" s="28">
         <f ca="1">(C14+C15)*C16</f>
-        <v>205194630.62087703</v>
+        <v>163926401.57259998</v>
       </c>
       <c r="E18" s="28">
         <f ca="1">B18+C18</f>
-        <v>907912854.38024426</v>
+        <v>805471794.39473724</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -24214,9 +24214,9 @@
       </c>
       <c r="E19" s="28">
         <f ca="1">STDEVA(E22:E129)</f>
-        <v>149709314.70875299</v>
-      </c>
-      <c r="G19" s="107" t="s">
+        <v>157139634.88469633</v>
+      </c>
+      <c r="G19" s="111" t="s">
         <v>62</v>
       </c>
     </row>
@@ -24232,12 +24232,12 @@
       </c>
       <c r="E20" s="28">
         <f ca="1">AVERAGE(E22:E129)</f>
-        <v>747057690.24069214</v>
-      </c>
-      <c r="G20" s="107"/>
+        <v>764103546.16283476</v>
+      </c>
+      <c r="G20" s="111"/>
       <c r="H20" s="79">
         <f ca="1">100*E19/E20</f>
-        <v>20.039859928423819</v>
+        <v>20.565227798485964</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -24246,7 +24246,7 @@
       </c>
       <c r="E22">
         <f ca="1">E18</f>
-        <v>907912854.38024426</v>
+        <v>805471794.39473724</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -24255,7 +24255,7 @@
       </c>
       <c r="E23">
         <f t="dataTable" ref="E23:E129" dt2D="0" dtr="0" r1="E21" ca="1"/>
-        <v>664995022.54363322</v>
+        <v>627088281.09727311</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -24263,7 +24263,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>635300832.16225719</v>
+        <v>620378880.77187741</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -24271,7 +24271,7 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <v>935365051.29961431</v>
+        <v>759950202.53587747</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -24279,7 +24279,7 @@
         <v>5</v>
       </c>
       <c r="E26">
-        <v>935990186.26040745</v>
+        <v>931470317.21580958</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -24287,7 +24287,7 @@
         <v>6</v>
       </c>
       <c r="E27">
-        <v>657094679.41896772</v>
+        <v>975991901.4465785</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -24295,7 +24295,7 @@
         <v>7</v>
       </c>
       <c r="E28">
-        <v>579273300.13255811</v>
+        <v>706219322.87862301</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -24303,7 +24303,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>729253628.02672029</v>
+        <v>768117650.25567162</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -24311,7 +24311,7 @@
         <v>9</v>
       </c>
       <c r="E30">
-        <v>787416804.06400442</v>
+        <v>873427256.31283402</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -24319,7 +24319,7 @@
         <v>10</v>
       </c>
       <c r="E31">
-        <v>533793209.05291682</v>
+        <v>719239072.37564015</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -24327,7 +24327,7 @@
         <v>11</v>
       </c>
       <c r="E32">
-        <v>650707572.1657455</v>
+        <v>748303736.26696479</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.3">
@@ -24335,7 +24335,7 @@
         <v>12</v>
       </c>
       <c r="E33">
-        <v>849099452.89523244</v>
+        <v>731832147.21468091</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.3">
@@ -24343,7 +24343,7 @@
         <v>13</v>
       </c>
       <c r="E34">
-        <v>577508153.0802629</v>
+        <v>707224172.85377204</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.3">
@@ -24351,7 +24351,7 @@
         <v>14</v>
       </c>
       <c r="E35">
-        <v>856487039.33590603</v>
+        <v>1047290489.7892615</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.3">
@@ -24359,7 +24359,7 @@
         <v>15</v>
       </c>
       <c r="E36">
-        <v>651809782.56174386</v>
+        <v>743618709.33036637</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.3">
@@ -24367,7 +24367,7 @@
         <v>16</v>
       </c>
       <c r="E37">
-        <v>674151598.67238498</v>
+        <v>858567752.0907743</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.3">
@@ -24375,7 +24375,7 @@
         <v>17</v>
       </c>
       <c r="E38">
-        <v>631167748.98010802</v>
+        <v>479407852.14099252</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.3">
@@ -24383,7 +24383,7 @@
         <v>18</v>
       </c>
       <c r="E39">
-        <v>792407957.78640282</v>
+        <v>744880830.11685503</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.3">
@@ -24391,7 +24391,7 @@
         <v>19</v>
       </c>
       <c r="E40">
-        <v>566917235.77958059</v>
+        <v>842043789.29055071</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.3">
@@ -24399,7 +24399,7 @@
         <v>20</v>
       </c>
       <c r="E41">
-        <v>919405941.99325383</v>
+        <v>1006090665.0168614</v>
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.3">
@@ -24407,7 +24407,7 @@
         <v>21</v>
       </c>
       <c r="E42">
-        <v>731051855.52248573</v>
+        <v>727004518.09110379</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.3">
@@ -24415,7 +24415,7 @@
         <v>22</v>
       </c>
       <c r="E43">
-        <v>797475735.41402495</v>
+        <v>530346940.32279605</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.3">
@@ -24423,7 +24423,7 @@
         <v>23</v>
       </c>
       <c r="E44">
-        <v>1006921348.6309998</v>
+        <v>848739553.72422874</v>
       </c>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.3">
@@ -24431,7 +24431,7 @@
         <v>24</v>
       </c>
       <c r="E45">
-        <v>898869157.28198516</v>
+        <v>930704512.52838111</v>
       </c>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.3">
@@ -24439,7 +24439,7 @@
         <v>25</v>
       </c>
       <c r="E46">
-        <v>737079815.93398654</v>
+        <v>479212058.02321243</v>
       </c>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.3">
@@ -24447,7 +24447,7 @@
         <v>26</v>
       </c>
       <c r="E47">
-        <v>989930047.73355091</v>
+        <v>937891785.14252472</v>
       </c>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.3">
@@ -24455,7 +24455,7 @@
         <v>27</v>
       </c>
       <c r="E48">
-        <v>691508731.77803743</v>
+        <v>498991866.95533073</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.3">
@@ -24463,7 +24463,7 @@
         <v>28</v>
       </c>
       <c r="E49">
-        <v>629010093.28234553</v>
+        <v>550977188.58525479</v>
       </c>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.3">
@@ -24471,7 +24471,7 @@
         <v>29</v>
       </c>
       <c r="E50">
-        <v>445076686.23194295</v>
+        <v>504079201.93489361</v>
       </c>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.3">
@@ -24479,7 +24479,7 @@
         <v>30</v>
       </c>
       <c r="E51">
-        <v>722624897.19031143</v>
+        <v>818382216.5043062</v>
       </c>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.3">
@@ -24487,7 +24487,7 @@
         <v>31</v>
       </c>
       <c r="E52">
-        <v>907683335.26389599</v>
+        <v>988985437.56885028</v>
       </c>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.3">
@@ -24495,7 +24495,7 @@
         <v>32</v>
       </c>
       <c r="E53">
-        <v>944861727.80204308</v>
+        <v>863281590.35736966</v>
       </c>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.3">
@@ -24503,7 +24503,7 @@
         <v>33</v>
       </c>
       <c r="E54">
-        <v>760087661.94905257</v>
+        <v>763898595.38031042</v>
       </c>
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.3">
@@ -24511,7 +24511,7 @@
         <v>34</v>
       </c>
       <c r="E55">
-        <v>864840459.44805121</v>
+        <v>1011279304.0298353</v>
       </c>
     </row>
     <row r="56" spans="4:5" x14ac:dyDescent="0.3">
@@ -24519,7 +24519,7 @@
         <v>35</v>
       </c>
       <c r="E56">
-        <v>693387880.07189596</v>
+        <v>969508113.71273136</v>
       </c>
     </row>
     <row r="57" spans="4:5" x14ac:dyDescent="0.3">
@@ -24527,7 +24527,7 @@
         <v>36</v>
       </c>
       <c r="E57">
-        <v>771111222.38135183</v>
+        <v>645420447.38926423</v>
       </c>
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.3">
@@ -24535,7 +24535,7 @@
         <v>37</v>
       </c>
       <c r="E58">
-        <v>952306313.79736519</v>
+        <v>876964661.6866461</v>
       </c>
     </row>
     <row r="59" spans="4:5" x14ac:dyDescent="0.3">
@@ -24543,7 +24543,7 @@
         <v>38</v>
       </c>
       <c r="E59">
-        <v>759864797.8605628</v>
+        <v>871722629.94820786</v>
       </c>
     </row>
     <row r="60" spans="4:5" x14ac:dyDescent="0.3">
@@ -24551,7 +24551,7 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>529367471.45467854</v>
+        <v>766761151.57627141</v>
       </c>
     </row>
     <row r="61" spans="4:5" x14ac:dyDescent="0.3">
@@ -24559,7 +24559,7 @@
         <v>40</v>
       </c>
       <c r="E61">
-        <v>559596243.6106652</v>
+        <v>474277157.68094051</v>
       </c>
     </row>
     <row r="62" spans="4:5" x14ac:dyDescent="0.3">
@@ -24567,7 +24567,7 @@
         <v>41</v>
       </c>
       <c r="E62">
-        <v>603926895.4459753</v>
+        <v>654827271.63261735</v>
       </c>
     </row>
     <row r="63" spans="4:5" x14ac:dyDescent="0.3">
@@ -24575,7 +24575,7 @@
         <v>42</v>
       </c>
       <c r="E63">
-        <v>762717635.47591174</v>
+        <v>925887201.19754398</v>
       </c>
     </row>
     <row r="64" spans="4:5" x14ac:dyDescent="0.3">
@@ -24583,7 +24583,7 @@
         <v>43</v>
       </c>
       <c r="E64">
-        <v>835470388.78349769</v>
+        <v>761706090.90671921</v>
       </c>
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.3">
@@ -24591,7 +24591,7 @@
         <v>44</v>
       </c>
       <c r="E65">
-        <v>897750279.22514343</v>
+        <v>752710186.21732879</v>
       </c>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.3">
@@ -24599,7 +24599,7 @@
         <v>45</v>
       </c>
       <c r="E66">
-        <v>1014596492.476871</v>
+        <v>770224813.29019666</v>
       </c>
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.3">
@@ -24607,7 +24607,7 @@
         <v>46</v>
       </c>
       <c r="E67">
-        <v>984371540.98245692</v>
+        <v>854403550.65777862</v>
       </c>
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.3">
@@ -24615,7 +24615,7 @@
         <v>47</v>
       </c>
       <c r="E68">
-        <v>569218965.87933302</v>
+        <v>869861617.06996083</v>
       </c>
     </row>
     <row r="69" spans="4:5" x14ac:dyDescent="0.3">
@@ -24623,7 +24623,7 @@
         <v>48</v>
       </c>
       <c r="E69">
-        <v>796124761.01432168</v>
+        <v>567852515.88806272</v>
       </c>
     </row>
     <row r="70" spans="4:5" x14ac:dyDescent="0.3">
@@ -24631,7 +24631,7 @@
         <v>49</v>
       </c>
       <c r="E70">
-        <v>603296755.82814622</v>
+        <v>793843245.12790465</v>
       </c>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.3">
@@ -24639,7 +24639,7 @@
         <v>50</v>
       </c>
       <c r="E71">
-        <v>913568731.32492709</v>
+        <v>831355748.91999769</v>
       </c>
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.3">
@@ -24647,7 +24647,7 @@
         <v>51</v>
       </c>
       <c r="E72">
-        <v>730249746.35718369</v>
+        <v>659638877.50633264</v>
       </c>
     </row>
     <row r="73" spans="4:5" x14ac:dyDescent="0.3">
@@ -24655,7 +24655,7 @@
         <v>52</v>
       </c>
       <c r="E73">
-        <v>700799071.30263078</v>
+        <v>649933997.95778656</v>
       </c>
     </row>
     <row r="74" spans="4:5" x14ac:dyDescent="0.3">
@@ -24663,7 +24663,7 @@
         <v>53</v>
       </c>
       <c r="E74">
-        <v>861055175.86103928</v>
+        <v>584003882.47925723</v>
       </c>
     </row>
     <row r="75" spans="4:5" x14ac:dyDescent="0.3">
@@ -24671,7 +24671,7 @@
         <v>54</v>
       </c>
       <c r="E75">
-        <v>789563558.12373185</v>
+        <v>689077889.65556598</v>
       </c>
     </row>
     <row r="76" spans="4:5" x14ac:dyDescent="0.3">
@@ -24679,7 +24679,7 @@
         <v>55</v>
       </c>
       <c r="E76">
-        <v>712911775.2883563</v>
+        <v>823875854.46777213</v>
       </c>
     </row>
     <row r="77" spans="4:5" x14ac:dyDescent="0.3">
@@ -24687,7 +24687,7 @@
         <v>56</v>
       </c>
       <c r="E77">
-        <v>752838576.93230283</v>
+        <v>562081881.09114289</v>
       </c>
     </row>
     <row r="78" spans="4:5" x14ac:dyDescent="0.3">
@@ -24695,7 +24695,7 @@
         <v>57</v>
       </c>
       <c r="E78">
-        <v>650092694.1720593</v>
+        <v>677095353.10177147</v>
       </c>
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.3">
@@ -24703,7 +24703,7 @@
         <v>58</v>
       </c>
       <c r="E79">
-        <v>1010750053.6408479</v>
+        <v>1055005721.2034106</v>
       </c>
     </row>
     <row r="80" spans="4:5" x14ac:dyDescent="0.3">
@@ -24711,7 +24711,7 @@
         <v>59</v>
       </c>
       <c r="E80">
-        <v>1037379653.8349009</v>
+        <v>999237458.97703099</v>
       </c>
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.3">
@@ -24719,7 +24719,7 @@
         <v>60</v>
       </c>
       <c r="E81">
-        <v>692047388.62887073</v>
+        <v>1003026718.4975324</v>
       </c>
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.3">
@@ -24727,7 +24727,7 @@
         <v>61</v>
       </c>
       <c r="E82">
-        <v>861273692.90532041</v>
+        <v>826114778.04422045</v>
       </c>
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.3">
@@ -24735,7 +24735,7 @@
         <v>62</v>
       </c>
       <c r="E83">
-        <v>775228066.44864917</v>
+        <v>807836186.54928517</v>
       </c>
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.3">
@@ -24743,7 +24743,7 @@
         <v>63</v>
       </c>
       <c r="E84">
-        <v>696868321.09108353</v>
+        <v>713143166.75378251</v>
       </c>
     </row>
     <row r="85" spans="4:5" x14ac:dyDescent="0.3">
@@ -24751,7 +24751,7 @@
         <v>64</v>
       </c>
       <c r="E85">
-        <v>657148511.12070608</v>
+        <v>711771799.05098557</v>
       </c>
     </row>
     <row r="86" spans="4:5" x14ac:dyDescent="0.3">
@@ -24759,7 +24759,7 @@
         <v>65</v>
       </c>
       <c r="E86">
-        <v>454898900.20825833</v>
+        <v>601614675.46889198</v>
       </c>
     </row>
     <row r="87" spans="4:5" x14ac:dyDescent="0.3">
@@ -24767,7 +24767,7 @@
         <v>66</v>
       </c>
       <c r="E87">
-        <v>583556315.99354422</v>
+        <v>925662724.31166434</v>
       </c>
     </row>
     <row r="88" spans="4:5" x14ac:dyDescent="0.3">
@@ -24775,7 +24775,7 @@
         <v>67</v>
       </c>
       <c r="E88">
-        <v>753692737.08019114</v>
+        <v>867298911.19357681</v>
       </c>
     </row>
     <row r="89" spans="4:5" x14ac:dyDescent="0.3">
@@ -24783,7 +24783,7 @@
         <v>68</v>
       </c>
       <c r="E89">
-        <v>687172868.17825818</v>
+        <v>926260757.13383985</v>
       </c>
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.3">
@@ -24791,7 +24791,7 @@
         <v>69</v>
       </c>
       <c r="E90">
-        <v>839513689.00529528</v>
+        <v>680337075.66248369</v>
       </c>
     </row>
     <row r="91" spans="4:5" x14ac:dyDescent="0.3">
@@ -24799,7 +24799,7 @@
         <v>70</v>
       </c>
       <c r="E91">
-        <v>792416045.48445702</v>
+        <v>775611437.82278633</v>
       </c>
     </row>
     <row r="92" spans="4:5" x14ac:dyDescent="0.3">
@@ -24807,7 +24807,7 @@
         <v>71</v>
       </c>
       <c r="E92">
-        <v>892825031.76990545</v>
+        <v>924968060.68835843</v>
       </c>
     </row>
     <row r="93" spans="4:5" x14ac:dyDescent="0.3">
@@ -24815,7 +24815,7 @@
         <v>72</v>
       </c>
       <c r="E93">
-        <v>710497963.27400231</v>
+        <v>962223685.72028804</v>
       </c>
     </row>
     <row r="94" spans="4:5" x14ac:dyDescent="0.3">
@@ -24823,7 +24823,7 @@
         <v>73</v>
       </c>
       <c r="E94">
-        <v>702379962.52001047</v>
+        <v>811825966.97947288</v>
       </c>
     </row>
     <row r="95" spans="4:5" x14ac:dyDescent="0.3">
@@ -24831,7 +24831,7 @@
         <v>74</v>
       </c>
       <c r="E95">
-        <v>613012159.66090369</v>
+        <v>829906495.61403084</v>
       </c>
     </row>
     <row r="96" spans="4:5" x14ac:dyDescent="0.3">
@@ -24839,7 +24839,7 @@
         <v>75</v>
       </c>
       <c r="E96">
-        <v>650654606.22918761</v>
+        <v>481598729.9755317</v>
       </c>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.3">
@@ -24847,7 +24847,7 @@
         <v>76</v>
       </c>
       <c r="E97">
-        <v>781161136.90043175</v>
+        <v>846727280.34403026</v>
       </c>
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.3">
@@ -24855,7 +24855,7 @@
         <v>77</v>
       </c>
       <c r="E98">
-        <v>702759267.56622636</v>
+        <v>728158289.68361521</v>
       </c>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.3">
@@ -24863,7 +24863,7 @@
         <v>78</v>
       </c>
       <c r="E99">
-        <v>789431027.66738427</v>
+        <v>551477484.31379986</v>
       </c>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.3">
@@ -24871,7 +24871,7 @@
         <v>79</v>
       </c>
       <c r="E100">
-        <v>627961967.94417477</v>
+        <v>739857405.01020038</v>
       </c>
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.3">
@@ -24879,7 +24879,7 @@
         <v>80</v>
       </c>
       <c r="E101">
-        <v>563150054.56393611</v>
+        <v>763023390.29360461</v>
       </c>
     </row>
     <row r="102" spans="4:5" x14ac:dyDescent="0.3">
@@ -24887,7 +24887,7 @@
         <v>81</v>
       </c>
       <c r="E102">
-        <v>474515176.06810796</v>
+        <v>759077355.42773473</v>
       </c>
     </row>
     <row r="103" spans="4:5" x14ac:dyDescent="0.3">
@@ -24895,7 +24895,7 @@
         <v>82</v>
       </c>
       <c r="E103">
-        <v>697162788.14127338</v>
+        <v>863098703.83467162</v>
       </c>
     </row>
     <row r="104" spans="4:5" x14ac:dyDescent="0.3">
@@ -24903,7 +24903,7 @@
         <v>83</v>
       </c>
       <c r="E104">
-        <v>847925688.49737191</v>
+        <v>763406257.74751341</v>
       </c>
     </row>
     <row r="105" spans="4:5" x14ac:dyDescent="0.3">
@@ -24911,7 +24911,7 @@
         <v>84</v>
       </c>
       <c r="E105">
-        <v>705780763.85446095</v>
+        <v>1038837834.9229834</v>
       </c>
     </row>
     <row r="106" spans="4:5" x14ac:dyDescent="0.3">
@@ -24919,7 +24919,7 @@
         <v>85</v>
       </c>
       <c r="E106">
-        <v>664409038.49138439</v>
+        <v>839568782.8335042</v>
       </c>
     </row>
     <row r="107" spans="4:5" x14ac:dyDescent="0.3">
@@ -24927,7 +24927,7 @@
         <v>86</v>
       </c>
       <c r="E107">
-        <v>636005077.5133009</v>
+        <v>567686504.84709382</v>
       </c>
     </row>
     <row r="108" spans="4:5" x14ac:dyDescent="0.3">
@@ -24935,7 +24935,7 @@
         <v>87</v>
       </c>
       <c r="E108">
-        <v>1016156071.2012501</v>
+        <v>961939229.51319456</v>
       </c>
     </row>
     <row r="109" spans="4:5" x14ac:dyDescent="0.3">
@@ -24943,7 +24943,7 @@
         <v>88</v>
       </c>
       <c r="E109">
-        <v>453980395.91491938</v>
+        <v>882637129.97115648</v>
       </c>
     </row>
     <row r="110" spans="4:5" x14ac:dyDescent="0.3">
@@ -24951,7 +24951,7 @@
         <v>89</v>
       </c>
       <c r="E110">
-        <v>546997475.24360037</v>
+        <v>663258576.83181739</v>
       </c>
     </row>
     <row r="111" spans="4:5" x14ac:dyDescent="0.3">
@@ -24959,7 +24959,7 @@
         <v>90</v>
       </c>
       <c r="E111">
-        <v>1011881804.778873</v>
+        <v>294323379.48043251</v>
       </c>
     </row>
     <row r="112" spans="4:5" x14ac:dyDescent="0.3">
@@ -24967,7 +24967,7 @@
         <v>91</v>
       </c>
       <c r="E112">
-        <v>465660852.01350385</v>
+        <v>652040742.39245701</v>
       </c>
     </row>
     <row r="113" spans="4:5" x14ac:dyDescent="0.3">
@@ -24975,7 +24975,7 @@
         <v>92</v>
       </c>
       <c r="E113">
-        <v>480648929.7517634</v>
+        <v>613729128.48194337</v>
       </c>
     </row>
     <row r="114" spans="4:5" x14ac:dyDescent="0.3">
@@ -24983,7 +24983,7 @@
         <v>93</v>
       </c>
       <c r="E114">
-        <v>482083267.63981205</v>
+        <v>740503020.76682293</v>
       </c>
     </row>
     <row r="115" spans="4:5" x14ac:dyDescent="0.3">
@@ -24991,7 +24991,7 @@
         <v>94</v>
       </c>
       <c r="E115">
-        <v>787662173.16470051</v>
+        <v>915877980.89978504</v>
       </c>
     </row>
     <row r="116" spans="4:5" x14ac:dyDescent="0.3">
@@ -24999,7 +24999,7 @@
         <v>95</v>
       </c>
       <c r="E116">
-        <v>964559505.09657776</v>
+        <v>639923623.14406598</v>
       </c>
     </row>
     <row r="117" spans="4:5" x14ac:dyDescent="0.3">
@@ -25007,7 +25007,7 @@
         <v>96</v>
       </c>
       <c r="E117">
-        <v>789621745.08526683</v>
+        <v>790313286.95668042</v>
       </c>
     </row>
     <row r="118" spans="4:5" x14ac:dyDescent="0.3">
@@ -25015,7 +25015,7 @@
         <v>97</v>
       </c>
       <c r="E118">
-        <v>869671113.76277745</v>
+        <v>671050504.71774065</v>
       </c>
     </row>
     <row r="119" spans="4:5" x14ac:dyDescent="0.3">
@@ -25023,7 +25023,7 @@
         <v>98</v>
       </c>
       <c r="E119">
-        <v>798392309.78697431</v>
+        <v>730768532.25335479</v>
       </c>
     </row>
     <row r="120" spans="4:5" x14ac:dyDescent="0.3">
@@ -25031,7 +25031,7 @@
         <v>99</v>
       </c>
       <c r="E120">
-        <v>981160050.69750905</v>
+        <v>911801552.81136203</v>
       </c>
     </row>
     <row r="121" spans="4:5" x14ac:dyDescent="0.3">
@@ -25039,7 +25039,7 @@
         <v>100</v>
       </c>
       <c r="E121">
-        <v>901438784.33606851</v>
+        <v>683819549.11335993</v>
       </c>
     </row>
     <row r="122" spans="4:5" x14ac:dyDescent="0.3">
@@ -25047,7 +25047,7 @@
         <v>101</v>
       </c>
       <c r="E122">
-        <v>737732121.23458624</v>
+        <v>993969481.05933511</v>
       </c>
     </row>
     <row r="123" spans="4:5" x14ac:dyDescent="0.3">
@@ -25055,7 +25055,7 @@
         <v>102</v>
       </c>
       <c r="E123">
-        <v>772968529.79920018</v>
+        <v>636511102.47912061</v>
       </c>
     </row>
     <row r="124" spans="4:5" x14ac:dyDescent="0.3">
@@ -25063,7 +25063,7 @@
         <v>103</v>
       </c>
       <c r="E124">
-        <v>790132782.02118754</v>
+        <v>842092693.78730655</v>
       </c>
     </row>
     <row r="125" spans="4:5" x14ac:dyDescent="0.3">
@@ -25071,7 +25071,7 @@
         <v>104</v>
       </c>
       <c r="E125">
-        <v>839027467.1315546</v>
+        <v>927772090.05637395</v>
       </c>
     </row>
     <row r="126" spans="4:5" x14ac:dyDescent="0.3">
@@ -25079,7 +25079,7 @@
         <v>105</v>
       </c>
       <c r="E126">
-        <v>854445743.23944569</v>
+        <v>629475017.25887859</v>
       </c>
     </row>
     <row r="127" spans="4:5" x14ac:dyDescent="0.3">
@@ -25087,7 +25087,7 @@
         <v>106</v>
       </c>
       <c r="E127">
-        <v>577194566.4508841</v>
+        <v>305682915.52058971</v>
       </c>
     </row>
     <row r="128" spans="4:5" x14ac:dyDescent="0.3">
@@ -25095,7 +25095,7 @@
         <v>107</v>
       </c>
       <c r="E128">
-        <v>577684094.6336422</v>
+        <v>664358476.09387374</v>
       </c>
     </row>
     <row r="129" spans="4:5" x14ac:dyDescent="0.3">
@@ -25103,7 +25103,7 @@
         <v>108</v>
       </c>
       <c r="E129">
-        <v>974286231.02319884</v>
+        <v>823547601.3843838</v>
       </c>
     </row>
   </sheetData>
@@ -25118,7 +25118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F879008B-B268-4F57-A9BB-DAB8EFECC60F}">
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -25176,15 +25176,15 @@
       </c>
       <c r="B4" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N14,Mappings!O14)/(365*Mappings!H14)</f>
-        <v>0.32398073096255853</v>
+        <v>0.39111507632553838</v>
       </c>
       <c r="C4" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N15,Mappings!O15)/(365*Mappings!H15)</f>
-        <v>0.15254105100918319</v>
+        <v>0.12865486551565691</v>
       </c>
       <c r="D4" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N16,Mappings!O16)/(365*Mappings!H16)</f>
-        <v>0.57975515144763856</v>
+        <v>0.74769464344620906</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -25212,15 +25212,15 @@
       </c>
       <c r="B6" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),B5,B5*Mappings!E4)</f>
-        <v>0.61139722622000026</v>
+        <v>0.71545118148824671</v>
       </c>
       <c r="C6" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),C5,C5*Mappings!E3)</f>
-        <v>13.382359201096406</v>
+        <v>3.9461474094990927</v>
       </c>
       <c r="D6" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),D5,D5*Mappings!E4)</f>
-        <v>1.5101858796916281</v>
+        <v>1.8482919949615031</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -25248,15 +25248,15 @@
       </c>
       <c r="B8" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(), B7, B7 * 25/100)</f>
-        <v>7552.6252920657298</v>
+        <v>7252.9303891945456</v>
       </c>
       <c r="C8" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(), C7, C7* 25/100)</f>
-        <v>7320.8839253148008</v>
+        <v>5733.4782954291459</v>
       </c>
       <c r="D8" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(), D7, D7* 25/100)</f>
-        <v>5352.7393264138964</v>
+        <v>5513.5744051816309</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -25284,15 +25284,15 @@
       </c>
       <c r="B10" s="17">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L36))</f>
-        <v>18.487084908320075</v>
+        <v>17.867291498035275</v>
       </c>
       <c r="C10" s="17">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L36))</f>
-        <v>138.04772272328029</v>
+        <v>-82.320896210971327</v>
       </c>
       <c r="D10" s="17">
         <f ca="1">IF(D9&gt;0,_xlfn.NORM.INV(RAND(),D9,D9*Dairy_Income_Roadmap!L38),_xlfn.NORM.INV(RAND(),ABS(D9),ABS(D9)*Dairy_Income_Roadmap!L38))</f>
-        <v>121.58645242394944</v>
+        <v>110.51384940369961</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -25341,15 +25341,15 @@
       </c>
       <c r="B14" s="17">
         <f ca="1">B4*B6*365*Mappings!H14</f>
-        <v>433.7972153677278</v>
+        <v>612.81399816638918</v>
       </c>
       <c r="C14" s="17">
         <f ca="1">C4*C6*365*Mappings!H15</f>
-        <v>4470.5765111636738</v>
+        <v>1111.8434307601995</v>
       </c>
       <c r="D14" s="17">
         <f ca="1">D4*D6*365*Mappings!H16</f>
-        <v>1821.5568992826841</v>
+        <v>2875.1636692591037</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -25359,15 +25359,15 @@
       </c>
       <c r="B15" s="17">
         <f ca="1">D8-IF(D9&gt;0,D10,(-1)*D10)</f>
-        <v>5231.1528739899468</v>
+        <v>5403.0605557779318</v>
       </c>
       <c r="C15" s="17">
         <f ca="1">C8-IF(C9&gt;0,C10,(-1)*C10)</f>
-        <v>7182.8362025915203</v>
+        <v>5815.799191640117</v>
       </c>
       <c r="D15" s="17">
         <f ca="1">D8-IF(D9&gt;0,D10,(-1)*D10)</f>
-        <v>5231.1528739899468</v>
+        <v>5403.0605557779318</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -25377,15 +25377,15 @@
       </c>
       <c r="B16" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>2477.590975123408</v>
+        <v>2309.6010731003053</v>
       </c>
       <c r="C16" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>75469.538880612483</v>
+        <v>75965.023847152013</v>
       </c>
       <c r="D16" s="17">
         <f t="shared" ref="D16" ca="1" si="0">_xlfn.NORM.INV(RAND(),D11,D12)</f>
-        <v>28645.414031416996</v>
+        <v>27521.753156844796</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -25395,19 +25395,19 @@
       </c>
       <c r="B18" s="9">
         <f ca="1">(B14+B15)*B16</f>
-        <v>14035429.215917118</v>
+        <v>13894270.325426623</v>
       </c>
       <c r="C18" s="9">
         <f ca="1">(C14+C15)*C16</f>
-        <v>879477683.89257157</v>
+        <v>526258537.01518673</v>
       </c>
       <c r="D18" s="9">
         <f ca="1">(D14+D15)*D16</f>
-        <v>202027791.4988156</v>
+        <v>227831243.69848213</v>
       </c>
       <c r="F18" s="30">
         <f ca="1">B18+C18+D18</f>
-        <v>1095540904.6073043</v>
+        <v>767984051.03909552</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -25428,7 +25428,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="30">
         <f ca="1">STDEV(F22:F129)</f>
-        <v>160570873.00173599</v>
+        <v>167738492.23906669</v>
       </c>
       <c r="H19" s="44" t="s">
         <v>62</v>
@@ -25451,13 +25451,13 @@
       <c r="E20" s="4"/>
       <c r="F20" s="30">
         <f ca="1">AVERAGE(F22:F129)</f>
-        <v>911660662.32494736</v>
+        <v>882058243.05165148</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="43">
         <f ca="1">100*F19/F20</f>
-        <v>17.613008835134206</v>
+        <v>19.016713869000629</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -25472,7 +25472,7 @@
       </c>
       <c r="F22" s="30">
         <f ca="1">F18</f>
-        <v>1095540904.6073043</v>
+        <v>767984051.03909552</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -25483,7 +25483,7 @@
       </c>
       <c r="F23" s="30">
         <f t="dataTable" ref="F23:F129" dt2D="0" dtr="0" r1="F21" ca="1"/>
-        <v>786224336.30834723</v>
+        <v>1013929886.2646804</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -25493,7 +25493,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="30">
-        <v>674980597.46272099</v>
+        <v>796705318.14462495</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -25503,7 +25503,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="30">
-        <v>1104742361.3831658</v>
+        <v>1043927438.0581245</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -25513,7 +25513,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="30">
-        <v>1134140088.654386</v>
+        <v>945230908.71845484</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -25523,7 +25523,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="30">
-        <v>999863335.62058187</v>
+        <v>739788580.72614098</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -25533,7 +25533,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="30">
-        <v>890750619.7016058</v>
+        <v>722762396.7213583</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -25543,7 +25543,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="30">
-        <v>765198569.11416674</v>
+        <v>794558369.66730738</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -25553,7 +25553,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="30">
-        <v>1091497300.9449313</v>
+        <v>990928615.35230184</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -25563,7 +25563,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="30">
-        <v>877664057.8941946</v>
+        <v>1182582492.7639117</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -25573,7 +25573,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="30">
-        <v>890453966.44498384</v>
+        <v>663875192.5804354</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -25583,7 +25583,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="30">
-        <v>742410902.40880346</v>
+        <v>558759352.57913578</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -25593,7 +25593,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="30">
-        <v>1012166163.9166784</v>
+        <v>759947495.29127824</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -25603,7 +25603,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="30">
-        <v>792108582.91297913</v>
+        <v>768920417.24561191</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -25613,7 +25613,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="30">
-        <v>824728818.29002142</v>
+        <v>683100320.52684081</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -25623,7 +25623,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="30">
-        <v>677387155.67179108</v>
+        <v>855417363.06383622</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -25633,7 +25633,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="30">
-        <v>1115057204.2161472</v>
+        <v>1154711872.2626982</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -25643,7 +25643,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="30">
-        <v>1075780138.1111102</v>
+        <v>843512323.4259187</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -25653,7 +25653,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="30">
-        <v>981451556.98837829</v>
+        <v>709974331.8358382</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -25663,7 +25663,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="30">
-        <v>1137406363.056541</v>
+        <v>659563753.14154172</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -25673,7 +25673,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="30">
-        <v>939522817.9044919</v>
+        <v>992669990.40867257</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -25683,7 +25683,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="30">
-        <v>848463599.88236833</v>
+        <v>540771295.59285474</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -25693,7 +25693,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="30">
-        <v>1066019154.1147174</v>
+        <v>1094223061.295346</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -25703,7 +25703,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="30">
-        <v>854285141.32414055</v>
+        <v>967681394.59622717</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -25713,7 +25713,7 @@
         <v>25</v>
       </c>
       <c r="F46" s="30">
-        <v>929281287.14006078</v>
+        <v>724128345.08740377</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -25723,7 +25723,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="30">
-        <v>901962741.51719892</v>
+        <v>667073015.1391201</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -25733,7 +25733,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="30">
-        <v>653585112.06644726</v>
+        <v>830764600.32586467</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -25743,7 +25743,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="30">
-        <v>821409943.85373497</v>
+        <v>1056363431.3677249</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -25753,7 +25753,7 @@
         <v>29</v>
       </c>
       <c r="F50" s="30">
-        <v>766130938.92825615</v>
+        <v>741271670.6252712</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -25763,7 +25763,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="30">
-        <v>862119567.33813751</v>
+        <v>783818495.18461478</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -25773,7 +25773,7 @@
         <v>31</v>
       </c>
       <c r="F52" s="30">
-        <v>918669302.07987881</v>
+        <v>760357348.80749559</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -25783,7 +25783,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="30">
-        <v>739125693.11011124</v>
+        <v>657083804.16295195</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -25793,7 +25793,7 @@
         <v>33</v>
       </c>
       <c r="F54" s="30">
-        <v>715701176.11219037</v>
+        <v>771653194.03634882</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -25803,7 +25803,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="30">
-        <v>1097189011.5898557</v>
+        <v>965259609.70711493</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -25813,7 +25813,7 @@
         <v>35</v>
       </c>
       <c r="F56" s="30">
-        <v>894122619.59394026</v>
+        <v>828190087.81502843</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -25823,7 +25823,7 @@
         <v>36</v>
       </c>
       <c r="F57" s="30">
-        <v>933605664.42124081</v>
+        <v>887728494.74348128</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -25833,7 +25833,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="30">
-        <v>996294032.98936009</v>
+        <v>876526941.01863277</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -25843,7 +25843,7 @@
         <v>38</v>
       </c>
       <c r="F59" s="30">
-        <v>655403519.50275278</v>
+        <v>714862875.97344804</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -25853,7 +25853,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="30">
-        <v>578854828.67568994</v>
+        <v>963099516.34342349</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -25863,7 +25863,7 @@
         <v>40</v>
       </c>
       <c r="F61" s="30">
-        <v>840073760.43402326</v>
+        <v>998669832.90463114</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -25873,7 +25873,7 @@
         <v>41</v>
       </c>
       <c r="F62" s="30">
-        <v>829008222.16126883</v>
+        <v>998039800.63407683</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -25883,7 +25883,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="30">
-        <v>1270256593.9774265</v>
+        <v>607855448.41558301</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -25893,7 +25893,7 @@
         <v>43</v>
       </c>
       <c r="F64" s="30">
-        <v>1083067523.7168579</v>
+        <v>1029094367.0160016</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -25903,7 +25903,7 @@
         <v>44</v>
       </c>
       <c r="F65" s="30">
-        <v>776729899.71755302</v>
+        <v>830004187.43996096</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -25913,7 +25913,7 @@
         <v>45</v>
       </c>
       <c r="F66" s="30">
-        <v>700860927.72467828</v>
+        <v>1098241442.908906</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -25923,7 +25923,7 @@
         <v>46</v>
       </c>
       <c r="F67" s="30">
-        <v>950108702.98098803</v>
+        <v>1151156505.903266</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -25933,7 +25933,7 @@
         <v>47</v>
       </c>
       <c r="F68" s="30">
-        <v>798221566.85804439</v>
+        <v>953464385.27267861</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -25943,7 +25943,7 @@
         <v>48</v>
       </c>
       <c r="F69" s="30">
-        <v>683333019.85894608</v>
+        <v>1066113637.6116266</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -25953,7 +25953,7 @@
         <v>49</v>
       </c>
       <c r="F70" s="30">
-        <v>926497153.81808341</v>
+        <v>848264669.95036066</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -25963,7 +25963,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="30">
-        <v>967718960.14652789</v>
+        <v>1151820004.1850376</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -25973,7 +25973,7 @@
         <v>51</v>
       </c>
       <c r="F72" s="30">
-        <v>963376800.95784557</v>
+        <v>1141613958.7817893</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -25983,7 +25983,7 @@
         <v>52</v>
       </c>
       <c r="F73" s="30">
-        <v>1135829159.8489466</v>
+        <v>768556834.6742909</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -25993,7 +25993,7 @@
         <v>53</v>
       </c>
       <c r="F74" s="30">
-        <v>969870766.07904792</v>
+        <v>1139930811.2924304</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -26003,7 +26003,7 @@
         <v>54</v>
       </c>
       <c r="F75" s="30">
-        <v>968054461.97796214</v>
+        <v>716043870.58936477</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
@@ -26013,7 +26013,7 @@
         <v>55</v>
       </c>
       <c r="F76" s="30">
-        <v>916195975.80819499</v>
+        <v>693031992.52911592</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
@@ -26023,7 +26023,7 @@
         <v>56</v>
       </c>
       <c r="F77" s="30">
-        <v>847447648.41040981</v>
+        <v>851983318.84523678</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
@@ -26033,7 +26033,7 @@
         <v>57</v>
       </c>
       <c r="F78" s="30">
-        <v>698021511.85278201</v>
+        <v>978352663.6880424</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
@@ -26043,7 +26043,7 @@
         <v>58</v>
       </c>
       <c r="F79" s="30">
-        <v>738653609.5399965</v>
+        <v>843650655.08321357</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -26053,7 +26053,7 @@
         <v>59</v>
       </c>
       <c r="F80" s="30">
-        <v>902712153.03923118</v>
+        <v>865786389.60306072</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -26063,7 +26063,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="30">
-        <v>1133977247.5975175</v>
+        <v>1073888517.5594306</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -26073,7 +26073,7 @@
         <v>61</v>
       </c>
       <c r="F82" s="30">
-        <v>657516540.89492774</v>
+        <v>882286467.45568824</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -26083,7 +26083,7 @@
         <v>62</v>
       </c>
       <c r="F83" s="30">
-        <v>1360627705.0881679</v>
+        <v>832161372.58412075</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -26093,7 +26093,7 @@
         <v>63</v>
       </c>
       <c r="F84" s="30">
-        <v>956415183.12977672</v>
+        <v>667173775.01382565</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -26103,7 +26103,7 @@
         <v>64</v>
       </c>
       <c r="F85" s="30">
-        <v>804057776.93607986</v>
+        <v>885543806.0282042</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -26113,7 +26113,7 @@
         <v>65</v>
       </c>
       <c r="F86" s="30">
-        <v>814206367.7652241</v>
+        <v>819162284.72095501</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
@@ -26123,7 +26123,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="30">
-        <v>700968436.45684278</v>
+        <v>1075403060.141463</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
@@ -26133,7 +26133,7 @@
         <v>67</v>
       </c>
       <c r="F88" s="30">
-        <v>1116681304.7408199</v>
+        <v>965730699.12543428</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
@@ -26143,7 +26143,7 @@
         <v>68</v>
       </c>
       <c r="F89" s="30">
-        <v>1117852715.0257971</v>
+        <v>1142581842.5791144</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -26153,7 +26153,7 @@
         <v>69</v>
       </c>
       <c r="F90" s="30">
-        <v>855735456.3605535</v>
+        <v>1126835723.1149387</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
@@ -26163,7 +26163,7 @@
         <v>70</v>
       </c>
       <c r="F91" s="30">
-        <v>1014998050.9317385</v>
+        <v>1067938363.1282361</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -26173,7 +26173,7 @@
         <v>71</v>
       </c>
       <c r="F92" s="30">
-        <v>969813535.32722259</v>
+        <v>949344792.12692547</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -26183,7 +26183,7 @@
         <v>72</v>
       </c>
       <c r="F93" s="30">
-        <v>1237606595.7125576</v>
+        <v>1107525101.0318711</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -26193,7 +26193,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="30">
-        <v>684625683.88800561</v>
+        <v>839560401.03178942</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -26203,7 +26203,7 @@
         <v>74</v>
       </c>
       <c r="F95" s="30">
-        <v>898611594.91854858</v>
+        <v>766783857.30217409</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -26213,7 +26213,7 @@
         <v>75</v>
       </c>
       <c r="F96" s="30">
-        <v>1048434228.6975784</v>
+        <v>930470305.40179372</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -26223,7 +26223,7 @@
         <v>76</v>
       </c>
       <c r="F97" s="30">
-        <v>1035244351.4826448</v>
+        <v>865468659.11902928</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
@@ -26233,7 +26233,7 @@
         <v>77</v>
       </c>
       <c r="F98" s="30">
-        <v>793697821.19794273</v>
+        <v>789773967.48037148</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -26243,7 +26243,7 @@
         <v>78</v>
       </c>
       <c r="F99" s="30">
-        <v>823412939.6818769</v>
+        <v>820486395.10396028</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -26253,7 +26253,7 @@
         <v>79</v>
       </c>
       <c r="F100" s="30">
-        <v>779846888.26358247</v>
+        <v>1025828552.553643</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -26263,7 +26263,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="30">
-        <v>833863026.04794812</v>
+        <v>620639856.99391627</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
@@ -26273,7 +26273,7 @@
         <v>81</v>
       </c>
       <c r="F102" s="30">
-        <v>1065421773.4358822</v>
+        <v>1103545846.8471091</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
@@ -26283,7 +26283,7 @@
         <v>82</v>
       </c>
       <c r="F103" s="30">
-        <v>1062350379.7843542</v>
+        <v>933848121.5786345</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
@@ -26293,7 +26293,7 @@
         <v>83</v>
       </c>
       <c r="F104" s="30">
-        <v>817869516.67140877</v>
+        <v>871349281.2148993</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
@@ -26303,7 +26303,7 @@
         <v>84</v>
       </c>
       <c r="F105" s="30">
-        <v>829565712.06609917</v>
+        <v>936904410.37600601</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -26313,7 +26313,7 @@
         <v>85</v>
       </c>
       <c r="F106" s="30">
-        <v>1084925708.9025283</v>
+        <v>1021836915.6074111</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
@@ -26323,7 +26323,7 @@
         <v>86</v>
       </c>
       <c r="F107" s="30">
-        <v>920966062.96233702</v>
+        <v>859868525.82508612</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
@@ -26333,7 +26333,7 @@
         <v>87</v>
       </c>
       <c r="F108" s="30">
-        <v>794854857.88139951</v>
+        <v>830572981.98693907</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
@@ -26343,7 +26343,7 @@
         <v>88</v>
       </c>
       <c r="F109" s="30">
-        <v>955052979.39729798</v>
+        <v>960405540.49912882</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -26353,7 +26353,7 @@
         <v>89</v>
       </c>
       <c r="F110" s="30">
-        <v>954500639.9190793</v>
+        <v>733561232.73122942</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -26363,7 +26363,7 @@
         <v>90</v>
       </c>
       <c r="F111" s="30">
-        <v>918946444.07546508</v>
+        <v>991393527.0529294</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
@@ -26373,7 +26373,7 @@
         <v>91</v>
       </c>
       <c r="F112" s="30">
-        <v>1118255472.7410126</v>
+        <v>694186610.73567617</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
@@ -26383,7 +26383,7 @@
         <v>92</v>
       </c>
       <c r="F113" s="30">
-        <v>620624881.85139012</v>
+        <v>843932516.58149719</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -26393,7 +26393,7 @@
         <v>93</v>
       </c>
       <c r="F114" s="30">
-        <v>762129986.60604608</v>
+        <v>546986918.67127144</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
@@ -26403,7 +26403,7 @@
         <v>94</v>
       </c>
       <c r="F115" s="30">
-        <v>1020591822.8214203</v>
+        <v>747965482.70254838</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -26413,7 +26413,7 @@
         <v>95</v>
       </c>
       <c r="F116" s="30">
-        <v>744663970.71640468</v>
+        <v>627688400.93535566</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -26423,7 +26423,7 @@
         <v>96</v>
       </c>
       <c r="F117" s="30">
-        <v>881717821.38032055</v>
+        <v>857399757.49398708</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
@@ -26433,7 +26433,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="30">
-        <v>725316481.98387969</v>
+        <v>991709008.69036889</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -26443,7 +26443,7 @@
         <v>98</v>
       </c>
       <c r="F119" s="30">
-        <v>1105783486.4232535</v>
+        <v>891397217.58206367</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -26453,7 +26453,7 @@
         <v>99</v>
       </c>
       <c r="F120" s="30">
-        <v>1117913061.2481472</v>
+        <v>1218681588.3983698</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
@@ -26463,7 +26463,7 @@
         <v>100</v>
       </c>
       <c r="F121" s="30">
-        <v>906619419.35649347</v>
+        <v>1161757131.3520737</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -26473,7 +26473,7 @@
         <v>101</v>
       </c>
       <c r="F122" s="30">
-        <v>819429787.77405059</v>
+        <v>733284896.59158659</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
@@ -26483,7 +26483,7 @@
         <v>102</v>
       </c>
       <c r="F123" s="30">
-        <v>1126225016.87588</v>
+        <v>848878930.41587281</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -26493,7 +26493,7 @@
         <v>103</v>
       </c>
       <c r="F124" s="30">
-        <v>890420982.8064698</v>
+        <v>1081757855.3575132</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
@@ -26503,7 +26503,7 @@
         <v>104</v>
       </c>
       <c r="F125" s="30">
-        <v>766050905.05465603</v>
+        <v>932266881.1436944</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
@@ -26513,7 +26513,7 @@
         <v>105</v>
       </c>
       <c r="F126" s="30">
-        <v>939305050.92747605</v>
+        <v>785609121.8812542</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -26523,7 +26523,7 @@
         <v>106</v>
       </c>
       <c r="F127" s="30">
-        <v>713166531.76977158</v>
+        <v>744309501.90412235</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
@@ -26533,7 +26533,7 @@
         <v>107</v>
       </c>
       <c r="F128" s="30">
-        <v>1099704155.388886</v>
+        <v>552825420.60900986</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -26543,7 +26543,7 @@
         <v>108</v>
       </c>
       <c r="F129" s="30">
-        <v>1251447575.3653262</v>
+        <v>1292396396.2470136</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
@@ -26621,15 +26621,15 @@
       </c>
       <c r="B4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N10,Mappings!O10)</f>
-        <v>761.4893542470295</v>
+        <v>791.72990858155242</v>
       </c>
       <c r="C4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N11,Mappings!O11)</f>
-        <v>290.07123237678695</v>
+        <v>322.47064142019963</v>
       </c>
       <c r="D4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N12,Mappings!O12)</f>
-        <v>2036.6612494136448</v>
+        <v>1386.8753080368524</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="34"/>
@@ -26665,15 +26665,15 @@
       </c>
       <c r="B6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B5,B5*Mappings!E4)</f>
-        <v>1.0861634471155601</v>
+        <v>1.080581372698374</v>
       </c>
       <c r="C6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C5,C5*Mappings!E3)</f>
-        <v>7.6405400670386623</v>
+        <v>13.125773049958049</v>
       </c>
       <c r="D6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),D5,D5*Mappings!E4)</f>
-        <v>1.8784532344659555</v>
+        <v>4.063094001634421</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
@@ -26709,15 +26709,15 @@
       </c>
       <c r="B8" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(), B7, B7 * 25/100)</f>
-        <v>7890.1758208674537</v>
+        <v>6862.6838006967391</v>
       </c>
       <c r="C8" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(), C7, C7* 25/100)</f>
-        <v>5154.2772021937253</v>
+        <v>7577.8771987716391</v>
       </c>
       <c r="D8" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(), D7, D7* 25/100)</f>
-        <v>7576.95692737227</v>
+        <v>7784.1701730742425</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
@@ -26753,15 +26753,15 @@
       </c>
       <c r="B10" s="17">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L36))</f>
-        <v>72.621329607602448</v>
+        <v>46.532139842179269</v>
       </c>
       <c r="C10" s="17">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L36))</f>
-        <v>84.224267567438403</v>
+        <v>38.604434724972791</v>
       </c>
       <c r="D10" s="17">
         <f ca="1">IF(D9&gt;0,_xlfn.NORM.INV(RAND(),D9,D9*Dairy_Income_Roadmap!L38),_xlfn.NORM.INV(RAND(),ABS(D9),ABS(D9)*Dairy_Income_Roadmap!L38))</f>
-        <v>198.16674204295538</v>
+        <v>87.663562874473513</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
@@ -26828,15 +26828,15 @@
       </c>
       <c r="B14" s="28">
         <f ca="1">B4*B6</f>
-        <v>827.1019019507554</v>
+        <v>855.52859142141199</v>
       </c>
       <c r="C14" s="28">
         <f ca="1">C4*C6</f>
-        <v>2216.3008732701232</v>
+        <v>4232.6764545559417</v>
       </c>
       <c r="D14" s="28">
         <f ca="1">D4*D6</f>
-        <v>3825.7729114725353</v>
+        <v>5635.0047450994252</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
@@ -26850,15 +26850,15 @@
       </c>
       <c r="B15" s="28">
         <f ca="1">D8-IF(D9&gt;0,D10,(-1)*D10)</f>
-        <v>7378.7901853293142</v>
+        <v>7696.5066101997691</v>
       </c>
       <c r="C15" s="28">
         <f t="shared" ref="C15" ca="1" si="0">C8-C10</f>
-        <v>5070.0529346262865</v>
+        <v>7539.2727640466665</v>
       </c>
       <c r="D15" s="28">
         <f ca="1">D8-IF(D9&gt;0,D10,(-1)*D10)</f>
-        <v>7378.7901853293142</v>
+        <v>7696.5066101997691</v>
       </c>
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
@@ -26872,15 +26872,15 @@
       </c>
       <c r="B16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>14141.951500875342</v>
+        <v>15679.906215207866</v>
       </c>
       <c r="C16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>64297.363186739472</v>
+        <v>61966.655878065889</v>
       </c>
       <c r="D16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),D11,D12)</f>
-        <v>27204.86697302042</v>
+        <v>27068.811293629264</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
@@ -26903,20 +26903,20 @@
       </c>
       <c r="B18" s="38">
         <f ca="1">(B14+B15)*B16</f>
-        <v>116047327.91973148</v>
+        <v>134095109.91057642</v>
       </c>
       <c r="C18" s="38">
         <f ca="1">(C14+C15)*C16</f>
-        <v>468493337.09339762</v>
+        <v>729468326.24321437</v>
       </c>
       <c r="D18" s="38">
         <f ca="1">(D14+D15)*D16</f>
-        <v>304818648.53930801</v>
+        <v>360868165.13546956</v>
       </c>
       <c r="E18" s="34"/>
       <c r="F18" s="28">
         <f ca="1">B18+C18+D18</f>
-        <v>889359313.55243707</v>
+        <v>1224431601.2892604</v>
       </c>
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
@@ -26937,7 +26937,7 @@
       <c r="E19" s="34"/>
       <c r="F19" s="28">
         <f ca="1">STDEV(F22:F129)</f>
-        <v>157531424.36618787</v>
+        <v>146580672.06642663</v>
       </c>
       <c r="G19" s="34"/>
       <c r="H19" s="44" t="s">
@@ -26962,13 +26962,13 @@
       <c r="E20" s="34"/>
       <c r="F20" s="28">
         <f ca="1">AVERAGE(F22:F129)</f>
-        <v>1002565599.1473839</v>
+        <v>978768055.60451877</v>
       </c>
       <c r="G20" s="34"/>
       <c r="H20" s="44"/>
       <c r="I20" s="43">
         <f ca="1">100*F19/F20</f>
-        <v>15.712829614357204</v>
+        <v>14.97603760432227</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -26989,7 +26989,7 @@
       </c>
       <c r="F22" s="28">
         <f ca="1">F18</f>
-        <v>889359313.55243707</v>
+        <v>1224431601.2892604</v>
       </c>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
@@ -27000,7 +27000,7 @@
       </c>
       <c r="F23" s="28">
         <f t="dataTable" ref="F23:F129" dt2D="0" dtr="0" r1="F21" ca="1"/>
-        <v>881688957.54335034</v>
+        <v>1360402977.0931516</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -27010,7 +27010,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="28">
-        <v>1168139265.1279671</v>
+        <v>878839334.22732043</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -27020,7 +27020,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="28">
-        <v>1247261148.875459</v>
+        <v>942213671.35208297</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -27030,7 +27030,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="28">
-        <v>1091131852.0558875</v>
+        <v>1016773752.118397</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -27040,7 +27040,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="28">
-        <v>871005552.21964526</v>
+        <v>885371226.5824008</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -27050,7 +27050,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="28">
-        <v>1001737478.6233582</v>
+        <v>966216825.56362796</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -27060,7 +27060,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="28">
-        <v>958174841.52296591</v>
+        <v>1036245155.7074149</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -27070,7 +27070,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="28">
-        <v>936226070.73689818</v>
+        <v>826258080.6189611</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -27080,7 +27080,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="28">
-        <v>881760014.10199308</v>
+        <v>1092189757.7672353</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -27090,7 +27090,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="28">
-        <v>1248836618.9253755</v>
+        <v>980149537.73582935</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -27100,7 +27100,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="28">
-        <v>1008279924.0066396</v>
+        <v>1052139326.2462509</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -27110,7 +27110,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="28">
-        <v>966054340.85425615</v>
+        <v>938556844.57724452</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -27120,7 +27120,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="28">
-        <v>1271157666.1059852</v>
+        <v>1140954889.0858588</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -27130,7 +27130,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="28">
-        <v>980856743.68193293</v>
+        <v>753805274.91585422</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -27140,7 +27140,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="28">
-        <v>1305764165.7674756</v>
+        <v>1025256655.4286406</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -27150,7 +27150,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="28">
-        <v>956668397.79700899</v>
+        <v>910106898.93960905</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -27160,7 +27160,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="28">
-        <v>942407491.34171307</v>
+        <v>1218688447.1232133</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -27170,7 +27170,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="28">
-        <v>847596326.90504587</v>
+        <v>994177530.97146666</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -27180,7 +27180,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="28">
-        <v>1061577991.0020308</v>
+        <v>772865563.0904274</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -27190,7 +27190,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="28">
-        <v>801694991.79074836</v>
+        <v>853074142.7874403</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -27200,7 +27200,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="28">
-        <v>923471028.37737894</v>
+        <v>763596889.69157815</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -27210,7 +27210,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="28">
-        <v>989255741.4106741</v>
+        <v>1254459239.8866029</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -27220,7 +27220,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="28">
-        <v>1130688796.672317</v>
+        <v>1082911755.4037824</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -27230,7 +27230,7 @@
         <v>25</v>
       </c>
       <c r="F46" s="28">
-        <v>796066520.02792227</v>
+        <v>993034830.80845571</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -27240,7 +27240,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="28">
-        <v>873669777.00269794</v>
+        <v>1021038146.2559521</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -27250,7 +27250,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="28">
-        <v>1111907343.7140176</v>
+        <v>1193334014.0598381</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -27260,7 +27260,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="28">
-        <v>811766583.02935052</v>
+        <v>1126989410.6879089</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -27270,7 +27270,7 @@
         <v>29</v>
       </c>
       <c r="F50" s="28">
-        <v>792602835.47756696</v>
+        <v>1313544614.3431482</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -27280,7 +27280,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="28">
-        <v>1064736938.637748</v>
+        <v>928886191.57044339</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -27290,7 +27290,7 @@
         <v>31</v>
       </c>
       <c r="F52" s="28">
-        <v>1213105719.0116227</v>
+        <v>801430835.62961543</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -27300,7 +27300,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="28">
-        <v>744446094.82018209</v>
+        <v>992083163.4867121</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -27310,7 +27310,7 @@
         <v>33</v>
       </c>
       <c r="F54" s="28">
-        <v>904346024.61203897</v>
+        <v>1091855031.4714785</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -27320,7 +27320,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="28">
-        <v>973610597.58103359</v>
+        <v>1128812472.7759099</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -27330,7 +27330,7 @@
         <v>35</v>
       </c>
       <c r="F56" s="28">
-        <v>936589536.98259103</v>
+        <v>935666639.6791805</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -27340,7 +27340,7 @@
         <v>36</v>
       </c>
       <c r="F57" s="28">
-        <v>1325019707.2087545</v>
+        <v>820713526.79627347</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -27350,7 +27350,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="28">
-        <v>1300562386.1071844</v>
+        <v>849007549.56478333</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -27360,7 +27360,7 @@
         <v>38</v>
       </c>
       <c r="F59" s="28">
-        <v>848391872.81699991</v>
+        <v>858984963.9977963</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -27370,7 +27370,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="28">
-        <v>1035381128.565547</v>
+        <v>803390016.50571525</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -27380,7 +27380,7 @@
         <v>40</v>
       </c>
       <c r="F61" s="28">
-        <v>1054067525.9432046</v>
+        <v>972817369.90698457</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -27390,7 +27390,7 @@
         <v>41</v>
       </c>
       <c r="F62" s="28">
-        <v>785377118.32911491</v>
+        <v>1003358375.3281407</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -27400,7 +27400,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="28">
-        <v>1071781289.4032791</v>
+        <v>797962007.44271481</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -27410,7 +27410,7 @@
         <v>43</v>
       </c>
       <c r="F64" s="28">
-        <v>1216834205.0327001</v>
+        <v>872751482.7885623</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -27420,7 +27420,7 @@
         <v>44</v>
       </c>
       <c r="F65" s="28">
-        <v>1151550845.1420045</v>
+        <v>948643417.87480879</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -27430,7 +27430,7 @@
         <v>45</v>
       </c>
       <c r="F66" s="28">
-        <v>961294348.415959</v>
+        <v>801911405.09206557</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -27440,7 +27440,7 @@
         <v>46</v>
       </c>
       <c r="F67" s="28">
-        <v>845976626.67306757</v>
+        <v>926883851.28904176</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -27450,7 +27450,7 @@
         <v>47</v>
       </c>
       <c r="F68" s="28">
-        <v>1197406846.5544209</v>
+        <v>1117932010.5105052</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -27460,7 +27460,7 @@
         <v>48</v>
       </c>
       <c r="F69" s="28">
-        <v>1109119914.8700492</v>
+        <v>951456384.04146314</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -27470,7 +27470,7 @@
         <v>49</v>
       </c>
       <c r="F70" s="28">
-        <v>1397175752.0612004</v>
+        <v>840558063.78900993</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -27480,7 +27480,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="28">
-        <v>747029742.6439606</v>
+        <v>882782366.5477407</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -27490,7 +27490,7 @@
         <v>51</v>
       </c>
       <c r="F72" s="28">
-        <v>925011594.11189616</v>
+        <v>975339181.9137001</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -27500,7 +27500,7 @@
         <v>52</v>
       </c>
       <c r="F73" s="28">
-        <v>929418084.8068924</v>
+        <v>841562121.95789933</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -27510,7 +27510,7 @@
         <v>53</v>
       </c>
       <c r="F74" s="28">
-        <v>945653167.72412562</v>
+        <v>1155079857.1682286</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -27520,7 +27520,7 @@
         <v>54</v>
       </c>
       <c r="F75" s="28">
-        <v>1002901324.439597</v>
+        <v>1123794361.2931423</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
@@ -27530,7 +27530,7 @@
         <v>55</v>
       </c>
       <c r="F76" s="28">
-        <v>1059211786.1181183</v>
+        <v>1087288756.4066863</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
@@ -27540,7 +27540,7 @@
         <v>56</v>
       </c>
       <c r="F77" s="28">
-        <v>1182553507.7476125</v>
+        <v>1120732561.2044668</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
@@ -27550,7 +27550,7 @@
         <v>57</v>
       </c>
       <c r="F78" s="28">
-        <v>1003102622.7363112</v>
+        <v>1042850748.6655116</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
@@ -27560,7 +27560,7 @@
         <v>58</v>
       </c>
       <c r="F79" s="28">
-        <v>712899512.95198822</v>
+        <v>992318809.12086606</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -27570,7 +27570,7 @@
         <v>59</v>
       </c>
       <c r="F80" s="28">
-        <v>994249780.11065328</v>
+        <v>1253124646.7442601</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -27580,7 +27580,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="28">
-        <v>705334511.7537626</v>
+        <v>831204263.78619897</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -27590,7 +27590,7 @@
         <v>61</v>
       </c>
       <c r="F82" s="28">
-        <v>1012972735.1483114</v>
+        <v>1026415237.0883656</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -27600,7 +27600,7 @@
         <v>62</v>
       </c>
       <c r="F83" s="28">
-        <v>1103492914.4389727</v>
+        <v>1067558150.5326047</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -27610,7 +27610,7 @@
         <v>63</v>
       </c>
       <c r="F84" s="28">
-        <v>1288855329.2282593</v>
+        <v>701169238.48218167</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -27620,7 +27620,7 @@
         <v>64</v>
       </c>
       <c r="F85" s="28">
-        <v>770457326.96489704</v>
+        <v>1174469305.4373043</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -27630,7 +27630,7 @@
         <v>65</v>
       </c>
       <c r="F86" s="28">
-        <v>845248884.61389554</v>
+        <v>899267932.55867338</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
@@ -27640,7 +27640,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="28">
-        <v>978855055.43041086</v>
+        <v>814505210.01877499</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
@@ -27650,7 +27650,7 @@
         <v>67</v>
       </c>
       <c r="F88" s="28">
-        <v>1016316602.7755139</v>
+        <v>673156542.09185743</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
@@ -27660,7 +27660,7 @@
         <v>68</v>
       </c>
       <c r="F89" s="28">
-        <v>966753901.18044424</v>
+        <v>679193235.89464855</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -27670,7 +27670,7 @@
         <v>69</v>
       </c>
       <c r="F90" s="28">
-        <v>901163038.53638577</v>
+        <v>1088518330.9487221</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
@@ -27680,7 +27680,7 @@
         <v>70</v>
       </c>
       <c r="F91" s="28">
-        <v>972732664.51034927</v>
+        <v>1227353939.0305331</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -27690,7 +27690,7 @@
         <v>71</v>
       </c>
       <c r="F92" s="28">
-        <v>807958680.68108726</v>
+        <v>1057662505.3988115</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -27700,7 +27700,7 @@
         <v>72</v>
       </c>
       <c r="F93" s="28">
-        <v>874915730.21355426</v>
+        <v>1019389942.3884231</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -27710,7 +27710,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="28">
-        <v>1203356224.3305588</v>
+        <v>719851398.70436192</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -27720,7 +27720,7 @@
         <v>74</v>
       </c>
       <c r="F95" s="28">
-        <v>1143994214.2422864</v>
+        <v>1039729501.3362515</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -27730,7 +27730,7 @@
         <v>75</v>
       </c>
       <c r="F96" s="28">
-        <v>923658620.559852</v>
+        <v>732782650.73330855</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -27740,7 +27740,7 @@
         <v>76</v>
       </c>
       <c r="F97" s="28">
-        <v>834655466.84541988</v>
+        <v>877758171.10588253</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
@@ -27750,7 +27750,7 @@
         <v>77</v>
       </c>
       <c r="F98" s="28">
-        <v>1206517203.1369863</v>
+        <v>1166719664.7649508</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -27760,7 +27760,7 @@
         <v>78</v>
       </c>
       <c r="F99" s="28">
-        <v>1035704283.0080354</v>
+        <v>1004797986.8364279</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -27770,7 +27770,7 @@
         <v>79</v>
       </c>
       <c r="F100" s="28">
-        <v>1169212481.6528549</v>
+        <v>890642267.92521024</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -27780,7 +27780,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="28">
-        <v>1117521569.2804744</v>
+        <v>982206810.23563194</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
@@ -27790,7 +27790,7 @@
         <v>81</v>
       </c>
       <c r="F102" s="28">
-        <v>712662994.13667452</v>
+        <v>1099270600.060087</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
@@ -27800,7 +27800,7 @@
         <v>82</v>
       </c>
       <c r="F103" s="28">
-        <v>1076771897.8595231</v>
+        <v>894436558.89956522</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
@@ -27810,7 +27810,7 @@
         <v>83</v>
       </c>
       <c r="F104" s="28">
-        <v>1028784630.618938</v>
+        <v>791254107.86665642</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
@@ -27820,7 +27820,7 @@
         <v>84</v>
       </c>
       <c r="F105" s="28">
-        <v>775170370.98656654</v>
+        <v>968078855.30544829</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -27830,7 +27830,7 @@
         <v>85</v>
       </c>
       <c r="F106" s="28">
-        <v>966874982.4702127</v>
+        <v>918961205.99703443</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
@@ -27840,7 +27840,7 @@
         <v>86</v>
       </c>
       <c r="F107" s="28">
-        <v>1163098584.5312183</v>
+        <v>1106280142.3572469</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
@@ -27850,7 +27850,7 @@
         <v>87</v>
       </c>
       <c r="F108" s="28">
-        <v>1023521780.5218626</v>
+        <v>1203723114.6462579</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
@@ -27860,7 +27860,7 @@
         <v>88</v>
       </c>
       <c r="F109" s="28">
-        <v>879464545.59167695</v>
+        <v>971660900.6780746</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -27870,7 +27870,7 @@
         <v>89</v>
       </c>
       <c r="F110" s="28">
-        <v>923663790.25657654</v>
+        <v>956720991.12808454</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -27880,7 +27880,7 @@
         <v>90</v>
       </c>
       <c r="F111" s="28">
-        <v>1335760423.4651921</v>
+        <v>1211481223.3357346</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
@@ -27890,7 +27890,7 @@
         <v>91</v>
       </c>
       <c r="F112" s="28">
-        <v>1115880707.7800093</v>
+        <v>971728034.53010833</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
@@ -27900,7 +27900,7 @@
         <v>92</v>
       </c>
       <c r="F113" s="28">
-        <v>995941215.85976481</v>
+        <v>983002874.57838297</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -27910,7 +27910,7 @@
         <v>93</v>
       </c>
       <c r="F114" s="28">
-        <v>918087651.03411138</v>
+        <v>1026308011.0775568</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
@@ -27920,7 +27920,7 @@
         <v>94</v>
       </c>
       <c r="F115" s="28">
-        <v>1052555197.3829437</v>
+        <v>832655488.47050786</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -27930,7 +27930,7 @@
         <v>95</v>
       </c>
       <c r="F116" s="28">
-        <v>820714977.79718924</v>
+        <v>1178475909.6403971</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -27940,7 +27940,7 @@
         <v>96</v>
       </c>
       <c r="F117" s="28">
-        <v>1221933039.6371927</v>
+        <v>1186557776.9630895</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
@@ -27950,7 +27950,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="28">
-        <v>1114280476.5658269</v>
+        <v>970596368.38937473</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -27960,7 +27960,7 @@
         <v>98</v>
       </c>
       <c r="F119" s="28">
-        <v>1060005701.6234512</v>
+        <v>997985852.85882616</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -27970,7 +27970,7 @@
         <v>99</v>
       </c>
       <c r="F120" s="28">
-        <v>951925252.4397738</v>
+        <v>928655693.42428303</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
@@ -27980,7 +27980,7 @@
         <v>100</v>
       </c>
       <c r="F121" s="28">
-        <v>997662749.40868068</v>
+        <v>868782597.5654906</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -27990,7 +27990,7 @@
         <v>101</v>
       </c>
       <c r="F122" s="28">
-        <v>864227745.78374922</v>
+        <v>825139476.162395</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
@@ -28000,7 +28000,7 @@
         <v>102</v>
       </c>
       <c r="F123" s="28">
-        <v>870982842.32235062</v>
+        <v>953368742.23765612</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -28010,7 +28010,7 @@
         <v>103</v>
       </c>
       <c r="F124" s="28">
-        <v>1250770276.122474</v>
+        <v>1008784993.6723735</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
@@ -28020,7 +28020,7 @@
         <v>104</v>
       </c>
       <c r="F125" s="28">
-        <v>807822830.78343379</v>
+        <v>1072600440.6898806</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
@@ -28030,7 +28030,7 @@
         <v>105</v>
       </c>
       <c r="F126" s="28">
-        <v>1138972851.9812219</v>
+        <v>1031716224.857025</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -28040,7 +28040,7 @@
         <v>106</v>
       </c>
       <c r="F127" s="28">
-        <v>870397031.45326138</v>
+        <v>802040442.72740746</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
@@ -28050,7 +28050,7 @@
         <v>107</v>
       </c>
       <c r="F128" s="28">
-        <v>1125601466.0099177</v>
+        <v>783516951.43231142</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -28060,7 +28060,7 @@
         <v>108</v>
       </c>
       <c r="F129" s="28">
-        <v>948257874.5513562</v>
+        <v>951209575.5149467</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
@@ -28131,15 +28131,15 @@
       </c>
       <c r="B4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N6,Mappings!O6)</f>
-        <v>841.4946347794878</v>
+        <v>1304.242138316479</v>
       </c>
       <c r="C4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N7,Mappings!O7)</f>
-        <v>293.48800805279029</v>
+        <v>269.54782823150015</v>
       </c>
       <c r="D4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N8,Mappings!O8)</f>
-        <v>700.29537850513543</v>
+        <v>1237.5476280003375</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -28165,15 +28165,15 @@
       </c>
       <c r="B6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B5,B5*Mappings!E4)</f>
-        <v>3.2908020401472422</v>
+        <v>2.3855010168951285</v>
       </c>
       <c r="C6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C5,C5*Mappings!E3)</f>
-        <v>7.7445786264348868</v>
+        <v>9.5546539777108084</v>
       </c>
       <c r="D6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),D5,D5*Mappings!E4)</f>
-        <v>2.9293426639446007</v>
+        <v>3.7553326429288267</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -28199,15 +28199,15 @@
       </c>
       <c r="B8" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(), B7, B7 * 25/100)</f>
-        <v>7275.8044384671439</v>
+        <v>7194.5163818263027</v>
       </c>
       <c r="C8" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(), C7, C7* 25/100)</f>
-        <v>6419.2821807224727</v>
+        <v>7355.8524532433958</v>
       </c>
       <c r="D8" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(), D7, D7* 25/100)</f>
-        <v>8098.9513937686279</v>
+        <v>5469.8428313038776</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -28235,15 +28235,15 @@
       </c>
       <c r="B10" s="28">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L36))</f>
-        <v>19.626075001220478</v>
+        <v>112.37822044313572</v>
       </c>
       <c r="C10" s="28">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L36))</f>
-        <v>7.7715700518010067</v>
+        <v>45.582612631581235</v>
       </c>
       <c r="D10" s="28">
         <f ca="1">IF(D9&gt;0,_xlfn.NORM.INV(RAND(),D9,D9*Dairy_Income_Roadmap!L38),_xlfn.NORM.INV(RAND(),ABS(D9),ABS(D9)*Dairy_Income_Roadmap!L38))</f>
-        <v>150.36303689545852</v>
+        <v>437.47323954638102</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -28291,15 +28291,15 @@
       </c>
       <c r="B14" s="28">
         <f ca="1">B4*B6</f>
-        <v>2769.1922609052967</v>
+        <v>3111.2709472314373</v>
       </c>
       <c r="C14" s="28">
         <f ca="1">C4*C6</f>
-        <v>2272.9409542805897</v>
+        <v>2575.4362291954126</v>
       </c>
       <c r="D14" s="28">
         <f ca="1">D4*D6</f>
-        <v>2051.4051296183261</v>
+        <v>4647.4030046088074</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -28308,15 +28308,15 @@
       </c>
       <c r="B15" s="28">
         <f ca="1">D8-IF(D9&gt;0,D10,(-1)*D10)</f>
-        <v>7948.5883568731697</v>
+        <v>5032.3695917574969</v>
       </c>
       <c r="C15" s="28">
         <f t="shared" ref="C15:D15" ca="1" si="0">C8-C10</f>
-        <v>6411.5106106706717</v>
+        <v>7310.2698406118143</v>
       </c>
       <c r="D15" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>7948.5883568731697</v>
+        <v>5032.3695917574969</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -28325,15 +28325,15 @@
       </c>
       <c r="B16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>28367.329964795063</v>
+        <v>27526.134288396242</v>
       </c>
       <c r="C16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>52295.330419130754</v>
+        <v>50835.643859934753</v>
       </c>
       <c r="D16" s="28">
         <f t="shared" ref="D16" ca="1" si="1">_xlfn.NORM.INV(RAND(),D11,D12)</f>
-        <v>27873.970649306095</v>
+        <v>28256.838724008423</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -28347,19 +28347,19 @@
       </c>
       <c r="B18" s="38">
         <f ca="1">(B14+B15)*B16</f>
-        <v>304034819.2748068</v>
+        <v>224162943.07263696</v>
       </c>
       <c r="C18" s="38">
         <f ca="1">(C14+C15)*C16</f>
-        <v>454156264.09806341</v>
+        <v>502546233.06871551</v>
       </c>
       <c r="D18" s="38">
         <f ca="1">(D14+D15)*D16</f>
-        <v>278739524.93571609</v>
+        <v>273519773.14059889</v>
       </c>
       <c r="F18" s="30">
         <f ca="1">B18+C18+D18</f>
-        <v>1036930608.3085864</v>
+        <v>1000228949.2819513</v>
       </c>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
@@ -28380,7 +28380,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="30">
         <f ca="1">STDEV(F22:F129)</f>
-        <v>153532185.48266059</v>
+        <v>143577509.44045854</v>
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="42" t="s">
@@ -28404,13 +28404,13 @@
       <c r="E20" s="4"/>
       <c r="F20" s="30">
         <f ca="1">AVERAGE(F22:F129)</f>
-        <v>1021889464.2319425</v>
+        <v>1025440434.2606989</v>
       </c>
       <c r="G20" s="30"/>
       <c r="H20" s="42"/>
       <c r="I20" s="43">
         <f ca="1">100*F19/F20</f>
-        <v>15.024343713931545</v>
+        <v>14.001545545058608</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -28425,7 +28425,7 @@
       </c>
       <c r="F22" s="30">
         <f ca="1">F18</f>
-        <v>1036930608.3085864</v>
+        <v>1000228949.2819513</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
@@ -28436,7 +28436,7 @@
       </c>
       <c r="F23" s="30">
         <f t="dataTable" ref="F23:F129" dt2D="0" dtr="0" r1="F21" ca="1"/>
-        <v>1009270390.1485493</v>
+        <v>1185910747.8006363</v>
       </c>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
@@ -28446,7 +28446,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="30">
-        <v>988258079.7353338</v>
+        <v>823440327.85419142</v>
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
@@ -28456,7 +28456,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="30">
-        <v>861782694.23408782</v>
+        <v>987990197.39776278</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
@@ -28466,7 +28466,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="30">
-        <v>1206732907.6913443</v>
+        <v>993647669.60291171</v>
       </c>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
@@ -28476,7 +28476,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="30">
-        <v>1009689083.5905545</v>
+        <v>1047479603.4553792</v>
       </c>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
@@ -28486,7 +28486,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="30">
-        <v>844315339.83449244</v>
+        <v>1114826082.6342659</v>
       </c>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
@@ -28496,7 +28496,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="30">
-        <v>1006928273.1854873</v>
+        <v>1146369457.4032538</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
@@ -28506,7 +28506,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="30">
-        <v>1065553459.4672525</v>
+        <v>829177569.19650722</v>
       </c>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
@@ -28516,7 +28516,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="30">
-        <v>992562811.22729647</v>
+        <v>1272542845.1911237</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
@@ -28526,7 +28526,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="30">
-        <v>681949366.47310495</v>
+        <v>1005773929.1152909</v>
       </c>
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
@@ -28536,7 +28536,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="30">
-        <v>887074601.9283582</v>
+        <v>997505878.23755968</v>
       </c>
       <c r="G33" s="37"/>
       <c r="H33" s="37"/>
@@ -28546,7 +28546,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="30">
-        <v>910574006.15159822</v>
+        <v>1148676458.2495072</v>
       </c>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
@@ -28556,7 +28556,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="30">
-        <v>1139785018.0399759</v>
+        <v>1105606367.0562363</v>
       </c>
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
@@ -28566,7 +28566,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="30">
-        <v>656847516.29341471</v>
+        <v>826309407.66191733</v>
       </c>
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
@@ -28576,7 +28576,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="30">
-        <v>1065407730.9744687</v>
+        <v>913665474.26724446</v>
       </c>
       <c r="G37" s="37"/>
       <c r="H37" s="37"/>
@@ -28586,7 +28586,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="30">
-        <v>970437101.54186618</v>
+        <v>1013705682.0678854</v>
       </c>
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
@@ -28596,7 +28596,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="30">
-        <v>946052882.93129551</v>
+        <v>1009311042.4611354</v>
       </c>
       <c r="G39" s="37"/>
       <c r="H39" s="37"/>
@@ -28606,7 +28606,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="30">
-        <v>1169703708.6563182</v>
+        <v>1009335148.8260555</v>
       </c>
       <c r="G40" s="37"/>
       <c r="H40" s="37"/>
@@ -28616,7 +28616,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="30">
-        <v>1123010208.8819227</v>
+        <v>998353320.42310274</v>
       </c>
       <c r="G41" s="37"/>
       <c r="H41" s="37"/>
@@ -28626,7 +28626,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="30">
-        <v>972726230.94357538</v>
+        <v>975186220.56274819</v>
       </c>
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
@@ -28636,7 +28636,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="30">
-        <v>1217837783.2801437</v>
+        <v>836831541.17982292</v>
       </c>
       <c r="G43" s="37"/>
       <c r="H43" s="37"/>
@@ -28646,7 +28646,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="30">
-        <v>1214635899.6651287</v>
+        <v>940708749.01231372</v>
       </c>
       <c r="G44" s="37"/>
       <c r="H44" s="37"/>
@@ -28656,7 +28656,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="30">
-        <v>1099723720.0763001</v>
+        <v>1021923491.8303478</v>
       </c>
       <c r="G45" s="37"/>
       <c r="H45" s="37"/>
@@ -28666,7 +28666,7 @@
         <v>25</v>
       </c>
       <c r="F46" s="30">
-        <v>813601079.10564375</v>
+        <v>1024495510.1092989</v>
       </c>
       <c r="G46" s="37"/>
       <c r="H46" s="37"/>
@@ -28676,7 +28676,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="30">
-        <v>1098494178.6981759</v>
+        <v>1268951172.3718951</v>
       </c>
       <c r="G47" s="37"/>
       <c r="H47" s="37"/>
@@ -28686,7 +28686,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="30">
-        <v>1541209731.4921565</v>
+        <v>766399484.64390409</v>
       </c>
       <c r="G48" s="37"/>
       <c r="H48" s="37"/>
@@ -28696,7 +28696,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="30">
-        <v>810892796.52233768</v>
+        <v>691830525.2144016</v>
       </c>
       <c r="G49" s="37"/>
       <c r="H49" s="37"/>
@@ -28706,7 +28706,7 @@
         <v>29</v>
       </c>
       <c r="F50" s="30">
-        <v>1019339582.824127</v>
+        <v>1196921292.7188213</v>
       </c>
       <c r="G50" s="37"/>
       <c r="H50" s="37"/>
@@ -28716,7 +28716,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="30">
-        <v>1151287425.7436557</v>
+        <v>1204179892.0043426</v>
       </c>
       <c r="G51" s="37"/>
       <c r="H51" s="37"/>
@@ -28726,7 +28726,7 @@
         <v>31</v>
       </c>
       <c r="F52" s="30">
-        <v>836202800.96371579</v>
+        <v>1258962991.8924873</v>
       </c>
       <c r="G52" s="37"/>
       <c r="H52" s="37"/>
@@ -28736,7 +28736,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="30">
-        <v>1038841081.6256834</v>
+        <v>820405412.27846909</v>
       </c>
       <c r="G53" s="37"/>
       <c r="H53" s="37"/>
@@ -28746,7 +28746,7 @@
         <v>33</v>
       </c>
       <c r="F54" s="30">
-        <v>1072449676.7845727</v>
+        <v>1103199323.8836803</v>
       </c>
       <c r="G54" s="37"/>
       <c r="H54" s="37"/>
@@ -28756,7 +28756,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="30">
-        <v>1049035269.7205294</v>
+        <v>1211658831.0359144</v>
       </c>
       <c r="G55" s="37"/>
       <c r="H55" s="37"/>
@@ -28766,7 +28766,7 @@
         <v>35</v>
       </c>
       <c r="F56" s="30">
-        <v>1058801230.2674108</v>
+        <v>915025181.83639908</v>
       </c>
       <c r="G56" s="37"/>
       <c r="H56" s="37"/>
@@ -28776,7 +28776,7 @@
         <v>36</v>
       </c>
       <c r="F57" s="30">
-        <v>1035970441.3840714</v>
+        <v>859734846.09629226</v>
       </c>
       <c r="G57" s="37"/>
       <c r="H57" s="37"/>
@@ -28786,7 +28786,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="30">
-        <v>1133703466.8971801</v>
+        <v>1013377562.6582026</v>
       </c>
       <c r="G58" s="37"/>
       <c r="H58" s="37"/>
@@ -28796,7 +28796,7 @@
         <v>38</v>
       </c>
       <c r="F59" s="30">
-        <v>937211300.24456251</v>
+        <v>1344154263.4727278</v>
       </c>
       <c r="G59" s="37"/>
       <c r="H59" s="37"/>
@@ -28806,7 +28806,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="30">
-        <v>956538707.1707654</v>
+        <v>1068073353.3145804</v>
       </c>
       <c r="G60" s="37"/>
       <c r="H60" s="37"/>
@@ -28816,7 +28816,7 @@
         <v>40</v>
       </c>
       <c r="F61" s="30">
-        <v>1166636462.2733519</v>
+        <v>809508537.26782537</v>
       </c>
       <c r="G61" s="37"/>
       <c r="H61" s="37"/>
@@ -28826,7 +28826,7 @@
         <v>41</v>
       </c>
       <c r="F62" s="30">
-        <v>863353708.0205884</v>
+        <v>1177977085.8793397</v>
       </c>
       <c r="G62" s="37"/>
       <c r="H62" s="37"/>
@@ -28836,7 +28836,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="30">
-        <v>1202349455.7165489</v>
+        <v>1188794016.8727231</v>
       </c>
       <c r="G63" s="37"/>
       <c r="H63" s="37"/>
@@ -28846,7 +28846,7 @@
         <v>43</v>
       </c>
       <c r="F64" s="30">
-        <v>710537835.2145319</v>
+        <v>985229996.72339499</v>
       </c>
       <c r="G64" s="37"/>
       <c r="H64" s="37"/>
@@ -28856,7 +28856,7 @@
         <v>44</v>
       </c>
       <c r="F65" s="30">
-        <v>1081653594.6416955</v>
+        <v>1043472828.2276776</v>
       </c>
       <c r="G65" s="37"/>
       <c r="H65" s="37"/>
@@ -28866,7 +28866,7 @@
         <v>45</v>
       </c>
       <c r="F66" s="30">
-        <v>900428166.33094954</v>
+        <v>994095661.87321675</v>
       </c>
       <c r="G66" s="37"/>
       <c r="H66" s="37"/>
@@ -28876,7 +28876,7 @@
         <v>46</v>
       </c>
       <c r="F67" s="30">
-        <v>928799036.97595978</v>
+        <v>1178778151.0582089</v>
       </c>
       <c r="G67" s="37"/>
       <c r="H67" s="37"/>
@@ -28886,7 +28886,7 @@
         <v>47</v>
       </c>
       <c r="F68" s="30">
-        <v>927998055.29340291</v>
+        <v>1000320822.0553935</v>
       </c>
       <c r="G68" s="37"/>
       <c r="H68" s="37"/>
@@ -28896,7 +28896,7 @@
         <v>48</v>
       </c>
       <c r="F69" s="30">
-        <v>1160352012.0934415</v>
+        <v>1061788441.354234</v>
       </c>
       <c r="G69" s="37"/>
       <c r="H69" s="37"/>
@@ -28906,7 +28906,7 @@
         <v>49</v>
       </c>
       <c r="F70" s="30">
-        <v>882132008.97396648</v>
+        <v>967918659.88093305</v>
       </c>
       <c r="G70" s="37"/>
       <c r="H70" s="37"/>
@@ -28916,7 +28916,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="30">
-        <v>793329508.65229917</v>
+        <v>1231735382.4677885</v>
       </c>
       <c r="G71" s="37"/>
       <c r="H71" s="37"/>
@@ -28926,7 +28926,7 @@
         <v>51</v>
       </c>
       <c r="F72" s="30">
-        <v>956256493.75886703</v>
+        <v>1215750525.7050281</v>
       </c>
       <c r="G72" s="37"/>
       <c r="H72" s="37"/>
@@ -28936,7 +28936,7 @@
         <v>52</v>
       </c>
       <c r="F73" s="30">
-        <v>1263276921.2947602</v>
+        <v>958239037.45009363</v>
       </c>
       <c r="G73" s="37"/>
       <c r="H73" s="37"/>
@@ -28946,7 +28946,7 @@
         <v>53</v>
       </c>
       <c r="F74" s="30">
-        <v>1084589918.958354</v>
+        <v>783050762.25474799</v>
       </c>
       <c r="G74" s="37"/>
       <c r="H74" s="37"/>
@@ -28956,7 +28956,7 @@
         <v>54</v>
       </c>
       <c r="F75" s="30">
-        <v>1121499568.9353113</v>
+        <v>1078203635.9026387</v>
       </c>
       <c r="G75" s="37"/>
       <c r="H75" s="37"/>
@@ -28966,7 +28966,7 @@
         <v>55</v>
       </c>
       <c r="F76" s="30">
-        <v>843321032.68721008</v>
+        <v>1015753439.8347285</v>
       </c>
       <c r="G76" s="37"/>
       <c r="H76" s="37"/>
@@ -28976,7 +28976,7 @@
         <v>56</v>
       </c>
       <c r="F77" s="30">
-        <v>1047445587.7974881</v>
+        <v>1053747732.4645243</v>
       </c>
       <c r="G77" s="37"/>
       <c r="H77" s="37"/>
@@ -28986,7 +28986,7 @@
         <v>57</v>
       </c>
       <c r="F78" s="30">
-        <v>1105199667.6438565</v>
+        <v>1181367410.030395</v>
       </c>
       <c r="G78" s="37"/>
       <c r="H78" s="37"/>
@@ -28996,7 +28996,7 @@
         <v>58</v>
       </c>
       <c r="F79" s="30">
-        <v>1103651938.9434898</v>
+        <v>846535262.93495953</v>
       </c>
       <c r="G79" s="37"/>
       <c r="H79" s="37"/>
@@ -29006,7 +29006,7 @@
         <v>59</v>
       </c>
       <c r="F80" s="30">
-        <v>1251523566.8857973</v>
+        <v>1121819706.8199525</v>
       </c>
       <c r="G80" s="37"/>
       <c r="H80" s="37"/>
@@ -29016,7 +29016,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="30">
-        <v>1139209232.7001615</v>
+        <v>1289019930.5996916</v>
       </c>
       <c r="G81" s="37"/>
       <c r="H81" s="37"/>
@@ -29026,7 +29026,7 @@
         <v>61</v>
       </c>
       <c r="F82" s="30">
-        <v>1086769858.5245237</v>
+        <v>1273052218.7973347</v>
       </c>
       <c r="G82" s="37"/>
       <c r="H82" s="37"/>
@@ -29036,7 +29036,7 @@
         <v>62</v>
       </c>
       <c r="F83" s="30">
-        <v>1012932061.7569449</v>
+        <v>1210194837.3045487</v>
       </c>
       <c r="G83" s="37"/>
       <c r="H83" s="37"/>
@@ -29046,7 +29046,7 @@
         <v>63</v>
       </c>
       <c r="F84" s="30">
-        <v>1129935846.9907446</v>
+        <v>850371474.4868114</v>
       </c>
       <c r="G84" s="37"/>
       <c r="H84" s="37"/>
@@ -29056,7 +29056,7 @@
         <v>64</v>
       </c>
       <c r="F85" s="30">
-        <v>1013945554.3619854</v>
+        <v>1094267420.5593598</v>
       </c>
       <c r="G85" s="37"/>
       <c r="H85" s="37"/>
@@ -29066,7 +29066,7 @@
         <v>65</v>
       </c>
       <c r="F86" s="30">
-        <v>764933815.06833649</v>
+        <v>1125581752.8881621</v>
       </c>
       <c r="G86" s="37"/>
       <c r="H86" s="37"/>
@@ -29076,7 +29076,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="30">
-        <v>1243395220.5347195</v>
+        <v>1037053649.3379505</v>
       </c>
       <c r="G87" s="37"/>
       <c r="H87" s="37"/>
@@ -29086,7 +29086,7 @@
         <v>67</v>
       </c>
       <c r="F88" s="30">
-        <v>900873802.23561001</v>
+        <v>808892314.65772772</v>
       </c>
       <c r="G88" s="37"/>
       <c r="H88" s="37"/>
@@ -29096,7 +29096,7 @@
         <v>68</v>
       </c>
       <c r="F89" s="30">
-        <v>1047160131.867955</v>
+        <v>954926724.51247835</v>
       </c>
       <c r="G89" s="37"/>
       <c r="H89" s="37"/>
@@ -29106,7 +29106,7 @@
         <v>69</v>
       </c>
       <c r="F90" s="30">
-        <v>1133708078.8070815</v>
+        <v>820621591.74420571</v>
       </c>
       <c r="G90" s="37"/>
       <c r="H90" s="37"/>
@@ -29116,7 +29116,7 @@
         <v>70</v>
       </c>
       <c r="F91" s="30">
-        <v>1357864912.6410441</v>
+        <v>1024214965.4214154</v>
       </c>
       <c r="G91" s="37"/>
       <c r="H91" s="37"/>
@@ -29126,7 +29126,7 @@
         <v>71</v>
       </c>
       <c r="F92" s="30">
-        <v>1012860355.919253</v>
+        <v>925744969.90452433</v>
       </c>
       <c r="G92" s="37"/>
       <c r="H92" s="37"/>
@@ -29136,7 +29136,7 @@
         <v>72</v>
       </c>
       <c r="F93" s="30">
-        <v>1104450479.5068209</v>
+        <v>974030346.8289299</v>
       </c>
       <c r="G93" s="37"/>
       <c r="H93" s="37"/>
@@ -29146,7 +29146,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="30">
-        <v>869192758.59369326</v>
+        <v>1018840673.4889772</v>
       </c>
       <c r="G94" s="37"/>
       <c r="H94" s="37"/>
@@ -29156,7 +29156,7 @@
         <v>74</v>
       </c>
       <c r="F95" s="30">
-        <v>1277674940.8678663</v>
+        <v>979140908.34694481</v>
       </c>
       <c r="G95" s="37"/>
       <c r="H95" s="37"/>
@@ -29166,7 +29166,7 @@
         <v>75</v>
       </c>
       <c r="F96" s="30">
-        <v>991131888.54584432</v>
+        <v>899655461.66112304</v>
       </c>
       <c r="G96" s="37"/>
       <c r="H96" s="37"/>
@@ -29176,7 +29176,7 @@
         <v>76</v>
       </c>
       <c r="F97" s="30">
-        <v>1069653920.4789112</v>
+        <v>936334486.86219943</v>
       </c>
       <c r="G97" s="37"/>
       <c r="H97" s="37"/>
@@ -29186,7 +29186,7 @@
         <v>77</v>
       </c>
       <c r="F98" s="30">
-        <v>1063734182.1856987</v>
+        <v>1123133891.9396157</v>
       </c>
       <c r="G98" s="37"/>
       <c r="H98" s="37"/>
@@ -29196,7 +29196,7 @@
         <v>78</v>
       </c>
       <c r="F99" s="30">
-        <v>1037234394.0133671</v>
+        <v>1015923292.2198349</v>
       </c>
       <c r="G99" s="37"/>
       <c r="H99" s="37"/>
@@ -29206,7 +29206,7 @@
         <v>79</v>
       </c>
       <c r="F100" s="30">
-        <v>851871348.44393122</v>
+        <v>1156734291.7553144</v>
       </c>
       <c r="G100" s="37"/>
       <c r="H100" s="37"/>
@@ -29216,7 +29216,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="30">
-        <v>1044562885.2613037</v>
+        <v>1005475828.9549379</v>
       </c>
       <c r="G101" s="37"/>
       <c r="H101" s="37"/>
@@ -29226,7 +29226,7 @@
         <v>81</v>
       </c>
       <c r="F102" s="30">
-        <v>1249608423.3764603</v>
+        <v>1068883845.5595698</v>
       </c>
       <c r="G102" s="37"/>
       <c r="H102" s="37"/>
@@ -29236,7 +29236,7 @@
         <v>82</v>
       </c>
       <c r="F103" s="30">
-        <v>1123896856.149189</v>
+        <v>1027634173.5364854</v>
       </c>
       <c r="G103" s="37"/>
       <c r="H103" s="37"/>
@@ -29246,7 +29246,7 @@
         <v>83</v>
       </c>
       <c r="F104" s="30">
-        <v>809079093.93360448</v>
+        <v>1130324234.9193177</v>
       </c>
       <c r="G104" s="37"/>
       <c r="H104" s="37"/>
@@ -29256,7 +29256,7 @@
         <v>84</v>
       </c>
       <c r="F105" s="30">
-        <v>1008689771.3614397</v>
+        <v>841316434.26863408</v>
       </c>
       <c r="G105" s="37"/>
       <c r="H105" s="37"/>
@@ -29266,7 +29266,7 @@
         <v>85</v>
       </c>
       <c r="F106" s="30">
-        <v>1053863955.3258276</v>
+        <v>1034380807.2771027</v>
       </c>
       <c r="G106" s="37"/>
       <c r="H106" s="37"/>
@@ -29276,7 +29276,7 @@
         <v>86</v>
       </c>
       <c r="F107" s="30">
-        <v>1066877087.1837199</v>
+        <v>900800586.89387751</v>
       </c>
       <c r="G107" s="37"/>
       <c r="H107" s="37"/>
@@ -29286,7 +29286,7 @@
         <v>87</v>
       </c>
       <c r="F108" s="30">
-        <v>858389781.28599715</v>
+        <v>1013800578.9258466</v>
       </c>
       <c r="G108" s="37"/>
       <c r="H108" s="37"/>
@@ -29296,7 +29296,7 @@
         <v>88</v>
       </c>
       <c r="F109" s="30">
-        <v>990893512.55692863</v>
+        <v>1099322454.0017614</v>
       </c>
       <c r="G109" s="37"/>
       <c r="H109" s="37"/>
@@ -29306,7 +29306,7 @@
         <v>89</v>
       </c>
       <c r="F110" s="30">
-        <v>1058518899.1105568</v>
+        <v>1236015433.3810182</v>
       </c>
       <c r="G110" s="37"/>
       <c r="H110" s="37"/>
@@ -29316,7 +29316,7 @@
         <v>90</v>
       </c>
       <c r="F111" s="30">
-        <v>1269859098.1112628</v>
+        <v>1308141590.1484964</v>
       </c>
       <c r="G111" s="37"/>
       <c r="H111" s="37"/>
@@ -29326,7 +29326,7 @@
         <v>91</v>
       </c>
       <c r="F112" s="30">
-        <v>970260202.25362408</v>
+        <v>846409041.45828938</v>
       </c>
       <c r="G112" s="37"/>
       <c r="H112" s="37"/>
@@ -29336,7 +29336,7 @@
         <v>92</v>
       </c>
       <c r="F113" s="30">
-        <v>1011341059.8460848</v>
+        <v>812326990.83096659</v>
       </c>
       <c r="G113" s="37"/>
       <c r="H113" s="37"/>
@@ -29346,7 +29346,7 @@
         <v>93</v>
       </c>
       <c r="F114" s="30">
-        <v>853172002.48641753</v>
+        <v>823775840.42678308</v>
       </c>
       <c r="G114" s="37"/>
       <c r="H114" s="37"/>
@@ -29356,7 +29356,7 @@
         <v>94</v>
       </c>
       <c r="F115" s="30">
-        <v>1159641816.0687518</v>
+        <v>916078453.63695908</v>
       </c>
       <c r="G115" s="37"/>
       <c r="H115" s="37"/>
@@ -29366,7 +29366,7 @@
         <v>95</v>
       </c>
       <c r="F116" s="30">
-        <v>801927272.65933573</v>
+        <v>1058101242.0201473</v>
       </c>
       <c r="G116" s="37"/>
       <c r="H116" s="37"/>
@@ -29376,7 +29376,7 @@
         <v>96</v>
       </c>
       <c r="F117" s="30">
-        <v>978034178.55238497</v>
+        <v>1095843286.4150815</v>
       </c>
       <c r="G117" s="37"/>
       <c r="H117" s="37"/>
@@ -29386,7 +29386,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="30">
-        <v>1106989205.9700983</v>
+        <v>1059700314.0644228</v>
       </c>
       <c r="G118" s="37"/>
       <c r="H118" s="37"/>
@@ -29396,7 +29396,7 @@
         <v>98</v>
       </c>
       <c r="F119" s="30">
-        <v>1237673313.1354373</v>
+        <v>1154052515.5413022</v>
       </c>
       <c r="G119" s="37"/>
       <c r="H119" s="37"/>
@@ -29406,7 +29406,7 @@
         <v>99</v>
       </c>
       <c r="F120" s="30">
-        <v>963106677.84562588</v>
+        <v>920594202.56046915</v>
       </c>
       <c r="G120" s="37"/>
       <c r="H120" s="37"/>
@@ -29416,7 +29416,7 @@
         <v>100</v>
       </c>
       <c r="F121" s="30">
-        <v>895150084.07475567</v>
+        <v>643352196.71198583</v>
       </c>
       <c r="G121" s="37"/>
       <c r="H121" s="37"/>
@@ -29426,7 +29426,7 @@
         <v>101</v>
       </c>
       <c r="F122" s="30">
-        <v>979361396.54714489</v>
+        <v>919849486.10584259</v>
       </c>
       <c r="G122" s="37"/>
       <c r="H122" s="37"/>
@@ -29436,7 +29436,7 @@
         <v>102</v>
       </c>
       <c r="F123" s="30">
-        <v>815522227.63830996</v>
+        <v>1052422030.2032468</v>
       </c>
       <c r="G123" s="37"/>
       <c r="H123" s="37"/>
@@ -29446,7 +29446,7 @@
         <v>103</v>
       </c>
       <c r="F124" s="30">
-        <v>944173815.5569303</v>
+        <v>865272081.7139014</v>
       </c>
       <c r="G124" s="37"/>
       <c r="H124" s="37"/>
@@ -29456,7 +29456,7 @@
         <v>104</v>
       </c>
       <c r="F125" s="30">
-        <v>1027446217.0060136</v>
+        <v>1100138421.8478315</v>
       </c>
       <c r="G125" s="37"/>
       <c r="H125" s="37"/>
@@ -29466,7 +29466,7 @@
         <v>105</v>
       </c>
       <c r="F126" s="30">
-        <v>1120444014.6468854</v>
+        <v>1173162889.1277952</v>
       </c>
       <c r="G126" s="37"/>
       <c r="H126" s="37"/>
@@ -29476,7 +29476,7 @@
         <v>106</v>
       </c>
       <c r="F127" s="30">
-        <v>603071360.00814259</v>
+        <v>1067406967.4094676</v>
       </c>
       <c r="G127" s="37"/>
       <c r="H127" s="37"/>
@@ -29486,7 +29486,7 @@
         <v>107</v>
       </c>
       <c r="F128" s="30">
-        <v>970017083.33769679</v>
+        <v>1205388768.594681</v>
       </c>
       <c r="G128" s="37"/>
       <c r="H128" s="37"/>
@@ -29496,7 +29496,7 @@
         <v>108</v>
       </c>
       <c r="F129" s="30">
-        <v>1258255327.9184847</v>
+        <v>1003898098.9437914</v>
       </c>
       <c r="G129" s="37"/>
       <c r="H129" s="37"/>
@@ -29569,15 +29569,15 @@
       </c>
       <c r="B4" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N18,Mappings!O18)</f>
-        <v>1260.1932698314029</v>
+        <v>1404.6375655931652</v>
       </c>
       <c r="C4" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N19,Mappings!O19)</f>
-        <v>204.47943631942724</v>
+        <v>264.81210706211226</v>
       </c>
       <c r="D4" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N20,Mappings!O20)</f>
-        <v>1005.6912152697653</v>
+        <v>1005.5053943686274</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -29605,15 +29605,15 @@
       </c>
       <c r="B6" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),B5,B5*Mappings!E4)</f>
-        <v>1.2945534891922494</v>
+        <v>1.1852655822928455</v>
       </c>
       <c r="C6" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),C5,C5*Mappings!E3)</f>
-        <v>8.3104952639768896</v>
+        <v>4.3957408361638493</v>
       </c>
       <c r="D6" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),D5,D5*Mappings!E4)</f>
-        <v>3.1586263767726712</v>
+        <v>1.4897675139279665</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -29641,15 +29641,15 @@
       </c>
       <c r="B8" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(), B7, B7 * 25/100)</f>
-        <v>7596.6882060260796</v>
+        <v>5231.8537042913122</v>
       </c>
       <c r="C8" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(), C7, C7* 25/100)</f>
-        <v>6501.6405625005955</v>
+        <v>5522.8205555242403</v>
       </c>
       <c r="D8" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(), D7, D7* 25/100)</f>
-        <v>8782.8059739605396</v>
+        <v>10574.594091804654</v>
       </c>
       <c r="K8" s="44"/>
     </row>
@@ -29679,15 +29679,15 @@
       </c>
       <c r="B10" s="17">
         <f ca="1">IF(B9&gt;=0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L36))</f>
-        <v>61.270308178800136</v>
+        <v>113.47700852752303</v>
       </c>
       <c r="C10" s="17">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L36))</f>
-        <v>79.717824352991016</v>
+        <v>129.52835340773953</v>
       </c>
       <c r="D10" s="17">
         <f ca="1">IF(D9&gt;0,_xlfn.NORM.INV(RAND(),D9,D9*Dairy_Income_Roadmap!L38),_xlfn.NORM.INV(RAND(),ABS(D9),ABS(D9)*Dairy_Income_Roadmap!L38))</f>
-        <v>375.61533815134584</v>
+        <v>31.22311601432807</v>
       </c>
       <c r="K10" s="44"/>
     </row>
@@ -29737,15 +29737,15 @@
       </c>
       <c r="B14" s="17">
         <f ca="1">B4*B6</f>
-        <v>1631.3875945168325</v>
+        <v>1664.8685620931878</v>
       </c>
       <c r="C14" s="17">
         <f ca="1">C4*C6</f>
-        <v>1699.325387113264</v>
+        <v>1164.04539292352</v>
       </c>
       <c r="D14" s="17">
         <f ca="1">D4*D6</f>
-        <v>3176.6027994396431</v>
+        <v>1497.9692716097095</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -29755,15 +29755,15 @@
       </c>
       <c r="B15" s="17">
         <f ca="1">B8-IF(B9&gt;0,B10,(-1)*B10)</f>
-        <v>7535.4178978472792</v>
+        <v>5118.376695763789</v>
       </c>
       <c r="C15" s="17">
         <f ca="1">C8-IF(C9&gt;0,C10,(-1)*C10)</f>
-        <v>6421.9227381476048</v>
+        <v>5393.2922021165004</v>
       </c>
       <c r="D15" s="17">
         <f ca="1">D8-IF(D9&gt;0,D10,(-1)*D10)</f>
-        <v>8407.1906358091946</v>
+        <v>10543.370975790327</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -29773,15 +29773,15 @@
       </c>
       <c r="B16" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>28459.253348972859</v>
+        <v>28149.167408843747</v>
       </c>
       <c r="C16" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>53908.848049620166</v>
+        <v>51024.166278266253</v>
       </c>
       <c r="D16" s="17">
         <f t="shared" ref="D16" ca="1" si="0">_xlfn.NORM.INV(RAND(),D11,D12)</f>
-        <v>26730.111012471902</v>
+        <v>28002.464191982872</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -29791,19 +29791,19 @@
       </c>
       <c r="B18" s="9">
         <f ca="1">(B14+B15)*B16</f>
-        <v>260880439.90794617</v>
+        <v>190942706.33866152</v>
       </c>
       <c r="C18" s="9">
         <f ca="1">(C14+C15)*C16</f>
-        <v>437807131.15795082</v>
+        <v>334582683.79204857</v>
       </c>
       <c r="D18" s="9">
         <f ca="1">(D14+D15)*D16</f>
-        <v>309636084.46974468</v>
+        <v>337187199.10130167</v>
       </c>
       <c r="F18" s="30">
         <f ca="1">B18+C18+D18</f>
-        <v>1008323655.5356417</v>
+        <v>862712589.2320118</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
@@ -29824,7 +29824,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="30">
         <f ca="1">STDEV(F22:F129)</f>
-        <v>120418889.79371664</v>
+        <v>117862152.06529197</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="44" t="s">
@@ -29848,13 +29848,13 @@
       <c r="E20" s="4"/>
       <c r="F20" s="30">
         <f ca="1">AVERAGE(F22:F129)</f>
-        <v>855515667.48940611</v>
+        <v>870968609.03494859</v>
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
       <c r="I20" s="43">
         <f ca="1">100*F19/F20</f>
-        <v>14.0755914087579</v>
+        <v>13.532307690846137</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -29869,7 +29869,7 @@
       </c>
       <c r="F22" s="30">
         <f ca="1">F18</f>
-        <v>1008323655.5356417</v>
+        <v>862712589.2320118</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -29880,7 +29880,7 @@
       </c>
       <c r="F23" s="30">
         <f t="dataTable" ref="F23:F129" dt2D="0" dtr="0" r1="F21" ca="1"/>
-        <v>903534001.95091915</v>
+        <v>817553894.97571301</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -29890,7 +29890,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="30">
-        <v>792902199.92302752</v>
+        <v>818017845.28486848</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -29900,7 +29900,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="30">
-        <v>832841980.4214865</v>
+        <v>589906627.18497348</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -29910,7 +29910,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="30">
-        <v>984346902.18473399</v>
+        <v>900017889.99780905</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -29920,7 +29920,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="30">
-        <v>909456896.56932509</v>
+        <v>818899541.40282702</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -29930,7 +29930,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="30">
-        <v>774839835.27776015</v>
+        <v>744633670.5846597</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -29940,7 +29940,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="30">
-        <v>758770281.34428668</v>
+        <v>594258402.09167624</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -29950,7 +29950,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="30">
-        <v>871544882.22674251</v>
+        <v>1004362891.2165384</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -29960,7 +29960,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="30">
-        <v>1064415713.8197532</v>
+        <v>1058420927.4595196</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -29970,7 +29970,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="30">
-        <v>1076783469.5352507</v>
+        <v>891276859.63806105</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -29980,7 +29980,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="30">
-        <v>934938393.08936024</v>
+        <v>903316170.24323201</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -29990,7 +29990,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="30">
-        <v>932460866.80227578</v>
+        <v>805452068.15638423</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -30000,7 +30000,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="30">
-        <v>695626963.27120662</v>
+        <v>587955708.19643486</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -30010,7 +30010,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="30">
-        <v>891735290.94455373</v>
+        <v>781937649.17060852</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -30020,7 +30020,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="30">
-        <v>874168260.28769445</v>
+        <v>689939461.95189738</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -30030,7 +30030,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="30">
-        <v>984935423.49328399</v>
+        <v>849432690.91141272</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -30040,7 +30040,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="30">
-        <v>936668767.5992533</v>
+        <v>773991661.94266009</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -30050,7 +30050,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="30">
-        <v>728638129.40665126</v>
+        <v>745822250.60047269</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -30060,7 +30060,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="30">
-        <v>849586054.34294605</v>
+        <v>926089928.44128823</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -30070,7 +30070,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="30">
-        <v>826748331.7597692</v>
+        <v>841023859.61932206</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -30080,7 +30080,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="30">
-        <v>786132089.67630482</v>
+        <v>802300855.5978744</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -30090,7 +30090,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="30">
-        <v>755085941.71760654</v>
+        <v>773472672.66766715</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -30100,7 +30100,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="30">
-        <v>974192514.4489361</v>
+        <v>928647832.34147322</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -30110,7 +30110,7 @@
         <v>25</v>
       </c>
       <c r="F46" s="30">
-        <v>847644871.3890245</v>
+        <v>815344296.22103882</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -30120,7 +30120,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="30">
-        <v>731683711.91559875</v>
+        <v>747220703.19921672</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -30130,7 +30130,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="30">
-        <v>912198637.22286284</v>
+        <v>936518624.77376795</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -30140,7 +30140,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="30">
-        <v>901571760.32205653</v>
+        <v>1038186145.8935637</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -30150,7 +30150,7 @@
         <v>29</v>
       </c>
       <c r="F50" s="30">
-        <v>832435274.86516154</v>
+        <v>1007857612.3814845</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -30160,7 +30160,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="30">
-        <v>713135964.73392034</v>
+        <v>1017734171.9816761</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -30170,7 +30170,7 @@
         <v>31</v>
       </c>
       <c r="F52" s="30">
-        <v>810132664.73218346</v>
+        <v>860491561.94220936</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -30180,7 +30180,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="30">
-        <v>924793075.03683746</v>
+        <v>730420877.02356267</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -30190,7 +30190,7 @@
         <v>33</v>
       </c>
       <c r="F54" s="30">
-        <v>854821266.95784855</v>
+        <v>917225876.34758043</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -30200,7 +30200,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="30">
-        <v>770736879.80153155</v>
+        <v>783548206.666412</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -30210,7 +30210,7 @@
         <v>35</v>
       </c>
       <c r="F56" s="30">
-        <v>904138862.89558494</v>
+        <v>817529851.32009161</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -30220,7 +30220,7 @@
         <v>36</v>
       </c>
       <c r="F57" s="30">
-        <v>632601708.75618887</v>
+        <v>983528088.80205584</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -30230,7 +30230,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="30">
-        <v>942386463.33960319</v>
+        <v>1121057687.4480546</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -30240,7 +30240,7 @@
         <v>38</v>
       </c>
       <c r="F59" s="30">
-        <v>992181983.12958431</v>
+        <v>784529044.0194869</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -30250,7 +30250,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="30">
-        <v>918535158.41503215</v>
+        <v>848514319.3111546</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -30260,7 +30260,7 @@
         <v>40</v>
       </c>
       <c r="F61" s="30">
-        <v>1072720171.6419894</v>
+        <v>815856265.98335564</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -30270,7 +30270,7 @@
         <v>41</v>
       </c>
       <c r="F62" s="30">
-        <v>877755007.17838144</v>
+        <v>930861691.8633889</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -30280,7 +30280,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="30">
-        <v>702029948.21806121</v>
+        <v>776165342.41054296</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -30290,7 +30290,7 @@
         <v>43</v>
       </c>
       <c r="F64" s="30">
-        <v>1026894103.4582825</v>
+        <v>1006933377.1404247</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -30300,7 +30300,7 @@
         <v>44</v>
       </c>
       <c r="F65" s="30">
-        <v>817921954.94914174</v>
+        <v>925729210.33779287</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -30310,7 +30310,7 @@
         <v>45</v>
       </c>
       <c r="F66" s="30">
-        <v>678667202.07211816</v>
+        <v>973272422.27196777</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -30320,7 +30320,7 @@
         <v>46</v>
       </c>
       <c r="F67" s="30">
-        <v>691191002.10589957</v>
+        <v>927846767.2480917</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -30330,7 +30330,7 @@
         <v>47</v>
       </c>
       <c r="F68" s="30">
-        <v>900271793.15427053</v>
+        <v>1021763623.3820503</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -30340,7 +30340,7 @@
         <v>48</v>
       </c>
       <c r="F69" s="30">
-        <v>812733771.87712729</v>
+        <v>929812530.86470199</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -30350,7 +30350,7 @@
         <v>49</v>
       </c>
       <c r="F70" s="30">
-        <v>755967958.2736038</v>
+        <v>1007498961.1408989</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -30360,7 +30360,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="30">
-        <v>1204745136.1244483</v>
+        <v>939463284.22492695</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -30370,7 +30370,7 @@
         <v>51</v>
       </c>
       <c r="F72" s="30">
-        <v>930760252.3245194</v>
+        <v>857881226.78421307</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -30380,7 +30380,7 @@
         <v>52</v>
       </c>
       <c r="F73" s="30">
-        <v>960438723.23403502</v>
+        <v>657488910.09599137</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -30390,7 +30390,7 @@
         <v>53</v>
       </c>
       <c r="F74" s="30">
-        <v>621320857.78272223</v>
+        <v>889836664.96548367</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -30400,7 +30400,7 @@
         <v>54</v>
       </c>
       <c r="F75" s="30">
-        <v>942037428.72525644</v>
+        <v>975627297.96384525</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
@@ -30410,7 +30410,7 @@
         <v>55</v>
       </c>
       <c r="F76" s="30">
-        <v>990221543.20251107</v>
+        <v>1004031862.3990505</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
@@ -30420,7 +30420,7 @@
         <v>56</v>
       </c>
       <c r="F77" s="30">
-        <v>927778176.2038821</v>
+        <v>790262947.21014464</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
@@ -30430,7 +30430,7 @@
         <v>57</v>
       </c>
       <c r="F78" s="30">
-        <v>957505987.53647244</v>
+        <v>791207983.32645345</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
@@ -30440,7 +30440,7 @@
         <v>58</v>
       </c>
       <c r="F79" s="30">
-        <v>708926257.30736506</v>
+        <v>893990236.00094616</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -30450,7 +30450,7 @@
         <v>59</v>
       </c>
       <c r="F80" s="30">
-        <v>863389386.52997267</v>
+        <v>846232938.70996702</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -30460,7 +30460,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="30">
-        <v>827921242.73809218</v>
+        <v>729131125.36118639</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -30470,7 +30470,7 @@
         <v>61</v>
       </c>
       <c r="F82" s="30">
-        <v>744362817.28342462</v>
+        <v>992653570.0073216</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -30480,7 +30480,7 @@
         <v>62</v>
       </c>
       <c r="F83" s="30">
-        <v>1063062416.7102467</v>
+        <v>972562104.2107079</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -30490,7 +30490,7 @@
         <v>63</v>
       </c>
       <c r="F84" s="30">
-        <v>807509389.75445032</v>
+        <v>972696949.79073882</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -30500,7 +30500,7 @@
         <v>64</v>
       </c>
       <c r="F85" s="30">
-        <v>915639448.47397208</v>
+        <v>658264839.65018404</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -30510,7 +30510,7 @@
         <v>65</v>
       </c>
       <c r="F86" s="30">
-        <v>688934494.39805722</v>
+        <v>819960922.70421505</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
@@ -30520,7 +30520,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="30">
-        <v>816066091.15677714</v>
+        <v>972995092.85547519</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
@@ -30530,7 +30530,7 @@
         <v>67</v>
       </c>
       <c r="F88" s="30">
-        <v>962202777.61650884</v>
+        <v>884856471.56369805</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
@@ -30540,7 +30540,7 @@
         <v>68</v>
       </c>
       <c r="F89" s="30">
-        <v>730044088.6515907</v>
+        <v>825607932.37336087</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -30550,7 +30550,7 @@
         <v>69</v>
       </c>
       <c r="F90" s="30">
-        <v>741445367.53826594</v>
+        <v>777507256.17068934</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
@@ -30560,7 +30560,7 @@
         <v>70</v>
       </c>
       <c r="F91" s="30">
-        <v>560824372.20094562</v>
+        <v>660326228.40760255</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -30570,7 +30570,7 @@
         <v>71</v>
       </c>
       <c r="F92" s="30">
-        <v>849265080.86330414</v>
+        <v>1037796115.6823668</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -30580,7 +30580,7 @@
         <v>72</v>
       </c>
       <c r="F93" s="30">
-        <v>838958757.67785275</v>
+        <v>886942571.20479119</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -30590,7 +30590,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="30">
-        <v>785663147.01521802</v>
+        <v>1051656273.8188651</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -30600,7 +30600,7 @@
         <v>74</v>
       </c>
       <c r="F95" s="30">
-        <v>950354856.51192486</v>
+        <v>1048914732.7267728</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -30610,7 +30610,7 @@
         <v>75</v>
       </c>
       <c r="F96" s="30">
-        <v>729495461.19377708</v>
+        <v>873596630.48751783</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -30620,7 +30620,7 @@
         <v>76</v>
       </c>
       <c r="F97" s="30">
-        <v>769912869.52197194</v>
+        <v>895149208.98993194</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
@@ -30630,7 +30630,7 @@
         <v>77</v>
       </c>
       <c r="F98" s="30">
-        <v>920542505.37809241</v>
+        <v>1090837615.4101186</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -30640,7 +30640,7 @@
         <v>78</v>
       </c>
       <c r="F99" s="30">
-        <v>819247393.21040034</v>
+        <v>1204665746.5504992</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -30650,7 +30650,7 @@
         <v>79</v>
       </c>
       <c r="F100" s="30">
-        <v>961131311.4264009</v>
+        <v>959942269.06428051</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -30660,7 +30660,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="30">
-        <v>668661623.60337377</v>
+        <v>924476381.41506457</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
@@ -30670,7 +30670,7 @@
         <v>81</v>
       </c>
       <c r="F102" s="30">
-        <v>757775969.43912995</v>
+        <v>994271548.522506</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
@@ -30680,7 +30680,7 @@
         <v>82</v>
       </c>
       <c r="F103" s="30">
-        <v>828675879.96993661</v>
+        <v>892089646.7259481</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
@@ -30690,7 +30690,7 @@
         <v>83</v>
       </c>
       <c r="F104" s="30">
-        <v>863855203.01412845</v>
+        <v>946134411.32498789</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
@@ -30700,7 +30700,7 @@
         <v>84</v>
       </c>
       <c r="F105" s="30">
-        <v>614831944.35154724</v>
+        <v>739940558.87880814</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -30710,7 +30710,7 @@
         <v>85</v>
       </c>
       <c r="F106" s="30">
-        <v>889916357.7611177</v>
+        <v>972982247.67054975</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
@@ -30720,7 +30720,7 @@
         <v>86</v>
       </c>
       <c r="F107" s="30">
-        <v>789524938.04101157</v>
+        <v>883603211.19153953</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
@@ -30730,7 +30730,7 @@
         <v>87</v>
       </c>
       <c r="F108" s="30">
-        <v>661168617.77737343</v>
+        <v>885406637.92941737</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
@@ -30740,7 +30740,7 @@
         <v>88</v>
       </c>
       <c r="F109" s="30">
-        <v>839892323.10842538</v>
+        <v>935759584.45845735</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -30750,7 +30750,7 @@
         <v>89</v>
       </c>
       <c r="F110" s="30">
-        <v>811769706.90958428</v>
+        <v>836198961.47990203</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -30760,7 +30760,7 @@
         <v>90</v>
       </c>
       <c r="F111" s="30">
-        <v>816350740.65173876</v>
+        <v>730610253.06810594</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
@@ -30770,7 +30770,7 @@
         <v>91</v>
       </c>
       <c r="F112" s="30">
-        <v>1038793042.8582373</v>
+        <v>873611939.39895451</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
@@ -30780,7 +30780,7 @@
         <v>92</v>
       </c>
       <c r="F113" s="30">
-        <v>814145185.78065777</v>
+        <v>956798268.75923467</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -30790,7 +30790,7 @@
         <v>93</v>
       </c>
       <c r="F114" s="30">
-        <v>969063300.35822678</v>
+        <v>844431477.6455164</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
@@ -30800,7 +30800,7 @@
         <v>94</v>
       </c>
       <c r="F115" s="30">
-        <v>833209274.59664726</v>
+        <v>798433945.58515239</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -30810,7 +30810,7 @@
         <v>95</v>
       </c>
       <c r="F116" s="30">
-        <v>715067994.56269276</v>
+        <v>757348859.96561348</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -30820,7 +30820,7 @@
         <v>96</v>
       </c>
       <c r="F117" s="30">
-        <v>907331330.36969948</v>
+        <v>789321898.16855335</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
@@ -30830,7 +30830,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="30">
-        <v>990721074.47085738</v>
+        <v>939697847.52450669</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -30840,7 +30840,7 @@
         <v>98</v>
       </c>
       <c r="F119" s="30">
-        <v>904323989.67488766</v>
+        <v>903370433.48034108</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -30850,7 +30850,7 @@
         <v>99</v>
       </c>
       <c r="F120" s="30">
-        <v>860783111.60454392</v>
+        <v>689591761.69056976</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
@@ -30860,7 +30860,7 @@
         <v>100</v>
       </c>
       <c r="F121" s="30">
-        <v>948653159.62240338</v>
+        <v>719570692.31791091</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -30870,7 +30870,7 @@
         <v>101</v>
       </c>
       <c r="F122" s="30">
-        <v>928811436.24173427</v>
+        <v>867359456.19005668</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
@@ -30880,7 +30880,7 @@
         <v>102</v>
       </c>
       <c r="F123" s="30">
-        <v>1080562823.7084455</v>
+        <v>835730779.08198738</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -30890,7 +30890,7 @@
         <v>103</v>
       </c>
       <c r="F124" s="30">
-        <v>980804951.95167482</v>
+        <v>629502568.39285874</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
@@ -30900,7 +30900,7 @@
         <v>104</v>
       </c>
       <c r="F125" s="30">
-        <v>831144666.0750165</v>
+        <v>935403227.51227069</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
@@ -30910,7 +30910,7 @@
         <v>105</v>
       </c>
       <c r="F126" s="30">
-        <v>1084878143.8089387</v>
+        <v>972258053.78229141</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -30920,7 +30920,7 @@
         <v>106</v>
       </c>
       <c r="F127" s="30">
-        <v>637887456.52526975</v>
+        <v>806952283.21133041</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
@@ -30930,7 +30930,7 @@
         <v>107</v>
       </c>
       <c r="F128" s="30">
-        <v>710827149.69426429</v>
+        <v>874690583.79948115</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -30940,7 +30940,7 @@
         <v>108</v>
       </c>
       <c r="F129" s="30">
-        <v>852725011.9611733</v>
+        <v>932084039.00722158</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>

--- a/Income_accounting_Mufindi.xlsx
+++ b/Income_accounting_Mufindi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hawkj\Documents\GitHub\Tanzania Dairy Mitigation Assessment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407EEDAC-89E1-44CD-B12B-370762E62414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC173BA2-1BBD-459C-9423-28CABA58F001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{64B7B528-6AFC-453E-A699-FBF307BA8192}"/>
   </bookViews>
@@ -909,28 +909,28 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1947,7 +1947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14480F15-C477-4BA6-893B-82C05841FF6B}">
   <dimension ref="A1:L561"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11:F11"/>
     </sheetView>
   </sheetViews>
@@ -1962,13 +1962,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1990,16 +1990,16 @@
       <c r="A3" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="105">
+      <c r="C3" s="103">
         <f>G3</f>
         <v>0.55747885382429763</v>
       </c>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105">
+      <c r="D3" s="103"/>
+      <c r="E3" s="103">
         <f>Dairy_Income_Baseline!B3</f>
         <v>0.54509043485042441</v>
       </c>
-      <c r="F3" s="105"/>
+      <c r="F3" s="103"/>
       <c r="G3" s="76">
         <f>[1]All!$L$7*L16</f>
         <v>0.55747885382429763</v>
@@ -2009,16 +2009,16 @@
       <c r="A4" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="101">
+      <c r="C4" s="104">
         <f>[2]prod_herd_data!F39</f>
         <v>2760.7763092360706</v>
       </c>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101">
+      <c r="D4" s="104"/>
+      <c r="E4" s="104">
         <f>[2]prod_herd_data!F38</f>
         <v>711.5958362201842</v>
       </c>
-      <c r="F4" s="101"/>
+      <c r="F4" s="104"/>
       <c r="G4" s="75">
         <f>[2]prod_herd_data!F39</f>
         <v>2760.7763092360706</v>
@@ -2028,16 +2028,16 @@
       <c r="A5" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="101">
+      <c r="C5" s="104">
         <f>C4*C3*(12*L11-9)/(12*L11)</f>
         <v>1442.882261754562</v>
       </c>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101">
+      <c r="D5" s="104"/>
+      <c r="E5" s="104">
         <f>E4*E3</f>
         <v>387.88408380301161</v>
       </c>
-      <c r="F5" s="101"/>
+      <c r="F5" s="104"/>
       <c r="G5" s="75">
         <f>G4*G3</f>
         <v>1539.0744125381993</v>
@@ -2062,16 +2062,16 @@
       <c r="A8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="101">
+      <c r="C8" s="104">
         <f>(([2]concentrate_feeding!$F$23*L29)+([2]concentrate_feeding!$F$24*L30))</f>
         <v>330.9357539306377</v>
       </c>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101">
+      <c r="D8" s="104"/>
+      <c r="E8" s="104">
         <f>(([2]concentrate_feeding!$F$17*L29)+([2]concentrate_feeding!$F$18*L30))</f>
         <v>86.361328970444447</v>
       </c>
-      <c r="F8" s="101"/>
+      <c r="F8" s="104"/>
       <c r="G8" s="75">
         <f>(([2]concentrate_feeding!$F$20*L29)+([2]concentrate_feeding!$F$21*L30))</f>
         <v>330.9357539306377</v>
@@ -2081,16 +2081,16 @@
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="101">
+      <c r="C9" s="104">
         <f>Dairy_Income_Baseline!D9</f>
         <v>13.537859909593482</v>
       </c>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101">
+      <c r="D9" s="104"/>
+      <c r="E9" s="104">
         <f>Dairy_Income_Baseline!B9</f>
         <v>16.603035738180687</v>
       </c>
-      <c r="F9" s="101"/>
+      <c r="F9" s="104"/>
       <c r="G9" s="75">
         <f>Dairy_Income_Baseline!D9</f>
         <v>13.537859909593482</v>
@@ -2100,16 +2100,16 @@
       <c r="A10" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="101">
+      <c r="C10" s="104">
         <f>Dairy_Income_Baseline!D10</f>
         <v>15.453594802460485</v>
       </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101">
+      <c r="D10" s="104"/>
+      <c r="E10" s="104">
         <f>Dairy_Income_Baseline!B10</f>
         <v>15.453594802460485</v>
       </c>
-      <c r="F10" s="101"/>
+      <c r="F10" s="104"/>
       <c r="G10" s="75">
         <f>Dairy_Income_Baseline!D10</f>
         <v>15.453594802460485</v>
@@ -2122,16 +2122,16 @@
       <c r="A11" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="101">
+      <c r="C11" s="104">
         <f>Dairy_Income_Baseline!D11</f>
         <v>1.6603035738180687</v>
       </c>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101">
+      <c r="D11" s="104"/>
+      <c r="E11" s="104">
         <f>Dairy_Income_Baseline!B11</f>
         <v>0.38314697857340047</v>
       </c>
-      <c r="F11" s="101"/>
+      <c r="F11" s="104"/>
       <c r="G11" s="75">
         <f>Dairy_Income_Baseline!D11</f>
         <v>1.6603035738180687</v>
@@ -2155,16 +2155,16 @@
       <c r="A13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="101">
+      <c r="C13" s="104">
         <f>SUM(C8:C11)</f>
         <v>361.58751221650971</v>
       </c>
-      <c r="D13" s="101"/>
-      <c r="E13" s="101">
+      <c r="D13" s="104"/>
+      <c r="E13" s="104">
         <f>SUM(E8:E11)</f>
         <v>118.80110648965903</v>
       </c>
-      <c r="F13" s="101"/>
+      <c r="F13" s="104"/>
       <c r="G13" s="75">
         <f>SUM(G8:G11)</f>
         <v>361.58751221650971</v>
@@ -2188,26 +2188,26 @@
       <c r="A15" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C15" s="101">
+      <c r="C15" s="104">
         <f>L13/L11</f>
         <v>33.141666666666666</v>
       </c>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101">
+      <c r="D15" s="104"/>
+      <c r="E15" s="104">
         <f>Dairy_Income_Baseline!B12</f>
         <v>0</v>
       </c>
-      <c r="F15" s="101"/>
+      <c r="F15" s="104"/>
       <c r="G15" s="82">
         <f>Dairy_Income_Baseline!D12</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="101"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="101"/>
-      <c r="F16" s="101"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
       <c r="G16" s="75"/>
       <c r="K16" t="s">
         <v>96</v>
@@ -2218,20 +2218,20 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="104"/>
       <c r="G17" s="75"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C18" s="103" t="s">
+      <c r="C18" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="103"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
       <c r="K18" s="2" t="s">
         <v>79</v>
       </c>
@@ -2240,16 +2240,16 @@
       <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="101">
+      <c r="C19" s="104">
         <f>L35*L16</f>
         <v>286.58935981411065</v>
       </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101">
+      <c r="D19" s="104"/>
+      <c r="E19" s="104">
         <f>L35*L16</f>
         <v>286.58935981411065</v>
       </c>
-      <c r="F19" s="101"/>
+      <c r="F19" s="104"/>
       <c r="G19" s="50">
         <f>L37*L16</f>
         <v>241.57020027586674</v>
@@ -2266,16 +2266,16 @@
       <c r="A20" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="101">
+      <c r="C20" s="104">
         <f>(((1/1000)*(1/L23)*[2]feeding_change_data!$F$25/L32))</f>
         <v>9.3507093735687649E-2</v>
       </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101">
+      <c r="D20" s="104"/>
+      <c r="E20" s="104">
         <f>(((1/1000)*(1/L23)*[2]feeding_change_data!$F$19/L32))</f>
         <v>3.7294666446903491E-2</v>
       </c>
-      <c r="F20" s="101"/>
+      <c r="F20" s="104"/>
       <c r="G20" s="50">
         <f>(((1/1000)*(1/L23)*[2]feeding_change_data!$F$22/L32))</f>
         <v>7.6722961159293057E-2</v>
@@ -2285,16 +2285,16 @@
       <c r="A21" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="101">
+      <c r="C21" s="104">
         <f>(((1/1000)*(1/L24)*[2]feeding_change_data_pasture!$F$25/L33))</f>
         <v>8.468543212860484E-2</v>
       </c>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101">
+      <c r="D21" s="104"/>
+      <c r="E21" s="104">
         <f>(((1/1000)*(1/L24)*[2]feeding_change_data_pasture!$F$19/L33))</f>
         <v>-1.9654796350922508E-2</v>
       </c>
-      <c r="F21" s="101"/>
+      <c r="F21" s="104"/>
       <c r="G21" s="50">
         <f>(((1/1000)*(1/L24)*[2]feeding_change_data_pasture!$F$22/L33))</f>
         <v>-6.9536395371996339E-3</v>
@@ -2310,16 +2310,16 @@
       <c r="A22" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="101">
+      <c r="C22" s="104">
         <f>SUM(C20:C21)</f>
         <v>0.17819252586429249</v>
       </c>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101">
+      <c r="D22" s="104"/>
+      <c r="E22" s="104">
         <f>SUM(E20:E21)</f>
         <v>1.7639870095980982E-2</v>
       </c>
-      <c r="F22" s="101"/>
+      <c r="F22" s="104"/>
       <c r="G22" s="57">
         <f t="shared" ref="G22" si="0">SUM(G20:H21)</f>
         <v>6.9769321622093428E-2</v>
@@ -2329,16 +2329,16 @@
       <c r="A23" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="101">
+      <c r="C23" s="104">
         <f>L19*(C20+C21)</f>
         <v>4.9893907242001898</v>
       </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101">
+      <c r="D23" s="104"/>
+      <c r="E23" s="104">
         <f>L19*(E20+E21)</f>
         <v>0.49391636268746753</v>
       </c>
-      <c r="F23" s="101"/>
+      <c r="F23" s="104"/>
       <c r="G23" s="50">
         <f>L19*(G20+G21)</f>
         <v>1.953541005418616</v>
@@ -2355,16 +2355,16 @@
       <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="101">
+      <c r="C24" s="104">
         <f>(C20+C21)*C19+C23</f>
         <v>56.057472635307128</v>
       </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="101">
+      <c r="D24" s="104"/>
+      <c r="E24" s="104">
         <f>(E20+E21)*E19+E23</f>
         <v>5.5493154406987317</v>
       </c>
-      <c r="F24" s="101"/>
+      <c r="F24" s="104"/>
       <c r="G24" s="50">
         <f>(G20+G21)*G19+G23</f>
         <v>18.807730002779085</v>
@@ -2401,16 +2401,16 @@
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="101">
+      <c r="C27" s="104">
         <f>C5-C13-C15</f>
         <v>1048.1530828713855</v>
       </c>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101">
+      <c r="D27" s="104"/>
+      <c r="E27" s="104">
         <f>E5-E13</f>
         <v>269.08297731335256</v>
       </c>
-      <c r="F27" s="101"/>
+      <c r="F27" s="104"/>
       <c r="G27" s="75">
         <f>G5-G13</f>
         <v>1177.4869003216895</v>
@@ -2428,16 +2428,16 @@
       <c r="A28" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="101">
+      <c r="C28" s="104">
         <f>C27-[5]NPV_Baseline!C33</f>
         <v>945.77110352003592</v>
       </c>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101">
+      <c r="D28" s="104"/>
+      <c r="E28" s="104">
         <f>E27-[5]NPV_Baseline!E33</f>
         <v>109.47235241853747</v>
       </c>
-      <c r="F28" s="101"/>
+      <c r="F28" s="104"/>
       <c r="G28" s="50">
         <f>G27-[5]NPV_Baseline!E33</f>
         <v>1017.8762754268744</v>
@@ -2457,15 +2457,15 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="103" t="s">
+      <c r="A30" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="103"/>
-      <c r="C30" s="103"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
       <c r="K30" t="s">
         <v>29</v>
       </c>
@@ -2489,16 +2489,16 @@
       <c r="A32" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="104">
+      <c r="C32" s="105">
         <f>Dairy_Income_Baseline!D36</f>
         <v>0.11494409357202014</v>
       </c>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104">
+      <c r="D32" s="105"/>
+      <c r="E32" s="105">
         <f>Dairy_Income_Baseline!B36</f>
         <v>7.6629395714680082E-2</v>
       </c>
-      <c r="F32" s="104"/>
+      <c r="F32" s="105"/>
       <c r="G32" s="49">
         <f>Dairy_Income_Baseline!D36</f>
         <v>0.11494409357202014</v>
@@ -2526,16 +2526,16 @@
       <c r="A34" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="101">
+      <c r="C34" s="104">
         <f>Dairy_Income_Baseline!D38</f>
         <v>156.45168291747186</v>
       </c>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101">
+      <c r="D34" s="104"/>
+      <c r="E34" s="104">
         <f>Dairy_Income_Baseline!B38</f>
         <v>92.082990517140573</v>
       </c>
-      <c r="F34" s="101"/>
+      <c r="F34" s="104"/>
       <c r="G34" s="28">
         <f>Dairy_Income_Baseline!D38</f>
         <v>156.45168291747186</v>
@@ -2545,16 +2545,16 @@
       <c r="A35" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="101">
+      <c r="C35" s="104">
         <f>Dairy_Income_Baseline!D39</f>
         <v>99.873645748133058</v>
       </c>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101">
+      <c r="D35" s="104"/>
+      <c r="E35" s="104">
         <f>Dairy_Income_Baseline!B39</f>
         <v>92.210706176665042</v>
       </c>
-      <c r="F35" s="101"/>
+      <c r="F35" s="104"/>
       <c r="G35" s="28">
         <f>Dairy_Income_Baseline!D39</f>
         <v>99.873645748133058</v>
@@ -2571,16 +2571,16 @@
       <c r="A36" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="101">
+      <c r="C36" s="104">
         <f>Dairy_Income_Baseline!D40</f>
         <v>12.643850292922215</v>
       </c>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101">
+      <c r="D36" s="104"/>
+      <c r="E36" s="104">
         <f>Dairy_Income_Baseline!B40</f>
         <v>32.695208838263504</v>
       </c>
-      <c r="F36" s="101"/>
+      <c r="F36" s="104"/>
       <c r="G36" s="28">
         <f>Dairy_Income_Baseline!D40</f>
         <v>12.643850292922215</v>
@@ -2597,16 +2597,16 @@
       <c r="A37" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="101">
+      <c r="C37" s="104">
         <f>Dairy_Income_Baseline!D41</f>
         <v>4.853195061929739</v>
       </c>
-      <c r="D37" s="101"/>
-      <c r="E37" s="101">
+      <c r="D37" s="104"/>
+      <c r="E37" s="104">
         <f>Dairy_Income_Baseline!B41</f>
         <v>3.0651758285872037</v>
       </c>
-      <c r="F37" s="101"/>
+      <c r="F37" s="104"/>
       <c r="G37" s="28">
         <f>Dairy_Income_Baseline!D41</f>
         <v>4.853195061929739</v>
@@ -2623,16 +2623,16 @@
       <c r="A38" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="101">
+      <c r="C38" s="104">
         <f>Dairy_Income_Baseline!D42</f>
         <v>0</v>
       </c>
-      <c r="D38" s="101"/>
-      <c r="E38" s="101">
+      <c r="D38" s="104"/>
+      <c r="E38" s="104">
         <f>Dairy_Income_Baseline!B42</f>
         <v>0</v>
       </c>
-      <c r="F38" s="101"/>
+      <c r="F38" s="104"/>
       <c r="G38" s="28">
         <f>Dairy_Income_Baseline!D42</f>
         <v>0</v>
@@ -2649,16 +2649,16 @@
       <c r="A39" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="101">
+      <c r="C39" s="104">
         <f>(C20*L26+C21*L27)/100</f>
         <v>2.3950118455897541E-2</v>
       </c>
-      <c r="D39" s="101"/>
-      <c r="E39" s="101">
+      <c r="D39" s="104"/>
+      <c r="E39" s="104">
         <f>(E20*L26+E21*L27)/100</f>
         <v>-1.1338592866667401E-3</v>
       </c>
-      <c r="F39" s="101"/>
+      <c r="F39" s="104"/>
       <c r="G39" s="28">
         <f>(G20*L26+G21*L27)/100</f>
         <v>4.3634941795070523E-3</v>
@@ -2668,16 +2668,16 @@
       <c r="A40" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="101">
+      <c r="C40" s="104">
         <f>C19*L36</f>
         <v>252.98810305730544</v>
       </c>
-      <c r="D40" s="101"/>
-      <c r="E40" s="101">
+      <c r="D40" s="104"/>
+      <c r="E40" s="104">
         <f>E19*L36</f>
         <v>252.98810305730544</v>
       </c>
-      <c r="F40" s="101"/>
+      <c r="F40" s="104"/>
       <c r="G40" s="28">
         <f>G19*L38</f>
         <v>283.00087608280137</v>
@@ -2690,51 +2690,51 @@
       <c r="F41" s="102"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B42" s="103" t="s">
+      <c r="B42" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
+      <c r="C42" s="101"/>
+      <c r="D42" s="101"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="101"/>
+      <c r="G42" s="101"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="104">
+      <c r="C43" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),C3,C32)</f>
-        <v>0.42399636891665482</v>
-      </c>
-      <c r="D43" s="104"/>
-      <c r="E43" s="104">
+        <v>0.65077305726342771</v>
+      </c>
+      <c r="D43" s="105"/>
+      <c r="E43" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),E3,E32)</f>
-        <v>0.58503067592307489</v>
-      </c>
-      <c r="F43" s="104"/>
+        <v>0.39519148690816691</v>
+      </c>
+      <c r="F43" s="105"/>
       <c r="G43" s="48">
         <f ca="1">_xlfn.NORM.INV(RAND(),G3,G32)</f>
-        <v>0.6007417924522126</v>
+        <v>0.42122325685233786</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="105">
+      <c r="C44" s="103">
         <f ca="1">_xlfn.NORM.INV(RAND(),C4,C4*L21)</f>
-        <v>3572.6317610768942</v>
-      </c>
-      <c r="D44" s="105"/>
-      <c r="E44" s="104">
+        <v>2695.9276555461915</v>
+      </c>
+      <c r="D44" s="103"/>
+      <c r="E44" s="105">
         <f ca="1">_xlfn.NORM.INV(RAND(),E4,E4*L21)</f>
-        <v>540.08409726524587</v>
-      </c>
-      <c r="F44" s="104"/>
+        <v>785.21176554942406</v>
+      </c>
+      <c r="F44" s="105"/>
       <c r="G44" s="85">
         <f ca="1">_xlfn.NORM.INV(RAND(),G4,G4*L21)</f>
-        <v>2156.9405607383978</v>
+        <v>2347.0401460849721</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -2748,90 +2748,90 @@
       <c r="A46" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="101">
+      <c r="C46" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),C8,C34)</f>
-        <v>508.63690660045438</v>
-      </c>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101">
+        <v>207.62862180880921</v>
+      </c>
+      <c r="D46" s="104"/>
+      <c r="E46" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),E8,E34)</f>
-        <v>61.108605710393931</v>
-      </c>
-      <c r="F46" s="101"/>
+        <v>209.99356322299815</v>
+      </c>
+      <c r="F46" s="104"/>
       <c r="G46" s="50">
         <f ca="1">_xlfn.NORM.INV(RAND(),G8,G34)</f>
-        <v>210.82616892139464</v>
+        <v>587.97121748927566</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="101">
+      <c r="C47" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),C9,C35)</f>
-        <v>-90.705694971543835</v>
-      </c>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101">
+        <v>110.71562267884221</v>
+      </c>
+      <c r="D47" s="104"/>
+      <c r="E47" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),E9,E35)</f>
-        <v>73.351510090076061</v>
-      </c>
-      <c r="F47" s="101"/>
+        <v>31.987221817463436</v>
+      </c>
+      <c r="F47" s="104"/>
       <c r="G47" s="50">
         <f ca="1">_xlfn.NORM.INV(RAND(),G9,G35)</f>
-        <v>147.40967167679071</v>
+        <v>-61.751609399388443</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="101">
+      <c r="C48" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),C10,C36)</f>
-        <v>8.5956048400924736</v>
-      </c>
-      <c r="D48" s="101"/>
-      <c r="E48" s="101">
+        <v>13.37032973558153</v>
+      </c>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),E10,E36)</f>
-        <v>45.193067129776175</v>
-      </c>
-      <c r="F48" s="101"/>
+        <v>45.37280216349442</v>
+      </c>
+      <c r="F48" s="104"/>
       <c r="G48" s="50">
         <f ca="1">_xlfn.NORM.INV(RAND(),G10,G36)</f>
-        <v>10.416890911694972</v>
+        <v>15.760040454770394</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>13</v>
       </c>
-      <c r="C49" s="101">
+      <c r="C49" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C37)</f>
-        <v>-5.6343355706072424</v>
-      </c>
-      <c r="D49" s="101"/>
-      <c r="E49" s="101">
+        <v>-5.3731178798816099</v>
+      </c>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),E11,E37)</f>
-        <v>-3.316171410185337</v>
-      </c>
-      <c r="F49" s="101"/>
+        <v>2.2111843982956931</v>
+      </c>
+      <c r="F49" s="104"/>
       <c r="G49" s="50">
         <f ca="1">_xlfn.NORM.INV(RAND(),G11,G37)</f>
-        <v>0.36055388318037496</v>
+        <v>-0.4416600380814335</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="101">
+      <c r="C50" s="104">
         <v>1E-4</v>
       </c>
-      <c r="D50" s="101"/>
-      <c r="E50" s="101">
+      <c r="D50" s="104"/>
+      <c r="E50" s="104">
         <v>1E-4</v>
       </c>
-      <c r="F50" s="101"/>
+      <c r="F50" s="104"/>
       <c r="G50" s="50">
         <v>1E-4</v>
       </c>
@@ -2840,137 +2840,137 @@
       <c r="A51" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="101">
+      <c r="C51" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),C20+C21,C39)</f>
-        <v>0.1375820143359533</v>
-      </c>
-      <c r="D51" s="101"/>
-      <c r="E51" s="101">
+        <v>0.18079941823873388</v>
+      </c>
+      <c r="D51" s="104"/>
+      <c r="E51" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),E20+ABS(E21),ABS(E39))</f>
-        <v>5.7694539596490943E-2</v>
-      </c>
-      <c r="F51" s="101"/>
+        <v>5.6869000749532495E-2</v>
+      </c>
+      <c r="F51" s="104"/>
       <c r="G51" s="50">
         <f ca="1">_xlfn.NORM.INV(RAND(),ABS(G20+G21),ABS(G39))</f>
-        <v>6.6566463500596765E-2</v>
+        <v>6.6479762970346107E-2</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="101">
+      <c r="C52" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),C19,C40)</f>
-        <v>627.72798943489988</v>
-      </c>
-      <c r="D52" s="101"/>
-      <c r="E52" s="101">
+        <v>381.8730691384186</v>
+      </c>
+      <c r="D52" s="104"/>
+      <c r="E52" s="104">
         <f ca="1">_xlfn.NORM.INV(RAND(),E19,E40)</f>
-        <v>570.41223470901059</v>
-      </c>
-      <c r="F52" s="101"/>
+        <v>155.70877122563854</v>
+      </c>
+      <c r="F52" s="104"/>
       <c r="G52" s="50">
         <f ca="1">_xlfn.NORM.INV(RAND(),G19,G40)</f>
-        <v>164.86503893711983</v>
+        <v>154.52904970788993</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C53" s="101"/>
-      <c r="D53" s="101"/>
-      <c r="E53" s="101"/>
-      <c r="F53" s="101"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="104"/>
       <c r="G53" s="50"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>21</v>
       </c>
-      <c r="C54" s="101">
+      <c r="C54" s="104">
         <f ca="1">SUM(C46:C50)</f>
-        <v>420.89258089839575</v>
-      </c>
-      <c r="D54" s="101"/>
-      <c r="E54" s="101">
+        <v>326.34155634335133</v>
+      </c>
+      <c r="D54" s="104"/>
+      <c r="E54" s="104">
         <f ca="1">SUM(E46:E50)</f>
-        <v>176.33711152006083</v>
-      </c>
-      <c r="F54" s="101"/>
+        <v>289.56487160225169</v>
+      </c>
+      <c r="F54" s="104"/>
       <c r="G54" s="50">
         <f ca="1">SUM(G46:G50)</f>
-        <v>369.01338539306067</v>
+        <v>541.53808850657617</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C55" s="101"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="101"/>
-      <c r="F55" s="101"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="104"/>
       <c r="G55" s="50"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="101">
+      <c r="C56" s="104">
         <f ca="1">C43*C44-C54</f>
-        <v>1093.8903132745213</v>
-      </c>
-      <c r="D56" s="101"/>
-      <c r="E56" s="101">
+        <v>1428.0955262174687</v>
+      </c>
+      <c r="D56" s="104"/>
+      <c r="E56" s="104">
         <f ca="1">E43*E44-E54</f>
-        <v>139.62865295832967</v>
-      </c>
-      <c r="F56" s="101"/>
+        <v>20.744133563012156</v>
+      </c>
+      <c r="F56" s="104"/>
       <c r="G56" s="83">
         <f ca="1">G43*G44-G54</f>
-        <v>926.75095327780514</v>
+        <v>447.08980579052263</v>
       </c>
       <c r="H56" s="84"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
-      <c r="C57" s="101"/>
-      <c r="D57" s="101"/>
-      <c r="E57" s="101"/>
-      <c r="F57" s="101"/>
+      <c r="C57" s="104"/>
+      <c r="D57" s="104"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="104"/>
       <c r="G57" s="50"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="101">
+      <c r="C58" s="104">
         <f ca="1">AVERAGE(C62:C561)</f>
-        <v>899.09088878954537</v>
-      </c>
-      <c r="D58" s="101"/>
-      <c r="E58" s="101">
+        <v>899.75929921543116</v>
+      </c>
+      <c r="D58" s="104"/>
+      <c r="E58" s="104">
         <f ca="1">AVERAGE(E62:E561)</f>
-        <v>6.5497029599674965</v>
-      </c>
-      <c r="F58" s="101"/>
+        <v>6.3119339211768626</v>
+      </c>
+      <c r="F58" s="104"/>
       <c r="G58" s="50">
         <f ca="1">AVERAGE(G62:G561)</f>
-        <v>946.38648716028831</v>
+        <v>945.42716486531367</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C59" s="101">
+      <c r="C59" s="104">
         <f ca="1">STDEVA(C62:C561)</f>
-        <v>314.80418002539551</v>
-      </c>
-      <c r="D59" s="101"/>
-      <c r="E59" s="101">
+        <v>315.57248265706437</v>
+      </c>
+      <c r="D59" s="104"/>
+      <c r="E59" s="104">
         <f t="shared" ref="E59" ca="1" si="1">STDEVA(E62:E561)</f>
-        <v>26.985901890880744</v>
-      </c>
-      <c r="F59" s="101"/>
+        <v>26.326698024237299</v>
+      </c>
+      <c r="F59" s="104"/>
       <c r="G59" s="50">
         <f ca="1">STDEVA(G62:G561)</f>
-        <v>285.11080289725788</v>
+        <v>285.98263700897837</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -2995,21 +2995,21 @@
       </c>
       <c r="C62" s="28">
         <f ca="1">C56</f>
-        <v>1093.8903132745213</v>
+        <v>1428.0955262174687</v>
       </c>
       <c r="D62">
         <v>1</v>
       </c>
       <c r="E62" s="28">
         <f ca="1">E56</f>
-        <v>139.62865295832967</v>
+        <v>20.744133563012156</v>
       </c>
       <c r="F62">
         <v>1</v>
       </c>
       <c r="G62" s="28">
         <f ca="1">G56</f>
-        <v>926.75095327780514</v>
+        <v>447.08980579052263</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -12994,6 +12994,99 @@
     </row>
   </sheetData>
   <mergeCells count="117">
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E54:F54"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -13018,99 +13111,6 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:F57"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E48:F48"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E47:F47"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13136,77 +13136,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="108" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106" t="s">
+      <c r="C2" s="108"/>
+      <c r="D2" s="108" t="s">
         <v>114</v>
       </c>
-      <c r="E2" s="106"/>
+      <c r="E2" s="108"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="105">
+      <c r="B3" s="103">
         <f>[1]All!$L$3*L17</f>
         <v>0.54509043485042441</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105">
+      <c r="C3" s="103"/>
+      <c r="D3" s="103">
         <f>[1]All!$L$4*L17</f>
         <v>0.55747885382429763</v>
       </c>
-      <c r="E3" s="105"/>
+      <c r="E3" s="103"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="105">
+      <c r="B4" s="103">
         <f>[2]prod_herd_data!F17</f>
         <v>300.56148880662164</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105">
+      <c r="C4" s="103"/>
+      <c r="D4" s="103">
         <f>[2]prod_herd_data!F18</f>
         <v>1672.7289168977238</v>
       </c>
-      <c r="E4" s="105"/>
+      <c r="E4" s="103"/>
     </row>
     <row r="5" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="105">
+      <c r="B5" s="103">
         <f>B4*B3</f>
         <v>163.83319263289235</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105">
+      <c r="C5" s="103"/>
+      <c r="D5" s="103">
         <f>D4*D3</f>
         <v>932.5109993509019</v>
       </c>
-      <c r="E5" s="105"/>
+      <c r="E5" s="103"/>
       <c r="K5" s="45"/>
     </row>
     <row r="6" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="102"/>
       <c r="C6" s="102"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
       <c r="K6" s="45"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -13215,54 +13215,54 @@
       </c>
       <c r="B7" s="102"/>
       <c r="C7" s="102"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="105">
+      <c r="B8" s="103">
         <f xml:space="preserve"> (([2]FEEDING_base!$J$17*L32)+([2]FEEDING_base!$J$18*L31))</f>
         <v>78.85461887370262</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105">
+      <c r="C8" s="103"/>
+      <c r="D8" s="103">
         <f>(([2]FEEDING_base!$J$23*L30)+([2]FEEDING_base!$J$24*L31))</f>
         <v>241.16030694690787</v>
       </c>
-      <c r="E8" s="105"/>
+      <c r="E8" s="103"/>
       <c r="H8" s="84"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="105">
+      <c r="B9" s="103">
         <f>[1]All!$P$3*L17</f>
         <v>16.603035738180687</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="105">
+      <c r="C9" s="103"/>
+      <c r="D9" s="103">
         <f>[1]All!$P$4*L17</f>
         <v>13.537859909593482</v>
       </c>
-      <c r="E9" s="105"/>
+      <c r="E9" s="103"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="105">
+      <c r="B10" s="103">
         <f>[1]All!$Q$4*L17</f>
         <v>15.453594802460485</v>
       </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105">
+      <c r="C10" s="103"/>
+      <c r="D10" s="103">
         <f>[1]All!$Q$4*L17</f>
         <v>15.453594802460485</v>
       </c>
-      <c r="E10" s="105"/>
+      <c r="E10" s="103"/>
       <c r="K10" s="2" t="str">
         <f>Dairy_Income_Roadmap!K10</f>
         <v>Basic income parameters</v>
@@ -13273,16 +13273,16 @@
       <c r="A11" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="105">
+      <c r="B11" s="103">
         <f>[1]All!$R$3*L17</f>
         <v>0.38314697857340047</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105">
+      <c r="C11" s="103"/>
+      <c r="D11" s="103">
         <f>[1]All!$R$4*L17</f>
         <v>1.6603035738180687</v>
       </c>
-      <c r="E11" s="105"/>
+      <c r="E11" s="103"/>
       <c r="K11" t="s">
         <v>90</v>
       </c>
@@ -13294,37 +13294,37 @@
       <c r="A12" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="105">
+      <c r="B12" s="103">
         <f>0*L17</f>
         <v>0</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105">
+      <c r="C12" s="103"/>
+      <c r="D12" s="103">
         <f>0*L17</f>
         <v>0</v>
       </c>
-      <c r="E12" s="105"/>
+      <c r="E12" s="103"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" s="102"/>
       <c r="C13" s="102"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="105"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="103"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="105">
+      <c r="B14" s="103">
         <f>SUM(B8:B12)</f>
         <v>111.29439639291719</v>
       </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105">
+      <c r="C14" s="103"/>
+      <c r="D14" s="103">
         <f>SUM(D8:D12)</f>
         <v>271.8120652327799</v>
       </c>
-      <c r="E14" s="105"/>
+      <c r="E14" s="103"/>
       <c r="K14" t="str">
         <f>[5]NPV_Roadmap!K14</f>
         <v>Price acquring new animal (USD/head)</v>
@@ -13337,20 +13337,20 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" s="102"/>
       <c r="C15" s="102"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="102"/>
       <c r="C16" s="102"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="103"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B17" s="102"/>
       <c r="C17" s="102"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
       <c r="K17" t="str">
         <f>Dairy_Income_Roadmap!K16</f>
         <v>Price deflator</v>
@@ -13372,16 +13372,16 @@
       <c r="A19" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="101">
+      <c r="B19" s="104">
         <f>L36*L17</f>
         <v>286.58935981411065</v>
       </c>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101">
+      <c r="C19" s="104"/>
+      <c r="D19" s="104">
         <f>L38*L17</f>
         <v>241.57020027586674</v>
       </c>
-      <c r="E19" s="101"/>
+      <c r="E19" s="104"/>
       <c r="K19" s="2" t="str">
         <f>[5]NPV_Roadmap!K24</f>
         <v>Cropping parameters</v>
@@ -13391,16 +13391,16 @@
       <c r="A20" t="s">
         <v>103</v>
       </c>
-      <c r="B20" s="101">
+      <c r="B20" s="104">
         <f>( [6]Sheet1!$QH$11*[2]feeding_change_data!$F$4+      [6]Sheet1!$QH$2*[2]feeding_change_data!$G$4)/([2]feeding_change_data!$F$4+[2]feeding_change_data!$G$4)</f>
         <v>19.866809639577287</v>
       </c>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101">
+      <c r="C20" s="104"/>
+      <c r="D20" s="104">
         <f>( [6]Sheet1!$QG$11*[2]feeding_change_data!$F$4+      [6]Sheet1!$QG$2*[2]feeding_change_data!$G$4)/([2]feeding_change_data!$F$4+[2]feeding_change_data!$G$4)</f>
         <v>183.51210225942458</v>
       </c>
-      <c r="E20" s="101"/>
+      <c r="E20" s="104"/>
       <c r="K20" t="str">
         <f>[5]NPV_Roadmap!K25</f>
         <v>Forage seeding cost (USD/ha/yr)</v>
@@ -13414,46 +13414,46 @@
       <c r="A21" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="104">
+      <c r="B21" s="105">
         <f>(((1/1000)*(1/L23)/L33))*B20</f>
         <v>2.0376215014951062E-3</v>
       </c>
-      <c r="C21" s="104"/>
-      <c r="D21" s="101">
+      <c r="C21" s="105"/>
+      <c r="D21" s="104">
         <f>(((1/1000)*(1/L23)/L33))*D20</f>
         <v>1.8821754077889701E-2</v>
       </c>
-      <c r="E21" s="101"/>
+      <c r="E21" s="104"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="101">
+      <c r="B22" s="104">
         <f>( [6]Sheet1!$QP$11*[2]feeding_change_data_pasture!$F$4+      [6]Sheet1!$QP$2*[2]feeding_change_data_pasture!$G$4)/([2]feeding_change_data_pasture!$F$4+[2]feeding_change_data_pasture!$G$4)</f>
         <v>57.294900274394081</v>
       </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101">
+      <c r="C22" s="104"/>
+      <c r="D22" s="104">
         <f>( [6]Sheet1!$QO$11*[2]feeding_change_data_pasture!$F$4+      [6]Sheet1!$QO$2*[2]feeding_change_data_pasture!$G$4)/([2]feeding_change_data_pasture!$F$4+[2]feeding_change_data_pasture!$G$4)</f>
         <v>248.36567251830056</v>
       </c>
-      <c r="E22" s="101"/>
+      <c r="E22" s="104"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>100</v>
       </c>
-      <c r="B23" s="104">
+      <c r="B23" s="105">
         <f>(((1/1000)*(1/L25)/L34))*B22</f>
         <v>2.2917960109757635E-2</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104">
+      <c r="C23" s="105"/>
+      <c r="D23" s="105">
         <f>(((1/1000)*(1/L25)/L34))*D22</f>
         <v>9.9346269007320229E-2</v>
       </c>
-      <c r="E23" s="104"/>
+      <c r="E23" s="105"/>
       <c r="K23" t="str">
         <f>[5]NPV_Roadmap!K28</f>
         <v>Use efficiency napier</v>
@@ -13467,31 +13467,31 @@
       <c r="A24" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="104">
+      <c r="B24" s="105">
         <f>SUM(B21+B23)</f>
         <v>2.495558161125274E-2</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104">
+      <c r="C24" s="105"/>
+      <c r="D24" s="105">
         <f>SUM(D21+D23)</f>
         <v>0.11816802308520993</v>
       </c>
-      <c r="E24" s="104"/>
+      <c r="E24" s="105"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="101">
+      <c r="B25" s="104">
         <f>(B21+B23)*L17*L20</f>
         <v>0.89242119800338404</v>
       </c>
-      <c r="C25" s="101"/>
-      <c r="D25" s="101">
+      <c r="C25" s="104"/>
+      <c r="D25" s="104">
         <f>(D21+D23)*L17*L20</f>
         <v>4.2257339608484017</v>
       </c>
-      <c r="E25" s="101"/>
+      <c r="E25" s="104"/>
       <c r="K25" t="str">
         <f>[5]NPV_Roadmap!K29</f>
         <v>Use efficiency pasture</v>
@@ -13505,22 +13505,22 @@
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="101">
+      <c r="B26" s="104">
         <f>(B21+B23)*B19+B25</f>
         <v>8.0444253557610992</v>
       </c>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101">
+      <c r="C26" s="104"/>
+      <c r="D26" s="104">
         <f>(D21+D23)*D19+D25</f>
         <v>32.771606963745811</v>
       </c>
-      <c r="E26" s="101"/>
+      <c r="E26" s="104"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B27" s="102"/>
       <c r="C27" s="102"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="103"/>
       <c r="K27" t="str">
         <f>[5]NPV_Roadmap!K31</f>
         <v>Standard error (%) improved forage yield</v>
@@ -13534,16 +13534,16 @@
       <c r="A28" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="105">
+      <c r="B28" s="103">
         <f>B5-B14</f>
         <v>52.538796239975156</v>
       </c>
-      <c r="C28" s="105"/>
-      <c r="D28" s="105">
+      <c r="C28" s="103"/>
+      <c r="D28" s="103">
         <f>D5-D14</f>
         <v>660.698934118122</v>
       </c>
-      <c r="E28" s="105"/>
+      <c r="E28" s="103"/>
       <c r="K28" t="str">
         <f>[5]NPV_Roadmap!K32</f>
         <v>Standard error (%) improved forage yield</v>
@@ -13554,16 +13554,16 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="108"/>
-      <c r="C29" s="108"/>
-      <c r="D29" s="105"/>
-      <c r="E29" s="105"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="106"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B30" s="102"/>
       <c r="C30" s="102"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="103"/>
       <c r="K30" t="str">
         <f>[5]NPV_Roadmap!K34</f>
         <v>Market price Sunflower cake (USD/kg)</v>
@@ -13576,8 +13576,8 @@
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B31" s="102"/>
       <c r="C31" s="102"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="103"/>
       <c r="K31" t="str">
         <f>[5]NPV_Roadmap!K35</f>
         <v>Market price Maize bran (USD/kg)</v>
@@ -13590,14 +13590,14 @@
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B32" s="102"/>
       <c r="C32" s="102"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="103"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B33" s="102"/>
       <c r="C33" s="102"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
       <c r="K33" t="str">
         <f>[5]NPV_Roadmap!K37</f>
         <v>Napier yield (Mg/ha)</v>
@@ -13608,7 +13608,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="103" t="s">
+      <c r="A34" s="101" t="s">
         <v>70</v>
       </c>
       <c r="B34" s="102"/>
@@ -13637,16 +13637,16 @@
       <c r="A36" t="s">
         <v>18</v>
       </c>
-      <c r="B36" s="105">
+      <c r="B36" s="103">
         <f>[1]All!$S$3*L17</f>
         <v>7.6629395714680082E-2</v>
       </c>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105">
+      <c r="C36" s="103"/>
+      <c r="D36" s="103">
         <f>[1]All!$S$4*L17</f>
         <v>0.11494409357202014</v>
       </c>
-      <c r="E36" s="105"/>
+      <c r="E36" s="103"/>
       <c r="K36" t="str">
         <f>[5]NPV_Roadmap!K40</f>
         <v xml:space="preserve">Opportunity cost land strata 1 </v>
@@ -13659,8 +13659,8 @@
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B37" s="102"/>
       <c r="C37" s="102"/>
-      <c r="D37" s="105"/>
-      <c r="E37" s="105"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
       <c r="K37" t="str">
         <f>[5]NPV_Roadmap!K41</f>
         <v>SE (fraction)</v>
@@ -13674,16 +13674,16 @@
       <c r="A38" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="105">
+      <c r="B38" s="103">
         <f>[1]All!$V$3*L17</f>
         <v>92.082990517140573</v>
       </c>
-      <c r="C38" s="105"/>
-      <c r="D38" s="105">
+      <c r="C38" s="103"/>
+      <c r="D38" s="103">
         <f>[1]All!$V$4*L17</f>
         <v>156.45168291747186</v>
       </c>
-      <c r="E38" s="105"/>
+      <c r="E38" s="103"/>
       <c r="K38" t="str">
         <f>[5]NPV_Roadmap!K42</f>
         <v>Opportunity cost land strata 2</v>
@@ -13697,16 +13697,16 @@
       <c r="A39" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="105">
+      <c r="B39" s="103">
         <f>[1]All!$W$3*L17</f>
         <v>92.210706176665042</v>
       </c>
-      <c r="C39" s="105"/>
-      <c r="D39" s="105">
+      <c r="C39" s="103"/>
+      <c r="D39" s="103">
         <f>[1]All!$W$4*L17</f>
         <v>99.873645748133058</v>
       </c>
-      <c r="E39" s="105"/>
+      <c r="E39" s="103"/>
       <c r="K39" t="str">
         <f>[5]NPV_Roadmap!K43</f>
         <v>SE (fraction)</v>
@@ -13720,88 +13720,88 @@
       <c r="A40" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="105">
+      <c r="B40" s="103">
         <f>[1]All!$X$3*L17</f>
         <v>32.695208838263504</v>
       </c>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105">
+      <c r="C40" s="103"/>
+      <c r="D40" s="103">
         <f>[1]All!$X$4*L17</f>
         <v>12.643850292922215</v>
       </c>
-      <c r="E40" s="105"/>
+      <c r="E40" s="103"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="105">
+      <c r="B41" s="103">
         <f>[1]All!$Y$3*L17</f>
         <v>3.0651758285872037</v>
       </c>
-      <c r="C41" s="105"/>
-      <c r="D41" s="105">
+      <c r="C41" s="103"/>
+      <c r="D41" s="103">
         <f>[1]All!$Y$4*L17</f>
         <v>4.853195061929739</v>
       </c>
-      <c r="E41" s="105"/>
+      <c r="E41" s="103"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="105">
+      <c r="B42" s="103">
         <f>B12*L17</f>
         <v>0</v>
       </c>
-      <c r="C42" s="105"/>
-      <c r="D42" s="105">
+      <c r="C42" s="103"/>
+      <c r="D42" s="103">
         <f>D12*L17</f>
         <v>0</v>
       </c>
-      <c r="E42" s="105"/>
+      <c r="E42" s="103"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="105">
+      <c r="B43" s="103">
         <f>(1/100)*(B21*L27+B23*L28)/SUM(B21,B23)</f>
         <v>0.18979375870077736</v>
       </c>
-      <c r="C43" s="105"/>
-      <c r="D43" s="105">
+      <c r="C43" s="103"/>
+      <c r="D43" s="103">
         <f>(1/100)*(D21*L27+D23*L28)/SUM(D21,D23)</f>
         <v>0.18009005145123153</v>
       </c>
-      <c r="E43" s="105"/>
+      <c r="E43" s="103"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="101">
+      <c r="B44" s="104">
         <f>B19*L37</f>
         <v>252.98810305730544</v>
       </c>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101">
+      <c r="C44" s="104"/>
+      <c r="D44" s="104">
         <f>D19*L39</f>
         <v>283.00087608280137</v>
       </c>
-      <c r="E44" s="101"/>
+      <c r="E44" s="104"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B45" s="102"/>
       <c r="C45" s="102"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="103"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B46" s="102"/>
       <c r="C46" s="102"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="105"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="103"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C47" s="95" t="s">
@@ -13814,191 +13814,191 @@
       <c r="A48" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="105">
+      <c r="B48" s="103">
         <f ca="1">_xlfn.NORM.INV(RAND(),B3,B36)</f>
-        <v>0.55975911074521822</v>
-      </c>
-      <c r="C48" s="105"/>
-      <c r="D48" s="105">
+        <v>0.46363790315702702</v>
+      </c>
+      <c r="C48" s="103"/>
+      <c r="D48" s="103">
         <f ca="1">_xlfn.NORM.INV(RAND(),D3,D36)</f>
-        <v>0.60826664360802818</v>
-      </c>
-      <c r="E48" s="105"/>
+        <v>0.62039289521640117</v>
+      </c>
+      <c r="E48" s="103"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="str">
         <f>Dairy_Income_Roadmap!A44</f>
         <v>Milk yield</v>
       </c>
-      <c r="B49" s="105">
+      <c r="B49" s="103">
         <f ca="1">_xlfn.NORM.INV(RAND(),B3,B3*Dairy_Income_Roadmap!L21)</f>
-        <v>0.50821039072980412</v>
-      </c>
-      <c r="C49" s="105"/>
-      <c r="D49" s="105">
+        <v>0.53778921676019953</v>
+      </c>
+      <c r="C49" s="103"/>
+      <c r="D49" s="103">
         <f ca="1">_xlfn.NORM.INV(RAND(),D3,D3*Dairy_Income_Roadmap!L21)</f>
-        <v>0.70409511205818631</v>
-      </c>
-      <c r="E49" s="105"/>
+        <v>0.57788338073752776</v>
+      </c>
+      <c r="E49" s="103"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B50" s="102"/>
       <c r="C50" s="102"/>
-      <c r="D50" s="105"/>
-      <c r="E50" s="105"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="103"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>11</v>
       </c>
-      <c r="B51" s="105">
+      <c r="B51" s="103">
         <f ca="1">_xlfn.NORM.INV(RAND(),B8,B38)</f>
-        <v>-71.863112265574003</v>
-      </c>
-      <c r="C51" s="105"/>
-      <c r="D51" s="105">
+        <v>155.07407003459144</v>
+      </c>
+      <c r="C51" s="103"/>
+      <c r="D51" s="103">
         <f ca="1">_xlfn.NORM.INV(RAND(),D8,D38)</f>
-        <v>158.32011754759901</v>
-      </c>
-      <c r="E51" s="105"/>
+        <v>61.945689532951803</v>
+      </c>
+      <c r="E51" s="103"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1</v>
       </c>
-      <c r="B52" s="105">
+      <c r="B52" s="103">
         <f ca="1">_xlfn.NORM.INV(RAND(),B9,B39)</f>
-        <v>60.727481420374446</v>
-      </c>
-      <c r="C52" s="105"/>
-      <c r="D52" s="105">
+        <v>-13.735315510011169</v>
+      </c>
+      <c r="C52" s="103"/>
+      <c r="D52" s="103">
         <f ca="1">_xlfn.NORM.INV(RAND(),D9,D39)</f>
-        <v>-146.22986328453624</v>
-      </c>
-      <c r="E52" s="105"/>
+        <v>194.37268391491401</v>
+      </c>
+      <c r="E52" s="103"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="105">
+      <c r="B53" s="103">
         <f ca="1">_xlfn.NORM.INV(RAND(),B10,B40)</f>
-        <v>31.292132223213912</v>
-      </c>
-      <c r="C53" s="105"/>
-      <c r="D53" s="105">
+        <v>62.015579478292942</v>
+      </c>
+      <c r="C53" s="103"/>
+      <c r="D53" s="103">
         <f ca="1">_xlfn.NORM.INV(RAND(),D10,D40)</f>
-        <v>22.287677836834437</v>
-      </c>
-      <c r="E53" s="105"/>
+        <v>19.843886487298647</v>
+      </c>
+      <c r="E53" s="103"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="105">
+      <c r="B54" s="103">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B41)</f>
-        <v>1.9523056371782388</v>
-      </c>
-      <c r="C54" s="105"/>
-      <c r="D54" s="105">
+        <v>-2.2962139748105033</v>
+      </c>
+      <c r="C54" s="103"/>
+      <c r="D54" s="103">
         <f ca="1">_xlfn.NORM.INV(RAND(),D11,D41)</f>
-        <v>1.6424168119389375</v>
-      </c>
-      <c r="E54" s="105"/>
+        <v>0.28898926509428668</v>
+      </c>
+      <c r="E54" s="103"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>3</v>
       </c>
-      <c r="B55" s="105">
+      <c r="B55" s="103">
         <v>1E-4</v>
       </c>
-      <c r="C55" s="105"/>
-      <c r="D55" s="105">
+      <c r="C55" s="103"/>
+      <c r="D55" s="103">
         <v>1E-4</v>
       </c>
-      <c r="E55" s="105"/>
+      <c r="E55" s="103"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B56" s="102"/>
       <c r="C56" s="102"/>
-      <c r="D56" s="105"/>
-      <c r="E56" s="105"/>
+      <c r="D56" s="103"/>
+      <c r="E56" s="103"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="105">
+      <c r="B57" s="103">
         <f>SUM(C51:C55)</f>
         <v>0</v>
       </c>
-      <c r="C57" s="105"/>
-      <c r="D57" s="105">
+      <c r="C57" s="103"/>
+      <c r="D57" s="103">
         <f>SUM(E51:E55)</f>
         <v>0</v>
       </c>
-      <c r="E57" s="105"/>
+      <c r="E57" s="103"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="102"/>
       <c r="C58" s="102"/>
-      <c r="D58" s="105"/>
-      <c r="E58" s="105"/>
+      <c r="D58" s="103"/>
+      <c r="E58" s="103"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B59" s="105">
+      <c r="B59" s="103">
         <f ca="1">B48*B49-B57</f>
-        <v>0.28447539638639507</v>
-      </c>
-      <c r="C59" s="105"/>
-      <c r="D59" s="105">
+        <v>0.24933946479915881</v>
+      </c>
+      <c r="C59" s="103"/>
+      <c r="D59" s="103">
         <f ca="1">D48*D49-D57</f>
-        <v>0.42827757059245147</v>
-      </c>
-      <c r="E59" s="105"/>
+        <v>0.35851474367319675</v>
+      </c>
+      <c r="E59" s="103"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="102"/>
       <c r="C60" s="102"/>
-      <c r="D60" s="105"/>
-      <c r="E60" s="105"/>
+      <c r="D60" s="103"/>
+      <c r="E60" s="103"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B61" s="105">
+      <c r="B61" s="103">
         <f ca="1">AVERAGE(C65:C564)</f>
-        <v>109.22460849569427</v>
-      </c>
-      <c r="C61" s="105"/>
-      <c r="D61" s="105">
+        <v>109.22453822383109</v>
+      </c>
+      <c r="C61" s="103"/>
+      <c r="D61" s="103">
         <f ca="1">AVERAGE(E65:E564)</f>
-        <v>132.14185959449762</v>
-      </c>
-      <c r="E61" s="105"/>
+        <v>132.1417200688438</v>
+      </c>
+      <c r="E61" s="103"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="105">
+      <c r="B62" s="103">
         <f ca="1">STDEVA(C65:C564)</f>
-        <v>51.72202433233231</v>
-      </c>
-      <c r="C62" s="105"/>
-      <c r="D62" s="105">
+        <v>51.72217266355667</v>
+      </c>
+      <c r="C62" s="103"/>
+      <c r="D62" s="103">
         <f ca="1">STDEVA(E65:E564)</f>
-        <v>164.9969251664651</v>
-      </c>
-      <c r="E62" s="105"/>
+        <v>164.99703679953191</v>
+      </c>
+      <c r="E62" s="103"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B63" s="102"/>
@@ -14021,7 +14021,7 @@
       </c>
       <c r="C65" s="28">
         <f ca="1">B59</f>
-        <v>0.28447539638639507</v>
+        <v>0.24933946479915881</v>
       </c>
       <c r="D65">
         <f>B65</f>
@@ -14029,7 +14029,7 @@
       </c>
       <c r="E65" s="28">
         <f ca="1">D59</f>
-        <v>0.42827757059245147</v>
+        <v>0.35851474367319675</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
@@ -21519,22 +21519,91 @@
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="B60:C60"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="B64:C64"/>
     <mergeCell ref="B63:C63"/>
@@ -21556,91 +21625,22 @@
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21861,7 +21861,7 @@
       </c>
       <c r="O3" s="53">
         <f ca="1">Dairy_Income_Baseline!B62</f>
-        <v>51.72202433233231</v>
+        <v>51.72217266355667</v>
       </c>
       <c r="P3" s="53">
         <f>(G3-F3)*(Dairy_Income_Baseline!B24)</f>
@@ -21881,7 +21881,7 @@
       </c>
       <c r="T3" s="5">
         <f ca="1">F3*O3*I3</f>
-        <v>229.95612018154947</v>
+        <v>229.95677966217295</v>
       </c>
       <c r="U3" s="55">
         <f>N3*(M3*K3*I3)/(D3)</f>
@@ -21909,7 +21909,7 @@
       </c>
       <c r="AA3" s="90">
         <f ca="1">T3*D3</f>
-        <v>18244872.982580092</v>
+        <v>18244925.306215577</v>
       </c>
       <c r="AB3" s="51">
         <f>Y3*D3</f>
@@ -21971,7 +21971,7 @@
       </c>
       <c r="O4" s="53">
         <f ca="1">Dairy_Income_Baseline!D62</f>
-        <v>164.9969251664651</v>
+        <v>164.99703679953191</v>
       </c>
       <c r="P4" s="53">
         <f>(G4-F4)*(Dairy_Income_Baseline!B24)</f>
@@ -21991,7 +21991,7 @@
       </c>
       <c r="T4" s="5">
         <f ca="1">F4*O4*I4</f>
-        <v>236.02365451549056</v>
+        <v>236.02381420358395</v>
       </c>
       <c r="U4" s="55">
         <f>N4*(M4*K4*I4)/(D4)</f>
@@ -22019,7 +22019,7 @@
       </c>
       <c r="AA4" s="90">
         <f ca="1">T4*D4</f>
-        <v>6562399.8956899159</v>
+        <v>6562404.3356564501</v>
       </c>
       <c r="AB4" s="57">
         <f>Y4*D4</f>
@@ -22028,7 +22028,7 @@
       <c r="AC4" s="18"/>
       <c r="AD4" s="28">
         <f ca="1">MC_Baseline!H20</f>
-        <v>20.565227798485964</v>
+        <v>19.886701071621903</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -22113,7 +22113,7 @@
       </c>
       <c r="O6" s="53">
         <f ca="1">Dairy_Income_Roadmap!C59</f>
-        <v>314.80418002539551</v>
+        <v>315.57248265706437</v>
       </c>
       <c r="P6" s="53">
         <f>(F6*(Dairy_Income_Roadmap!C22 + Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -22133,7 +22133,7 @@
       </c>
       <c r="T6" s="5">
         <f ca="1">F6*O6*I6</f>
-        <v>264.34685847818497</v>
+        <v>264.99201632528155</v>
       </c>
       <c r="U6" s="51">
         <f>U3</f>
@@ -22161,7 +22161,7 @@
       </c>
       <c r="AA6" s="90">
         <f ca="1">T6*D6</f>
-        <v>7340710.0379185127</v>
+        <v>7358625.5777947493</v>
       </c>
       <c r="AB6" s="56">
         <f>Y6*D6</f>
@@ -22218,7 +22218,7 @@
       </c>
       <c r="O7" s="53">
         <f ca="1">Dairy_Income_Roadmap!E59</f>
-        <v>26.985901890880744</v>
+        <v>26.326698024237299</v>
       </c>
       <c r="P7" s="53">
         <f>(F7*(Dairy_Income_Roadmap!E22 + Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -22238,7 +22238,7 @@
       </c>
       <c r="T7" s="5">
         <f ca="1">F7*O7*I7</f>
-        <v>100.08044574366156</v>
+        <v>97.635709337356175</v>
       </c>
       <c r="U7" s="51">
         <f t="shared" ref="U7:W8" si="0">U3</f>
@@ -22266,7 +22266,7 @@
       </c>
       <c r="AA7" s="90">
         <f ca="1">T7*D7</f>
-        <v>5161292.3477508985</v>
+        <v>5035213.7795313811</v>
       </c>
       <c r="AB7" s="51">
         <f>Y7*D7</f>
@@ -22324,7 +22324,7 @@
       </c>
       <c r="O8" s="53">
         <f ca="1">Dairy_Income_Roadmap!G59</f>
-        <v>285.11080289725788</v>
+        <v>285.98263700897837</v>
       </c>
       <c r="P8" s="53">
         <f>(F8*(Dairy_Income_Roadmap!G22 + Dairy_Income_Baseline!D24)  -   F5*Dairy_Income_Baseline!D24)</f>
@@ -22344,7 +22344,7 @@
       </c>
       <c r="T8" s="5">
         <f ca="1">F8*O8*I8</f>
-        <v>464.31509507343281</v>
+        <v>465.73491408540349</v>
       </c>
       <c r="U8" s="51">
         <f t="shared" si="0"/>
@@ -22372,7 +22372,7 @@
       </c>
       <c r="AA8" s="90">
         <f ca="1">T8*D8</f>
-        <v>12909813.373291228</v>
+        <v>12949290.010305353</v>
       </c>
       <c r="AB8" s="51">
         <f>Y8*D8</f>
@@ -22384,7 +22384,7 @@
       </c>
       <c r="AD8" s="28">
         <f ca="1">MC_High_ambition!I20</f>
-        <v>14.001545545058608</v>
+        <v>14.788124347650486</v>
       </c>
     </row>
     <row r="9" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -22470,7 +22470,7 @@
       </c>
       <c r="O10" s="53">
         <f ca="1">Dairy_Income_Roadmap!C59</f>
-        <v>314.80418002539551</v>
+        <v>315.57248265706437</v>
       </c>
       <c r="P10" s="53">
         <f>(F10*(Dairy_Income_Roadmap!C22+Dairy_Income_Baseline!B24)-F3*Dairy_Income_Baseline!B24)</f>
@@ -22490,7 +22490,7 @@
       </c>
       <c r="T10" s="5">
         <f ca="1">F10*O10*I10</f>
-        <v>223.38579963535435</v>
+        <v>223.93098902173239</v>
       </c>
       <c r="U10" s="51">
         <f>U6</f>
@@ -22518,7 +22518,7 @@
       </c>
       <c r="AA10" s="90">
         <f ca="1">T10*D10</f>
-        <v>3367480.0743544889</v>
+        <v>3375698.6558326958</v>
       </c>
       <c r="AB10" s="51">
         <f>Y10*D10</f>
@@ -22576,7 +22576,7 @@
       </c>
       <c r="O11" s="53">
         <f ca="1">Dairy_Income_Roadmap!E59</f>
-        <v>26.985901890880744</v>
+        <v>26.326698024237299</v>
       </c>
       <c r="P11" s="53">
         <f>(F11*(Dairy_Income_Roadmap!E22 + Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -22596,7 +22596,7 @@
       </c>
       <c r="T11" s="5">
         <f ca="1">F11*O11*I11</f>
-        <v>125.49909563043779</v>
+        <v>122.43343973965592</v>
       </c>
       <c r="U11" s="51">
         <f t="shared" ref="U11:W12" si="3">U7</f>
@@ -22624,7 +22624,7 @@
       </c>
       <c r="AA11" s="90">
         <f ca="1">T11*D11</f>
-        <v>8065317.8375622882</v>
+        <v>7868300.5681107137</v>
       </c>
       <c r="AB11" s="51">
         <f>Y11*D11</f>
@@ -22683,7 +22683,7 @@
       </c>
       <c r="O12" s="53">
         <f ca="1">Dairy_Income_Roadmap!G59</f>
-        <v>285.11080289725788</v>
+        <v>285.98263700897837</v>
       </c>
       <c r="P12" s="53">
         <f>(F12*(Dairy_Income_Roadmap!G22 + Dairy_Income_Baseline!D24)  -   F4*Dairy_Income_Baseline!D24)</f>
@@ -22703,7 +22703,7 @@
       </c>
       <c r="T12" s="5">
         <f ca="1">F12*O12*I12</f>
-        <v>518.46531284753098</v>
+        <v>520.05071663051979</v>
       </c>
       <c r="U12" s="51">
         <f t="shared" si="3"/>
@@ -22731,7 +22731,7 @@
       </c>
       <c r="AA12" s="90">
         <f ca="1">T12*D12</f>
-        <v>14415405.616584817</v>
+        <v>14459486.171313407</v>
       </c>
       <c r="AB12" s="51">
         <f>Y12*D12</f>
@@ -22743,7 +22743,7 @@
       </c>
       <c r="AD12" s="28">
         <f ca="1">MC_Middle_road!I20</f>
-        <v>14.97603760432227</v>
+        <v>17.604084829890013</v>
       </c>
     </row>
     <row r="13" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -22832,7 +22832,7 @@
       </c>
       <c r="O14" s="53">
         <f ca="1">Dairy_Income_Roadmap!C59</f>
-        <v>314.80418002539551</v>
+        <v>315.57248265706437</v>
       </c>
       <c r="P14" s="53">
         <f>(F14*(Dairy_Income_Roadmap!C22+ Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -22852,7 +22852,7 @@
       </c>
       <c r="T14" s="5">
         <f ca="1">F14*O14*I14</f>
-        <v>141.7037456883489</v>
+        <v>142.04958404640664</v>
       </c>
       <c r="U14" s="51">
         <f t="shared" ref="U14:U16" si="5">U10</f>
@@ -22880,7 +22880,7 @@
       </c>
       <c r="AA14" s="90">
         <f ca="1">T14*D14</f>
-        <v>337286.10995853733</v>
+        <v>338109.28138493199</v>
       </c>
       <c r="AB14" s="51">
         <f>Y14*D14</f>
@@ -22938,7 +22938,7 @@
       </c>
       <c r="O15" s="53">
         <f ca="1">Dairy_Income_Roadmap!E59</f>
-        <v>26.985901890880744</v>
+        <v>26.326698024237299</v>
       </c>
       <c r="P15" s="53">
         <f>(F15*(Dairy_Income_Roadmap!E22 + Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -22958,7 +22958,7 @@
       </c>
       <c r="T15" s="5">
         <f ca="1">F15*O15*I15</f>
-        <v>166.83479547223442</v>
+        <v>162.75940296874614</v>
       </c>
       <c r="U15" s="51">
         <f t="shared" si="5"/>
@@ -22986,7 +22986,7 @@
       </c>
       <c r="AA15" s="90">
         <f ca="1">T15*D15</f>
-        <v>12839681.155520622</v>
+        <v>12526037.109143635</v>
       </c>
       <c r="AB15" s="51">
         <f>Y15*D15</f>
@@ -23045,7 +23045,7 @@
       </c>
       <c r="O16" s="53">
         <f ca="1">Dairy_Income_Roadmap!G59</f>
-        <v>285.11080289725788</v>
+        <v>285.98263700897837</v>
       </c>
       <c r="P16" s="53">
         <f>(F16*(Dairy_Income_Roadmap!G22 + Dairy_Income_Baseline!D24)  -   F4*Dairy_Income_Baseline!D24)</f>
@@ -23065,7 +23065,7 @@
       </c>
       <c r="T16" s="5">
         <f ca="1">F16*O16*I16</f>
-        <v>459.86717440226317</v>
+        <v>461.27339221453201</v>
       </c>
       <c r="U16" s="51">
         <f t="shared" si="5"/>
@@ -23093,7 +23093,7 @@
       </c>
       <c r="AA16" s="90">
         <f ca="1">T16*D16</f>
-        <v>12786143.420767022</v>
+        <v>12825241.890128043</v>
       </c>
       <c r="AB16" s="51">
         <f>Y16*D16</f>
@@ -23105,7 +23105,7 @@
       </c>
       <c r="AD16" s="28">
         <f ca="1">MC_Status_quo!I20</f>
-        <v>19.016713869000629</v>
+        <v>18.326743787057314</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -23194,7 +23194,7 @@
       </c>
       <c r="O18" s="53">
         <f ca="1">Dairy_Income_Roadmap!C59</f>
-        <v>314.80418002539551</v>
+        <v>315.57248265706437</v>
       </c>
       <c r="P18" s="53">
         <f>(F18*(Dairy_Income_Roadmap!C22 + Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -23214,7 +23214,7 @@
       </c>
       <c r="T18" s="5">
         <f ca="1">F18*O18*I18</f>
-        <v>334.69238336510148</v>
+        <v>335.509224611994</v>
       </c>
       <c r="U18" s="51">
         <f t="shared" ref="U18:U20" si="8">U14</f>
@@ -23242,7 +23242,7 @@
       </c>
       <c r="AA18" s="90">
         <f ca="1">T18*D18</f>
-        <v>9294151.4505867437</v>
+        <v>9316834.5071396735</v>
       </c>
       <c r="AB18" s="51">
         <f>Y18*D18</f>
@@ -23300,7 +23300,7 @@
       </c>
       <c r="O19" s="53">
         <f ca="1">Dairy_Income_Roadmap!E59</f>
-        <v>26.985901890880744</v>
+        <v>26.326698024237299</v>
       </c>
       <c r="P19" s="53">
         <f>(F19*(Dairy_Income_Roadmap!E22 + Dairy_Income_Baseline!B24)  -   F3*Dairy_Income_Baseline!B24)</f>
@@ -23320,7 +23320,7 @@
       </c>
       <c r="T19" s="5">
         <f ca="1">F19*O19*I19</f>
-        <v>126.71292220766853</v>
+        <v>123.61761530961699</v>
       </c>
       <c r="U19" s="51">
         <f t="shared" si="8"/>
@@ -23348,7 +23348,7 @@
       </c>
       <c r="AA19" s="90">
         <f ca="1">T19*D19</f>
-        <v>6534767.4152721772</v>
+        <v>6375137.992280066</v>
       </c>
       <c r="AB19" s="51">
         <f>Y19*D19</f>
@@ -23407,7 +23407,7 @@
       </c>
       <c r="O20" s="53">
         <f ca="1">Dairy_Income_Roadmap!G59</f>
-        <v>285.11080289725788</v>
+        <v>285.98263700897837</v>
       </c>
       <c r="P20" s="53">
         <f>(F20*(Dairy_Income_Roadmap!G22+ Dairy_Income_Baseline!D24)  -   F4*Dairy_Income_Baseline!D24)</f>
@@ -23427,7 +23427,7 @@
       </c>
       <c r="T20" s="5">
         <f ca="1">F20*O20*I20</f>
-        <v>587.87430536211741</v>
+        <v>589.67195339092041</v>
       </c>
       <c r="U20" s="51">
         <f t="shared" si="8"/>
@@ -23455,7 +23455,7 @@
       </c>
       <c r="AA20" s="90">
         <f ca="1">T20*D20</f>
-        <v>16345252.716752354</v>
+        <v>16395234.508877896</v>
       </c>
       <c r="AB20" s="51">
         <f>Y20*D20</f>
@@ -23467,7 +23467,7 @@
       </c>
       <c r="AD20" s="28">
         <f ca="1">MC_High_ambition_plus!I20</f>
-        <v>13.532307690846137</v>
+        <v>13.606770616826495</v>
       </c>
     </row>
     <row r="21" spans="1:30" ht="15.6" x14ac:dyDescent="0.3">
@@ -24027,11 +24027,11 @@
       </c>
       <c r="B4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N3,Mappings!O3)</f>
-        <v>76.445062936461397</v>
+        <v>-5.916657712096935</v>
       </c>
       <c r="C4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N4,Mappings!O4)</f>
-        <v>668.09512277664805</v>
+        <v>601.45048191643662</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -24079,11 +24079,11 @@
       </c>
       <c r="B8" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B7,B7*25/100)</f>
-        <v>7768.3108051310501</v>
+        <v>7343.090275333042</v>
       </c>
       <c r="C8" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C7,C7*25/100)</f>
-        <v>4787.3290371267794</v>
+        <v>5632.7697520277343</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -24105,11 +24105,11 @@
       </c>
       <c r="B10" s="28">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L38),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L38))</f>
-        <v>-23.882741777934363</v>
+        <v>19.427515089521172</v>
       </c>
       <c r="C10" s="28">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L38),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L38))</f>
-        <v>8.1756250547563827</v>
+        <v>2.5135511997541955</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -24148,11 +24148,11 @@
       </c>
       <c r="B14" s="28">
         <f ca="1">B4*B6</f>
-        <v>339.87474981550741</v>
+        <v>-26.305460187982977</v>
       </c>
       <c r="C14" s="28">
         <f ca="1">C4*C6</f>
-        <v>955.69206688324925</v>
+        <v>860.35870431403896</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -24161,11 +24161,11 @@
       </c>
       <c r="B15" s="28">
         <f ca="1">IF(B9&gt;0,B8-B10,    B8 +B10)</f>
-        <v>7792.193546908984</v>
+        <v>7323.662760243521</v>
       </c>
       <c r="C15" s="28">
         <f ca="1">C8-IF(C9&gt;0,C10,(-1)*C10)</f>
-        <v>4779.1534120720235</v>
+        <v>5630.2562008279801</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -24174,11 +24174,11 @@
       </c>
       <c r="B16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>78890.802365807074</v>
+        <v>83173.615425694225</v>
       </c>
       <c r="C16" s="28">
         <f t="shared" ref="C16" ca="1" si="0">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>28584.275230108338</v>
+        <v>27633.518107539148</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -24191,15 +24191,15 @@
       </c>
       <c r="B18" s="28">
         <f ca="1">(B14+B15)*B16</f>
-        <v>641545392.82213724</v>
+        <v>606947589.69870162</v>
       </c>
       <c r="C18" s="28">
         <f ca="1">(C14+C15)*C16</f>
-        <v>163926401.57259998</v>
+        <v>179358524.51030546</v>
       </c>
       <c r="E18" s="28">
         <f ca="1">B18+C18</f>
-        <v>805471794.39473724</v>
+        <v>786306114.20900702</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -24214,7 +24214,7 @@
       </c>
       <c r="E19" s="28">
         <f ca="1">STDEVA(E22:E129)</f>
-        <v>157139634.88469633</v>
+        <v>147780365.13648766</v>
       </c>
       <c r="G19" s="111" t="s">
         <v>62</v>
@@ -24232,12 +24232,12 @@
       </c>
       <c r="E20" s="28">
         <f ca="1">AVERAGE(E22:E129)</f>
-        <v>764103546.16283476</v>
+        <v>743111512.58450079</v>
       </c>
       <c r="G20" s="111"/>
       <c r="H20" s="79">
         <f ca="1">100*E19/E20</f>
-        <v>20.565227798485964</v>
+        <v>19.886701071621903</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -24246,7 +24246,7 @@
       </c>
       <c r="E22">
         <f ca="1">E18</f>
-        <v>805471794.39473724</v>
+        <v>786306114.20900702</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -24255,7 +24255,7 @@
       </c>
       <c r="E23">
         <f t="dataTable" ref="E23:E129" dt2D="0" dtr="0" r1="E21" ca="1"/>
-        <v>627088281.09727311</v>
+        <v>909996701.50436664</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -24263,7 +24263,7 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>620378880.77187741</v>
+        <v>714353867.90286875</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -24271,7 +24271,7 @@
         <v>4</v>
       </c>
       <c r="E25">
-        <v>759950202.53587747</v>
+        <v>620429221.07185411</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -24279,7 +24279,7 @@
         <v>5</v>
       </c>
       <c r="E26">
-        <v>931470317.21580958</v>
+        <v>640213119.66740882</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -24287,7 +24287,7 @@
         <v>6</v>
       </c>
       <c r="E27">
-        <v>975991901.4465785</v>
+        <v>813050711.3389262</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -24295,7 +24295,7 @@
         <v>7</v>
       </c>
       <c r="E28">
-        <v>706219322.87862301</v>
+        <v>522504982.65081167</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -24303,7 +24303,7 @@
         <v>8</v>
       </c>
       <c r="E29">
-        <v>768117650.25567162</v>
+        <v>872321488.72019911</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -24311,7 +24311,7 @@
         <v>9</v>
       </c>
       <c r="E30">
-        <v>873427256.31283402</v>
+        <v>897476162.16953444</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -24319,7 +24319,7 @@
         <v>10</v>
       </c>
       <c r="E31">
-        <v>719239072.37564015</v>
+        <v>606552133.23150885</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -24327,7 +24327,7 @@
         <v>11</v>
       </c>
       <c r="E32">
-        <v>748303736.26696479</v>
+        <v>914479215.48816848</v>
       </c>
     </row>
     <row r="33" spans="4:5" x14ac:dyDescent="0.3">
@@ -24335,7 +24335,7 @@
         <v>12</v>
       </c>
       <c r="E33">
-        <v>731832147.21468091</v>
+        <v>767348291.84363234</v>
       </c>
     </row>
     <row r="34" spans="4:5" x14ac:dyDescent="0.3">
@@ -24343,7 +24343,7 @@
         <v>13</v>
       </c>
       <c r="E34">
-        <v>707224172.85377204</v>
+        <v>950035752.39274454</v>
       </c>
     </row>
     <row r="35" spans="4:5" x14ac:dyDescent="0.3">
@@ -24351,7 +24351,7 @@
         <v>14</v>
       </c>
       <c r="E35">
-        <v>1047290489.7892615</v>
+        <v>859062031.90411854</v>
       </c>
     </row>
     <row r="36" spans="4:5" x14ac:dyDescent="0.3">
@@ -24359,7 +24359,7 @@
         <v>15</v>
       </c>
       <c r="E36">
-        <v>743618709.33036637</v>
+        <v>547731214.16332805</v>
       </c>
     </row>
     <row r="37" spans="4:5" x14ac:dyDescent="0.3">
@@ -24367,7 +24367,7 @@
         <v>16</v>
       </c>
       <c r="E37">
-        <v>858567752.0907743</v>
+        <v>898479319.82296276</v>
       </c>
     </row>
     <row r="38" spans="4:5" x14ac:dyDescent="0.3">
@@ -24375,7 +24375,7 @@
         <v>17</v>
       </c>
       <c r="E38">
-        <v>479407852.14099252</v>
+        <v>786983176.18441677</v>
       </c>
     </row>
     <row r="39" spans="4:5" x14ac:dyDescent="0.3">
@@ -24383,7 +24383,7 @@
         <v>18</v>
       </c>
       <c r="E39">
-        <v>744880830.11685503</v>
+        <v>685890635.83246779</v>
       </c>
     </row>
     <row r="40" spans="4:5" x14ac:dyDescent="0.3">
@@ -24391,7 +24391,7 @@
         <v>19</v>
       </c>
       <c r="E40">
-        <v>842043789.29055071</v>
+        <v>864227485.08449519</v>
       </c>
     </row>
     <row r="41" spans="4:5" x14ac:dyDescent="0.3">
@@ -24399,7 +24399,7 @@
         <v>20</v>
       </c>
       <c r="E41">
-        <v>1006090665.0168614</v>
+        <v>496018435.71016675</v>
       </c>
     </row>
     <row r="42" spans="4:5" x14ac:dyDescent="0.3">
@@ -24407,7 +24407,7 @@
         <v>21</v>
       </c>
       <c r="E42">
-        <v>727004518.09110379</v>
+        <v>767291350.36759806</v>
       </c>
     </row>
     <row r="43" spans="4:5" x14ac:dyDescent="0.3">
@@ -24415,7 +24415,7 @@
         <v>22</v>
       </c>
       <c r="E43">
-        <v>530346940.32279605</v>
+        <v>778759664.29142129</v>
       </c>
     </row>
     <row r="44" spans="4:5" x14ac:dyDescent="0.3">
@@ -24423,7 +24423,7 @@
         <v>23</v>
       </c>
       <c r="E44">
-        <v>848739553.72422874</v>
+        <v>957906736.48549104</v>
       </c>
     </row>
     <row r="45" spans="4:5" x14ac:dyDescent="0.3">
@@ -24431,7 +24431,7 @@
         <v>24</v>
       </c>
       <c r="E45">
-        <v>930704512.52838111</v>
+        <v>585867979.81590009</v>
       </c>
     </row>
     <row r="46" spans="4:5" x14ac:dyDescent="0.3">
@@ -24439,7 +24439,7 @@
         <v>25</v>
       </c>
       <c r="E46">
-        <v>479212058.02321243</v>
+        <v>717252285.01079917</v>
       </c>
     </row>
     <row r="47" spans="4:5" x14ac:dyDescent="0.3">
@@ -24447,7 +24447,7 @@
         <v>26</v>
       </c>
       <c r="E47">
-        <v>937891785.14252472</v>
+        <v>776595015.76021564</v>
       </c>
     </row>
     <row r="48" spans="4:5" x14ac:dyDescent="0.3">
@@ -24455,7 +24455,7 @@
         <v>27</v>
       </c>
       <c r="E48">
-        <v>498991866.95533073</v>
+        <v>779465210.87524188</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.3">
@@ -24463,7 +24463,7 @@
         <v>28</v>
       </c>
       <c r="E49">
-        <v>550977188.58525479</v>
+        <v>546349948.27004337</v>
       </c>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.3">
@@ -24471,7 +24471,7 @@
         <v>29</v>
       </c>
       <c r="E50">
-        <v>504079201.93489361</v>
+        <v>623830145.70212626</v>
       </c>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.3">
@@ -24479,7 +24479,7 @@
         <v>30</v>
       </c>
       <c r="E51">
-        <v>818382216.5043062</v>
+        <v>677007048.34883988</v>
       </c>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.3">
@@ -24487,7 +24487,7 @@
         <v>31</v>
       </c>
       <c r="E52">
-        <v>988985437.56885028</v>
+        <v>864708524.27827549</v>
       </c>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.3">
@@ -24495,7 +24495,7 @@
         <v>32</v>
       </c>
       <c r="E53">
-        <v>863281590.35736966</v>
+        <v>781402550.28729141</v>
       </c>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.3">
@@ -24503,7 +24503,7 @@
         <v>33</v>
       </c>
       <c r="E54">
-        <v>763898595.38031042</v>
+        <v>834512004.9207238</v>
       </c>
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.3">
@@ -24511,7 +24511,7 @@
         <v>34</v>
       </c>
       <c r="E55">
-        <v>1011279304.0298353</v>
+        <v>684796496.81026602</v>
       </c>
     </row>
     <row r="56" spans="4:5" x14ac:dyDescent="0.3">
@@ -24519,7 +24519,7 @@
         <v>35</v>
       </c>
       <c r="E56">
-        <v>969508113.71273136</v>
+        <v>885620399.32409143</v>
       </c>
     </row>
     <row r="57" spans="4:5" x14ac:dyDescent="0.3">
@@ -24527,7 +24527,7 @@
         <v>36</v>
       </c>
       <c r="E57">
-        <v>645420447.38926423</v>
+        <v>825525501.98632741</v>
       </c>
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.3">
@@ -24535,7 +24535,7 @@
         <v>37</v>
       </c>
       <c r="E58">
-        <v>876964661.6866461</v>
+        <v>745348304.3971355</v>
       </c>
     </row>
     <row r="59" spans="4:5" x14ac:dyDescent="0.3">
@@ -24543,7 +24543,7 @@
         <v>38</v>
       </c>
       <c r="E59">
-        <v>871722629.94820786</v>
+        <v>995023469.48822713</v>
       </c>
     </row>
     <row r="60" spans="4:5" x14ac:dyDescent="0.3">
@@ -24551,7 +24551,7 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>766761151.57627141</v>
+        <v>721250213.24651015</v>
       </c>
     </row>
     <row r="61" spans="4:5" x14ac:dyDescent="0.3">
@@ -24559,7 +24559,7 @@
         <v>40</v>
       </c>
       <c r="E61">
-        <v>474277157.68094051</v>
+        <v>447174506.79916543</v>
       </c>
     </row>
     <row r="62" spans="4:5" x14ac:dyDescent="0.3">
@@ -24567,7 +24567,7 @@
         <v>41</v>
       </c>
       <c r="E62">
-        <v>654827271.63261735</v>
+        <v>976864669.85415602</v>
       </c>
     </row>
     <row r="63" spans="4:5" x14ac:dyDescent="0.3">
@@ -24575,7 +24575,7 @@
         <v>42</v>
       </c>
       <c r="E63">
-        <v>925887201.19754398</v>
+        <v>585700717.71422005</v>
       </c>
     </row>
     <row r="64" spans="4:5" x14ac:dyDescent="0.3">
@@ -24583,7 +24583,7 @@
         <v>43</v>
       </c>
       <c r="E64">
-        <v>761706090.90671921</v>
+        <v>524668026.3891114</v>
       </c>
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.3">
@@ -24591,7 +24591,7 @@
         <v>44</v>
       </c>
       <c r="E65">
-        <v>752710186.21732879</v>
+        <v>581903806.31423116</v>
       </c>
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.3">
@@ -24599,7 +24599,7 @@
         <v>45</v>
       </c>
       <c r="E66">
-        <v>770224813.29019666</v>
+        <v>586234225.51232243</v>
       </c>
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.3">
@@ -24607,7 +24607,7 @@
         <v>46</v>
       </c>
       <c r="E67">
-        <v>854403550.65777862</v>
+        <v>589074852.99885964</v>
       </c>
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.3">
@@ -24615,7 +24615,7 @@
         <v>47</v>
       </c>
       <c r="E68">
-        <v>869861617.06996083</v>
+        <v>1081685217.8505485</v>
       </c>
     </row>
     <row r="69" spans="4:5" x14ac:dyDescent="0.3">
@@ -24623,7 +24623,7 @@
         <v>48</v>
       </c>
       <c r="E69">
-        <v>567852515.88806272</v>
+        <v>369689146.37978971</v>
       </c>
     </row>
     <row r="70" spans="4:5" x14ac:dyDescent="0.3">
@@ -24631,7 +24631,7 @@
         <v>49</v>
       </c>
       <c r="E70">
-        <v>793843245.12790465</v>
+        <v>563089520.87741947</v>
       </c>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.3">
@@ -24639,7 +24639,7 @@
         <v>50</v>
       </c>
       <c r="E71">
-        <v>831355748.91999769</v>
+        <v>561436567.68020022</v>
       </c>
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.3">
@@ -24647,7 +24647,7 @@
         <v>51</v>
       </c>
       <c r="E72">
-        <v>659638877.50633264</v>
+        <v>817205808.97099924</v>
       </c>
     </row>
     <row r="73" spans="4:5" x14ac:dyDescent="0.3">
@@ -24655,7 +24655,7 @@
         <v>52</v>
       </c>
       <c r="E73">
-        <v>649933997.95778656</v>
+        <v>697975930.16586781</v>
       </c>
     </row>
     <row r="74" spans="4:5" x14ac:dyDescent="0.3">
@@ -24663,7 +24663,7 @@
         <v>53</v>
       </c>
       <c r="E74">
-        <v>584003882.47925723</v>
+        <v>723193622.82611191</v>
       </c>
     </row>
     <row r="75" spans="4:5" x14ac:dyDescent="0.3">
@@ -24671,7 +24671,7 @@
         <v>54</v>
       </c>
       <c r="E75">
-        <v>689077889.65556598</v>
+        <v>682499249.79098797</v>
       </c>
     </row>
     <row r="76" spans="4:5" x14ac:dyDescent="0.3">
@@ -24679,7 +24679,7 @@
         <v>55</v>
       </c>
       <c r="E76">
-        <v>823875854.46777213</v>
+        <v>620341741.79770136</v>
       </c>
     </row>
     <row r="77" spans="4:5" x14ac:dyDescent="0.3">
@@ -24687,7 +24687,7 @@
         <v>56</v>
       </c>
       <c r="E77">
-        <v>562081881.09114289</v>
+        <v>564345910.15709531</v>
       </c>
     </row>
     <row r="78" spans="4:5" x14ac:dyDescent="0.3">
@@ -24695,7 +24695,7 @@
         <v>57</v>
       </c>
       <c r="E78">
-        <v>677095353.10177147</v>
+        <v>968472300.85912418</v>
       </c>
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.3">
@@ -24703,7 +24703,7 @@
         <v>58</v>
       </c>
       <c r="E79">
-        <v>1055005721.2034106</v>
+        <v>741023009.75268602</v>
       </c>
     </row>
     <row r="80" spans="4:5" x14ac:dyDescent="0.3">
@@ -24711,7 +24711,7 @@
         <v>59</v>
       </c>
       <c r="E80">
-        <v>999237458.97703099</v>
+        <v>551851539.76108384</v>
       </c>
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.3">
@@ -24719,7 +24719,7 @@
         <v>60</v>
       </c>
       <c r="E81">
-        <v>1003026718.4975324</v>
+        <v>598013282.07307756</v>
       </c>
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.3">
@@ -24727,7 +24727,7 @@
         <v>61</v>
       </c>
       <c r="E82">
-        <v>826114778.04422045</v>
+        <v>624913951.12578869</v>
       </c>
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.3">
@@ -24735,7 +24735,7 @@
         <v>62</v>
       </c>
       <c r="E83">
-        <v>807836186.54928517</v>
+        <v>796454449.80670238</v>
       </c>
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.3">
@@ -24743,7 +24743,7 @@
         <v>63</v>
       </c>
       <c r="E84">
-        <v>713143166.75378251</v>
+        <v>844231091.01669252</v>
       </c>
     </row>
     <row r="85" spans="4:5" x14ac:dyDescent="0.3">
@@ -24751,7 +24751,7 @@
         <v>64</v>
       </c>
       <c r="E85">
-        <v>711771799.05098557</v>
+        <v>688976082.66277301</v>
       </c>
     </row>
     <row r="86" spans="4:5" x14ac:dyDescent="0.3">
@@ -24759,7 +24759,7 @@
         <v>65</v>
       </c>
       <c r="E86">
-        <v>601614675.46889198</v>
+        <v>780754509.64912307</v>
       </c>
     </row>
     <row r="87" spans="4:5" x14ac:dyDescent="0.3">
@@ -24767,7 +24767,7 @@
         <v>66</v>
       </c>
       <c r="E87">
-        <v>925662724.31166434</v>
+        <v>1199294822.0143523</v>
       </c>
     </row>
     <row r="88" spans="4:5" x14ac:dyDescent="0.3">
@@ -24775,7 +24775,7 @@
         <v>67</v>
       </c>
       <c r="E88">
-        <v>867298911.19357681</v>
+        <v>842182640.98469043</v>
       </c>
     </row>
     <row r="89" spans="4:5" x14ac:dyDescent="0.3">
@@ -24783,7 +24783,7 @@
         <v>68</v>
       </c>
       <c r="E89">
-        <v>926260757.13383985</v>
+        <v>819711497.39635229</v>
       </c>
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.3">
@@ -24791,7 +24791,7 @@
         <v>69</v>
       </c>
       <c r="E90">
-        <v>680337075.66248369</v>
+        <v>628460576.6436187</v>
       </c>
     </row>
     <row r="91" spans="4:5" x14ac:dyDescent="0.3">
@@ -24799,7 +24799,7 @@
         <v>70</v>
       </c>
       <c r="E91">
-        <v>775611437.82278633</v>
+        <v>793927188.88962913</v>
       </c>
     </row>
     <row r="92" spans="4:5" x14ac:dyDescent="0.3">
@@ -24807,7 +24807,7 @@
         <v>71</v>
       </c>
       <c r="E92">
-        <v>924968060.68835843</v>
+        <v>651756239.56793571</v>
       </c>
     </row>
     <row r="93" spans="4:5" x14ac:dyDescent="0.3">
@@ -24815,7 +24815,7 @@
         <v>72</v>
       </c>
       <c r="E93">
-        <v>962223685.72028804</v>
+        <v>832543053.2158587</v>
       </c>
     </row>
     <row r="94" spans="4:5" x14ac:dyDescent="0.3">
@@ -24823,7 +24823,7 @@
         <v>73</v>
       </c>
       <c r="E94">
-        <v>811825966.97947288</v>
+        <v>634475474.12435782</v>
       </c>
     </row>
     <row r="95" spans="4:5" x14ac:dyDescent="0.3">
@@ -24831,7 +24831,7 @@
         <v>74</v>
       </c>
       <c r="E95">
-        <v>829906495.61403084</v>
+        <v>882537093.27485609</v>
       </c>
     </row>
     <row r="96" spans="4:5" x14ac:dyDescent="0.3">
@@ -24839,7 +24839,7 @@
         <v>75</v>
       </c>
       <c r="E96">
-        <v>481598729.9755317</v>
+        <v>829614942.39122176</v>
       </c>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.3">
@@ -24847,7 +24847,7 @@
         <v>76</v>
       </c>
       <c r="E97">
-        <v>846727280.34403026</v>
+        <v>751297191.63159764</v>
       </c>
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.3">
@@ -24855,7 +24855,7 @@
         <v>77</v>
       </c>
       <c r="E98">
-        <v>728158289.68361521</v>
+        <v>658659327.20795691</v>
       </c>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.3">
@@ -24863,7 +24863,7 @@
         <v>78</v>
       </c>
       <c r="E99">
-        <v>551477484.31379986</v>
+        <v>766410141.23560095</v>
       </c>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.3">
@@ -24871,7 +24871,7 @@
         <v>79</v>
       </c>
       <c r="E100">
-        <v>739857405.01020038</v>
+        <v>598446812.97305202</v>
       </c>
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.3">
@@ -24879,7 +24879,7 @@
         <v>80</v>
       </c>
       <c r="E101">
-        <v>763023390.29360461</v>
+        <v>717838607.89852703</v>
       </c>
     </row>
     <row r="102" spans="4:5" x14ac:dyDescent="0.3">
@@ -24887,7 +24887,7 @@
         <v>81</v>
       </c>
       <c r="E102">
-        <v>759077355.42773473</v>
+        <v>815983799.23374414</v>
       </c>
     </row>
     <row r="103" spans="4:5" x14ac:dyDescent="0.3">
@@ -24895,7 +24895,7 @@
         <v>82</v>
       </c>
       <c r="E103">
-        <v>863098703.83467162</v>
+        <v>643630948.11180854</v>
       </c>
     </row>
     <row r="104" spans="4:5" x14ac:dyDescent="0.3">
@@ -24903,7 +24903,7 @@
         <v>83</v>
       </c>
       <c r="E104">
-        <v>763406257.74751341</v>
+        <v>944595385.94620264</v>
       </c>
     </row>
     <row r="105" spans="4:5" x14ac:dyDescent="0.3">
@@ -24911,7 +24911,7 @@
         <v>84</v>
       </c>
       <c r="E105">
-        <v>1038837834.9229834</v>
+        <v>686446018.41385984</v>
       </c>
     </row>
     <row r="106" spans="4:5" x14ac:dyDescent="0.3">
@@ -24919,7 +24919,7 @@
         <v>85</v>
       </c>
       <c r="E106">
-        <v>839568782.8335042</v>
+        <v>583641302.16850019</v>
       </c>
     </row>
     <row r="107" spans="4:5" x14ac:dyDescent="0.3">
@@ -24927,7 +24927,7 @@
         <v>86</v>
       </c>
       <c r="E107">
-        <v>567686504.84709382</v>
+        <v>739837084.99389362</v>
       </c>
     </row>
     <row r="108" spans="4:5" x14ac:dyDescent="0.3">
@@ -24935,7 +24935,7 @@
         <v>87</v>
       </c>
       <c r="E108">
-        <v>961939229.51319456</v>
+        <v>583617317.30601013</v>
       </c>
     </row>
     <row r="109" spans="4:5" x14ac:dyDescent="0.3">
@@ -24943,7 +24943,7 @@
         <v>88</v>
       </c>
       <c r="E109">
-        <v>882637129.97115648</v>
+        <v>515833000.3564871</v>
       </c>
     </row>
     <row r="110" spans="4:5" x14ac:dyDescent="0.3">
@@ -24951,7 +24951,7 @@
         <v>89</v>
       </c>
       <c r="E110">
-        <v>663258576.83181739</v>
+        <v>814371814.98306251</v>
       </c>
     </row>
     <row r="111" spans="4:5" x14ac:dyDescent="0.3">
@@ -24959,7 +24959,7 @@
         <v>90</v>
       </c>
       <c r="E111">
-        <v>294323379.48043251</v>
+        <v>741515831.07119644</v>
       </c>
     </row>
     <row r="112" spans="4:5" x14ac:dyDescent="0.3">
@@ -24967,7 +24967,7 @@
         <v>91</v>
       </c>
       <c r="E112">
-        <v>652040742.39245701</v>
+        <v>678241822.97288883</v>
       </c>
     </row>
     <row r="113" spans="4:5" x14ac:dyDescent="0.3">
@@ -24975,7 +24975,7 @@
         <v>92</v>
       </c>
       <c r="E113">
-        <v>613729128.48194337</v>
+        <v>624667873.0364567</v>
       </c>
     </row>
     <row r="114" spans="4:5" x14ac:dyDescent="0.3">
@@ -24983,7 +24983,7 @@
         <v>93</v>
       </c>
       <c r="E114">
-        <v>740503020.76682293</v>
+        <v>748752802.39925218</v>
       </c>
     </row>
     <row r="115" spans="4:5" x14ac:dyDescent="0.3">
@@ -24991,7 +24991,7 @@
         <v>94</v>
       </c>
       <c r="E115">
-        <v>915877980.89978504</v>
+        <v>935944261.76899016</v>
       </c>
     </row>
     <row r="116" spans="4:5" x14ac:dyDescent="0.3">
@@ -24999,7 +24999,7 @@
         <v>95</v>
       </c>
       <c r="E116">
-        <v>639923623.14406598</v>
+        <v>593722654.55063581</v>
       </c>
     </row>
     <row r="117" spans="4:5" x14ac:dyDescent="0.3">
@@ -25007,7 +25007,7 @@
         <v>96</v>
       </c>
       <c r="E117">
-        <v>790313286.95668042</v>
+        <v>863224136.29673362</v>
       </c>
     </row>
     <row r="118" spans="4:5" x14ac:dyDescent="0.3">
@@ -25015,7 +25015,7 @@
         <v>97</v>
       </c>
       <c r="E118">
-        <v>671050504.71774065</v>
+        <v>899242162.35766172</v>
       </c>
     </row>
     <row r="119" spans="4:5" x14ac:dyDescent="0.3">
@@ -25023,7 +25023,7 @@
         <v>98</v>
       </c>
       <c r="E119">
-        <v>730768532.25335479</v>
+        <v>880395975.15336633</v>
       </c>
     </row>
     <row r="120" spans="4:5" x14ac:dyDescent="0.3">
@@ -25031,7 +25031,7 @@
         <v>99</v>
       </c>
       <c r="E120">
-        <v>911801552.81136203</v>
+        <v>1024161098.4716804</v>
       </c>
     </row>
     <row r="121" spans="4:5" x14ac:dyDescent="0.3">
@@ -25039,7 +25039,7 @@
         <v>100</v>
       </c>
       <c r="E121">
-        <v>683819549.11335993</v>
+        <v>855894676.20451641</v>
       </c>
     </row>
     <row r="122" spans="4:5" x14ac:dyDescent="0.3">
@@ -25047,7 +25047,7 @@
         <v>101</v>
       </c>
       <c r="E122">
-        <v>993969481.05933511</v>
+        <v>652507299.28499937</v>
       </c>
     </row>
     <row r="123" spans="4:5" x14ac:dyDescent="0.3">
@@ -25055,7 +25055,7 @@
         <v>102</v>
       </c>
       <c r="E123">
-        <v>636511102.47912061</v>
+        <v>1035307781.047033</v>
       </c>
     </row>
     <row r="124" spans="4:5" x14ac:dyDescent="0.3">
@@ -25063,7 +25063,7 @@
         <v>103</v>
       </c>
       <c r="E124">
-        <v>842092693.78730655</v>
+        <v>723245393.35988009</v>
       </c>
     </row>
     <row r="125" spans="4:5" x14ac:dyDescent="0.3">
@@ -25071,7 +25071,7 @@
         <v>104</v>
       </c>
       <c r="E125">
-        <v>927772090.05637395</v>
+        <v>555693995.5951215</v>
       </c>
     </row>
     <row r="126" spans="4:5" x14ac:dyDescent="0.3">
@@ -25079,7 +25079,7 @@
         <v>105</v>
       </c>
       <c r="E126">
-        <v>629475017.25887859</v>
+        <v>812188589.4645375</v>
       </c>
     </row>
     <row r="127" spans="4:5" x14ac:dyDescent="0.3">
@@ -25087,7 +25087,7 @@
         <v>106</v>
       </c>
       <c r="E127">
-        <v>305682915.52058971</v>
+        <v>889205345.40887988</v>
       </c>
     </row>
     <row r="128" spans="4:5" x14ac:dyDescent="0.3">
@@ -25095,7 +25095,7 @@
         <v>107</v>
       </c>
       <c r="E128">
-        <v>664358476.09387374</v>
+        <v>818992079.33523929</v>
       </c>
     </row>
     <row r="129" spans="4:5" x14ac:dyDescent="0.3">
@@ -25103,7 +25103,7 @@
         <v>108</v>
       </c>
       <c r="E129">
-        <v>823547601.3843838</v>
+        <v>718280651.0385344</v>
       </c>
     </row>
   </sheetData>
@@ -25176,15 +25176,15 @@
       </c>
       <c r="B4" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N14,Mappings!O14)/(365*Mappings!H14)</f>
-        <v>0.39111507632553838</v>
+        <v>0.36492238388753151</v>
       </c>
       <c r="C4" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N15,Mappings!O15)/(365*Mappings!H15)</f>
-        <v>0.12865486551565691</v>
+        <v>0.13485502778195513</v>
       </c>
       <c r="D4" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N16,Mappings!O16)/(365*Mappings!H16)</f>
-        <v>0.74769464344620906</v>
+        <v>0.53567092104178549</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -25212,15 +25212,15 @@
       </c>
       <c r="B6" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),B5,B5*Mappings!E4)</f>
-        <v>0.71545118148824671</v>
+        <v>0.25719397911420011</v>
       </c>
       <c r="C6" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),C5,C5*Mappings!E3)</f>
-        <v>3.9461474094990927</v>
+        <v>11.383078630080851</v>
       </c>
       <c r="D6" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),D5,D5*Mappings!E4)</f>
-        <v>1.8482919949615031</v>
+        <v>1.7772796635829518</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -25248,15 +25248,15 @@
       </c>
       <c r="B8" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(), B7, B7 * 25/100)</f>
-        <v>7252.9303891945456</v>
+        <v>6384.7536861264625</v>
       </c>
       <c r="C8" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(), C7, C7* 25/100)</f>
-        <v>5733.4782954291459</v>
+        <v>5780.7688854662283</v>
       </c>
       <c r="D8" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(), D7, D7* 25/100)</f>
-        <v>5513.5744051816309</v>
+        <v>7928.8097179099013</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -25284,15 +25284,15 @@
       </c>
       <c r="B10" s="17">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L36))</f>
-        <v>17.867291498035275</v>
+        <v>-4.9440628468931038</v>
       </c>
       <c r="C10" s="17">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L36))</f>
-        <v>-82.320896210971327</v>
+        <v>234.22763586531516</v>
       </c>
       <c r="D10" s="17">
         <f ca="1">IF(D9&gt;0,_xlfn.NORM.INV(RAND(),D9,D9*Dairy_Income_Roadmap!L38),_xlfn.NORM.INV(RAND(),ABS(D9),ABS(D9)*Dairy_Income_Roadmap!L38))</f>
-        <v>110.51384940369961</v>
+        <v>1.2757374469997487</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -25341,15 +25341,15 @@
       </c>
       <c r="B14" s="17">
         <f ca="1">B4*B6*365*Mappings!H14</f>
-        <v>612.81399816638918</v>
+        <v>205.54428955592383</v>
       </c>
       <c r="C14" s="17">
         <f ca="1">C4*C6*365*Mappings!H15</f>
-        <v>1111.8434307601995</v>
+        <v>3361.7931929391748</v>
       </c>
       <c r="D14" s="17">
         <f ca="1">D4*D6*365*Mappings!H16</f>
-        <v>2875.1636692591037</v>
+        <v>1980.7130499450241</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -25359,15 +25359,15 @@
       </c>
       <c r="B15" s="17">
         <f ca="1">D8-IF(D9&gt;0,D10,(-1)*D10)</f>
-        <v>5403.0605557779318</v>
+        <v>7927.533980462902</v>
       </c>
       <c r="C15" s="17">
         <f ca="1">C8-IF(C9&gt;0,C10,(-1)*C10)</f>
-        <v>5815.799191640117</v>
+        <v>5546.541249600913</v>
       </c>
       <c r="D15" s="17">
         <f ca="1">D8-IF(D9&gt;0,D10,(-1)*D10)</f>
-        <v>5403.0605557779318</v>
+        <v>7927.533980462902</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -25377,15 +25377,15 @@
       </c>
       <c r="B16" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>2309.6010731003053</v>
+        <v>2338.8227321580553</v>
       </c>
       <c r="C16" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>75965.023847152013</v>
+        <v>76276.488126092983</v>
       </c>
       <c r="D16" s="17">
         <f t="shared" ref="D16" ca="1" si="0">_xlfn.NORM.INV(RAND(),D11,D12)</f>
-        <v>27521.753156844796</v>
+        <v>26659.819397938147</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -25395,19 +25395,19 @@
       </c>
       <c r="B18" s="9">
         <f ca="1">(B14+B15)*B16</f>
-        <v>13894270.325426623</v>
+        <v>19021828.340340741</v>
       </c>
       <c r="C18" s="9">
         <f ca="1">(C14+C15)*C16</f>
-        <v>526258537.01518673</v>
+        <v>679496466.32967424</v>
       </c>
       <c r="D18" s="9">
         <f ca="1">(D14+D15)*D16</f>
-        <v>227831243.69848213</v>
+        <v>264152076.38083225</v>
       </c>
       <c r="F18" s="30">
         <f ca="1">B18+C18+D18</f>
-        <v>767984051.03909552</v>
+        <v>962670371.05084729</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -25428,7 +25428,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="30">
         <f ca="1">STDEV(F22:F129)</f>
-        <v>167738492.23906669</v>
+        <v>167469444.06775734</v>
       </c>
       <c r="H19" s="44" t="s">
         <v>62</v>
@@ -25451,13 +25451,13 @@
       <c r="E20" s="4"/>
       <c r="F20" s="30">
         <f ca="1">AVERAGE(F22:F129)</f>
-        <v>882058243.05165148</v>
+        <v>913798141.19531345</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="43">
         <f ca="1">100*F19/F20</f>
-        <v>19.016713869000629</v>
+        <v>18.326743787057314</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -25472,7 +25472,7 @@
       </c>
       <c r="F22" s="30">
         <f ca="1">F18</f>
-        <v>767984051.03909552</v>
+        <v>962670371.05084729</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -25483,7 +25483,7 @@
       </c>
       <c r="F23" s="30">
         <f t="dataTable" ref="F23:F129" dt2D="0" dtr="0" r1="F21" ca="1"/>
-        <v>1013929886.2646804</v>
+        <v>1025050112.3458073</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -25493,7 +25493,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="30">
-        <v>796705318.14462495</v>
+        <v>1021731350.9091203</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -25503,7 +25503,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="30">
-        <v>1043927438.0581245</v>
+        <v>922819226.18661594</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -25513,7 +25513,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="30">
-        <v>945230908.71845484</v>
+        <v>914246609.91523743</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -25523,7 +25523,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="30">
-        <v>739788580.72614098</v>
+        <v>572061176.25551033</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -25533,7 +25533,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="30">
-        <v>722762396.7213583</v>
+        <v>965485061.22186375</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -25543,7 +25543,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="30">
-        <v>794558369.66730738</v>
+        <v>896836826.87643909</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -25553,7 +25553,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="30">
-        <v>990928615.35230184</v>
+        <v>1248185317.461735</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -25563,7 +25563,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="30">
-        <v>1182582492.7639117</v>
+        <v>752467626.71026552</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -25573,7 +25573,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="30">
-        <v>663875192.5804354</v>
+        <v>971962885.96737671</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -25583,7 +25583,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="30">
-        <v>558759352.57913578</v>
+        <v>693810109.80168772</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -25593,7 +25593,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="30">
-        <v>759947495.29127824</v>
+        <v>977741678.89130402</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -25603,7 +25603,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="30">
-        <v>768920417.24561191</v>
+        <v>787395035.83613682</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -25613,7 +25613,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="30">
-        <v>683100320.52684081</v>
+        <v>821728662.41343606</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -25623,7 +25623,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="30">
-        <v>855417363.06383622</v>
+        <v>829023250.88429809</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -25633,7 +25633,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="30">
-        <v>1154711872.2626982</v>
+        <v>1181157831.7203023</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -25643,7 +25643,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="30">
-        <v>843512323.4259187</v>
+        <v>995319215.21102655</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -25653,7 +25653,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="30">
-        <v>709974331.8358382</v>
+        <v>1357257948.8867464</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -25663,7 +25663,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="30">
-        <v>659563753.14154172</v>
+        <v>961649394.8239249</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -25673,7 +25673,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="30">
-        <v>992669990.40867257</v>
+        <v>960461372.28398883</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -25683,7 +25683,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="30">
-        <v>540771295.59285474</v>
+        <v>707864279.8573401</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -25693,7 +25693,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="30">
-        <v>1094223061.295346</v>
+        <v>872570228.88862228</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -25703,7 +25703,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="30">
-        <v>967681394.59622717</v>
+        <v>677470518.26508474</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -25713,7 +25713,7 @@
         <v>25</v>
       </c>
       <c r="F46" s="30">
-        <v>724128345.08740377</v>
+        <v>1115686033.7890744</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -25723,7 +25723,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="30">
-        <v>667073015.1391201</v>
+        <v>1108310246.2364507</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -25733,7 +25733,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="30">
-        <v>830764600.32586467</v>
+        <v>955156218.91231728</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -25743,7 +25743,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="30">
-        <v>1056363431.3677249</v>
+        <v>657278923.39773107</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -25753,7 +25753,7 @@
         <v>29</v>
       </c>
       <c r="F50" s="30">
-        <v>741271670.6252712</v>
+        <v>1164526939.9799068</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -25763,7 +25763,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="30">
-        <v>783818495.18461478</v>
+        <v>834959809.25704432</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -25773,7 +25773,7 @@
         <v>31</v>
       </c>
       <c r="F52" s="30">
-        <v>760357348.80749559</v>
+        <v>872189913.52952981</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -25783,7 +25783,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="30">
-        <v>657083804.16295195</v>
+        <v>978420644.48646998</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -25793,7 +25793,7 @@
         <v>33</v>
       </c>
       <c r="F54" s="30">
-        <v>771653194.03634882</v>
+        <v>709420658.77525091</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -25803,7 +25803,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="30">
-        <v>965259609.70711493</v>
+        <v>990368652.70303488</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -25813,7 +25813,7 @@
         <v>35</v>
       </c>
       <c r="F56" s="30">
-        <v>828190087.81502843</v>
+        <v>1093557967.3297276</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -25823,7 +25823,7 @@
         <v>36</v>
       </c>
       <c r="F57" s="30">
-        <v>887728494.74348128</v>
+        <v>1182668035.8218403</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -25833,7 +25833,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="30">
-        <v>876526941.01863277</v>
+        <v>1085715562.7019331</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -25843,7 +25843,7 @@
         <v>38</v>
       </c>
       <c r="F59" s="30">
-        <v>714862875.97344804</v>
+        <v>1001019783.6671233</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -25853,7 +25853,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="30">
-        <v>963099516.34342349</v>
+        <v>760413105.64136553</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -25863,7 +25863,7 @@
         <v>40</v>
       </c>
       <c r="F61" s="30">
-        <v>998669832.90463114</v>
+        <v>862505781.50322366</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -25873,7 +25873,7 @@
         <v>41</v>
       </c>
       <c r="F62" s="30">
-        <v>998039800.63407683</v>
+        <v>839213295.75719464</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -25883,7 +25883,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="30">
-        <v>607855448.41558301</v>
+        <v>1111437962.2628884</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -25893,7 +25893,7 @@
         <v>43</v>
       </c>
       <c r="F64" s="30">
-        <v>1029094367.0160016</v>
+        <v>925892632.55093503</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -25903,7 +25903,7 @@
         <v>44</v>
       </c>
       <c r="F65" s="30">
-        <v>830004187.43996096</v>
+        <v>1091451278.0128875</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -25913,7 +25913,7 @@
         <v>45</v>
       </c>
       <c r="F66" s="30">
-        <v>1098241442.908906</v>
+        <v>774673213.33618546</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -25923,7 +25923,7 @@
         <v>46</v>
       </c>
       <c r="F67" s="30">
-        <v>1151156505.903266</v>
+        <v>859712898.2563448</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -25933,7 +25933,7 @@
         <v>47</v>
       </c>
       <c r="F68" s="30">
-        <v>953464385.27267861</v>
+        <v>1009482664.1836808</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -25943,7 +25943,7 @@
         <v>48</v>
       </c>
       <c r="F69" s="30">
-        <v>1066113637.6116266</v>
+        <v>783988454.66307855</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -25953,7 +25953,7 @@
         <v>49</v>
       </c>
       <c r="F70" s="30">
-        <v>848264669.95036066</v>
+        <v>975620685.10399711</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -25963,7 +25963,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="30">
-        <v>1151820004.1850376</v>
+        <v>937709619.72778964</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -25973,7 +25973,7 @@
         <v>51</v>
       </c>
       <c r="F72" s="30">
-        <v>1141613958.7817893</v>
+        <v>884296870.29430962</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -25983,7 +25983,7 @@
         <v>52</v>
       </c>
       <c r="F73" s="30">
-        <v>768556834.6742909</v>
+        <v>733459640.40858126</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -25993,7 +25993,7 @@
         <v>53</v>
       </c>
       <c r="F74" s="30">
-        <v>1139930811.2924304</v>
+        <v>874780502.38314676</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -26003,7 +26003,7 @@
         <v>54</v>
       </c>
       <c r="F75" s="30">
-        <v>716043870.58936477</v>
+        <v>1005060308.5817729</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
@@ -26013,7 +26013,7 @@
         <v>55</v>
       </c>
       <c r="F76" s="30">
-        <v>693031992.52911592</v>
+        <v>1006401142.8949251</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
@@ -26023,7 +26023,7 @@
         <v>56</v>
       </c>
       <c r="F77" s="30">
-        <v>851983318.84523678</v>
+        <v>994079495.9769305</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
@@ -26033,7 +26033,7 @@
         <v>57</v>
       </c>
       <c r="F78" s="30">
-        <v>978352663.6880424</v>
+        <v>900305233.91536736</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
@@ -26043,7 +26043,7 @@
         <v>58</v>
       </c>
       <c r="F79" s="30">
-        <v>843650655.08321357</v>
+        <v>1036174274.7598612</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -26053,7 +26053,7 @@
         <v>59</v>
       </c>
       <c r="F80" s="30">
-        <v>865786389.60306072</v>
+        <v>621085874.01702809</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -26063,7 +26063,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="30">
-        <v>1073888517.5594306</v>
+        <v>610462517.549752</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -26073,7 +26073,7 @@
         <v>61</v>
       </c>
       <c r="F82" s="30">
-        <v>882286467.45568824</v>
+        <v>639347937.22287846</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -26083,7 +26083,7 @@
         <v>62</v>
       </c>
       <c r="F83" s="30">
-        <v>832161372.58412075</v>
+        <v>955749941.20780218</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -26093,7 +26093,7 @@
         <v>63</v>
       </c>
       <c r="F84" s="30">
-        <v>667173775.01382565</v>
+        <v>964205869.01929319</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -26103,7 +26103,7 @@
         <v>64</v>
       </c>
       <c r="F85" s="30">
-        <v>885543806.0282042</v>
+        <v>586251910.91260457</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -26113,7 +26113,7 @@
         <v>65</v>
       </c>
       <c r="F86" s="30">
-        <v>819162284.72095501</v>
+        <v>1060316584.1700869</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
@@ -26123,7 +26123,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="30">
-        <v>1075403060.141463</v>
+        <v>932677304.33480954</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
@@ -26133,7 +26133,7 @@
         <v>67</v>
       </c>
       <c r="F88" s="30">
-        <v>965730699.12543428</v>
+        <v>785891423.59555435</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
@@ -26143,7 +26143,7 @@
         <v>68</v>
       </c>
       <c r="F89" s="30">
-        <v>1142581842.5791144</v>
+        <v>974564417.39749384</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -26153,7 +26153,7 @@
         <v>69</v>
       </c>
       <c r="F90" s="30">
-        <v>1126835723.1149387</v>
+        <v>974999564.35248184</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
@@ -26163,7 +26163,7 @@
         <v>70</v>
       </c>
       <c r="F91" s="30">
-        <v>1067938363.1282361</v>
+        <v>778335962.97976077</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -26173,7 +26173,7 @@
         <v>71</v>
       </c>
       <c r="F92" s="30">
-        <v>949344792.12692547</v>
+        <v>831786077.84146488</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -26183,7 +26183,7 @@
         <v>72</v>
       </c>
       <c r="F93" s="30">
-        <v>1107525101.0318711</v>
+        <v>792751182.26461363</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -26193,7 +26193,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="30">
-        <v>839560401.03178942</v>
+        <v>782397141.85583138</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -26203,7 +26203,7 @@
         <v>74</v>
       </c>
       <c r="F95" s="30">
-        <v>766783857.30217409</v>
+        <v>585103352.8899734</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -26213,7 +26213,7 @@
         <v>75</v>
       </c>
       <c r="F96" s="30">
-        <v>930470305.40179372</v>
+        <v>809110621.7217834</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -26223,7 +26223,7 @@
         <v>76</v>
       </c>
       <c r="F97" s="30">
-        <v>865468659.11902928</v>
+        <v>938344467.20425749</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
@@ -26233,7 +26233,7 @@
         <v>77</v>
       </c>
       <c r="F98" s="30">
-        <v>789773967.48037148</v>
+        <v>939400245.7900598</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -26243,7 +26243,7 @@
         <v>78</v>
       </c>
       <c r="F99" s="30">
-        <v>820486395.10396028</v>
+        <v>772200230.52238095</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -26253,7 +26253,7 @@
         <v>79</v>
       </c>
       <c r="F100" s="30">
-        <v>1025828552.553643</v>
+        <v>712533627.87219596</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -26263,7 +26263,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="30">
-        <v>620639856.99391627</v>
+        <v>1049389239.8131315</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
@@ -26273,7 +26273,7 @@
         <v>81</v>
       </c>
       <c r="F102" s="30">
-        <v>1103545846.8471091</v>
+        <v>841847788.59753895</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
@@ -26283,7 +26283,7 @@
         <v>82</v>
       </c>
       <c r="F103" s="30">
-        <v>933848121.5786345</v>
+        <v>1153941693.9626009</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
@@ -26293,7 +26293,7 @@
         <v>83</v>
       </c>
       <c r="F104" s="30">
-        <v>871349281.2148993</v>
+        <v>1068641845.7426915</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
@@ -26303,7 +26303,7 @@
         <v>84</v>
       </c>
       <c r="F105" s="30">
-        <v>936904410.37600601</v>
+        <v>758895240.10331583</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -26313,7 +26313,7 @@
         <v>85</v>
       </c>
       <c r="F106" s="30">
-        <v>1021836915.6074111</v>
+        <v>912787589.73442507</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
@@ -26323,7 +26323,7 @@
         <v>86</v>
       </c>
       <c r="F107" s="30">
-        <v>859868525.82508612</v>
+        <v>718103742.32509065</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
@@ -26333,7 +26333,7 @@
         <v>87</v>
       </c>
       <c r="F108" s="30">
-        <v>830572981.98693907</v>
+        <v>845689473.12887633</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
@@ -26343,7 +26343,7 @@
         <v>88</v>
       </c>
       <c r="F109" s="30">
-        <v>960405540.49912882</v>
+        <v>814433689.28179824</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -26353,7 +26353,7 @@
         <v>89</v>
       </c>
       <c r="F110" s="30">
-        <v>733561232.73122942</v>
+        <v>1071108918.7969968</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -26363,7 +26363,7 @@
         <v>90</v>
       </c>
       <c r="F111" s="30">
-        <v>991393527.0529294</v>
+        <v>1077264681.7857399</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
@@ -26373,7 +26373,7 @@
         <v>91</v>
       </c>
       <c r="F112" s="30">
-        <v>694186610.73567617</v>
+        <v>1305093141.9280474</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
@@ -26383,7 +26383,7 @@
         <v>92</v>
       </c>
       <c r="F113" s="30">
-        <v>843932516.58149719</v>
+        <v>974504914.69253922</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -26393,7 +26393,7 @@
         <v>93</v>
       </c>
       <c r="F114" s="30">
-        <v>546986918.67127144</v>
+        <v>1221550696.6957531</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
@@ -26403,7 +26403,7 @@
         <v>94</v>
       </c>
       <c r="F115" s="30">
-        <v>747965482.70254838</v>
+        <v>940177708.31394637</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -26413,7 +26413,7 @@
         <v>95</v>
       </c>
       <c r="F116" s="30">
-        <v>627688400.93535566</v>
+        <v>1153803911.0122986</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -26423,7 +26423,7 @@
         <v>96</v>
       </c>
       <c r="F117" s="30">
-        <v>857399757.49398708</v>
+        <v>872186552.97236776</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
@@ -26433,7 +26433,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="30">
-        <v>991709008.69036889</v>
+        <v>666744456.13890004</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -26443,7 +26443,7 @@
         <v>98</v>
       </c>
       <c r="F119" s="30">
-        <v>891397217.58206367</v>
+        <v>875674386.79636836</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -26453,7 +26453,7 @@
         <v>99</v>
       </c>
       <c r="F120" s="30">
-        <v>1218681588.3983698</v>
+        <v>1231362462.0203357</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
@@ -26463,7 +26463,7 @@
         <v>100</v>
       </c>
       <c r="F121" s="30">
-        <v>1161757131.3520737</v>
+        <v>1181773882.7619557</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -26473,7 +26473,7 @@
         <v>101</v>
       </c>
       <c r="F122" s="30">
-        <v>733284896.59158659</v>
+        <v>983711129.54161489</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
@@ -26483,7 +26483,7 @@
         <v>102</v>
       </c>
       <c r="F123" s="30">
-        <v>848878930.41587281</v>
+        <v>794450724.28180599</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -26493,7 +26493,7 @@
         <v>103</v>
       </c>
       <c r="F124" s="30">
-        <v>1081757855.3575132</v>
+        <v>1057638577.1850975</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
@@ -26503,7 +26503,7 @@
         <v>104</v>
       </c>
       <c r="F125" s="30">
-        <v>932266881.1436944</v>
+        <v>635437331.73065114</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
@@ -26513,7 +26513,7 @@
         <v>105</v>
       </c>
       <c r="F126" s="30">
-        <v>785609121.8812542</v>
+        <v>833628107.33308911</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -26523,7 +26523,7 @@
         <v>106</v>
       </c>
       <c r="F127" s="30">
-        <v>744309501.90412235</v>
+        <v>701141268.66198409</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
@@ -26533,7 +26533,7 @@
         <v>107</v>
       </c>
       <c r="F128" s="30">
-        <v>552825420.60900986</v>
+        <v>795993519.33761978</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -26543,7 +26543,7 @@
         <v>108</v>
       </c>
       <c r="F129" s="30">
-        <v>1292396396.2470136</v>
+        <v>912801776.22854137</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
@@ -26621,15 +26621,15 @@
       </c>
       <c r="B4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N10,Mappings!O10)</f>
-        <v>791.72990858155242</v>
+        <v>1261.2335098275437</v>
       </c>
       <c r="C4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N11,Mappings!O11)</f>
-        <v>322.47064142019963</v>
+        <v>277.13916831294381</v>
       </c>
       <c r="D4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N12,Mappings!O12)</f>
-        <v>1386.8753080368524</v>
+        <v>1422.5738990408122</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="34"/>
@@ -26665,15 +26665,15 @@
       </c>
       <c r="B6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B5,B5*Mappings!E4)</f>
-        <v>1.080581372698374</v>
+        <v>0.35653369491476683</v>
       </c>
       <c r="C6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C5,C5*Mappings!E3)</f>
-        <v>13.125773049958049</v>
+        <v>10.944616378369092</v>
       </c>
       <c r="D6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),D5,D5*Mappings!E4)</f>
-        <v>4.063094001634421</v>
+        <v>1.9392521887958678</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="34"/>
@@ -26709,15 +26709,15 @@
       </c>
       <c r="B8" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(), B7, B7 * 25/100)</f>
-        <v>6862.6838006967391</v>
+        <v>7751.6089667120523</v>
       </c>
       <c r="C8" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(), C7, C7* 25/100)</f>
-        <v>7577.8771987716391</v>
+        <v>11476.456893627583</v>
       </c>
       <c r="D8" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(), D7, D7* 25/100)</f>
-        <v>7784.1701730742425</v>
+        <v>6679.8620488347487</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="34"/>
@@ -26753,15 +26753,15 @@
       </c>
       <c r="B10" s="17">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L36))</f>
-        <v>46.532139842179269</v>
+        <v>5.5837557878191788</v>
       </c>
       <c r="C10" s="17">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L36))</f>
-        <v>38.604434724972791</v>
+        <v>178.75325180944282</v>
       </c>
       <c r="D10" s="17">
         <f ca="1">IF(D9&gt;0,_xlfn.NORM.INV(RAND(),D9,D9*Dairy_Income_Roadmap!L38),_xlfn.NORM.INV(RAND(),ABS(D9),ABS(D9)*Dairy_Income_Roadmap!L38))</f>
-        <v>87.663562874473513</v>
+        <v>129.93886080152268</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
@@ -26828,15 +26828,15 @@
       </c>
       <c r="B14" s="28">
         <f ca="1">B4*B6</f>
-        <v>855.52859142141199</v>
+        <v>449.67224340913401</v>
       </c>
       <c r="C14" s="28">
         <f ca="1">C4*C6</f>
-        <v>4232.6764545559417</v>
+        <v>3033.1818806054334</v>
       </c>
       <c r="D14" s="28">
         <f ca="1">D4*D6</f>
-        <v>5635.0047450994252</v>
+        <v>2758.729547438767</v>
       </c>
       <c r="E14" s="34"/>
       <c r="F14" s="34"/>
@@ -26850,15 +26850,15 @@
       </c>
       <c r="B15" s="28">
         <f ca="1">D8-IF(D9&gt;0,D10,(-1)*D10)</f>
-        <v>7696.5066101997691</v>
+        <v>6549.9231880332263</v>
       </c>
       <c r="C15" s="28">
         <f t="shared" ref="C15" ca="1" si="0">C8-C10</f>
-        <v>7539.2727640466665</v>
+        <v>11297.70364181814</v>
       </c>
       <c r="D15" s="28">
         <f ca="1">D8-IF(D9&gt;0,D10,(-1)*D10)</f>
-        <v>7696.5066101997691</v>
+        <v>6549.9231880332263</v>
       </c>
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
@@ -26872,15 +26872,15 @@
       </c>
       <c r="B16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>15679.906215207866</v>
+        <v>14931.350399422132</v>
       </c>
       <c r="C16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>61966.655878065889</v>
+        <v>65788.083316143049</v>
       </c>
       <c r="D16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),D11,D12)</f>
-        <v>27068.811293629264</v>
+        <v>28248.808427863343</v>
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
@@ -26903,20 +26903,20 @@
       </c>
       <c r="B18" s="38">
         <f ca="1">(B14+B15)*B16</f>
-        <v>134095109.91057642</v>
+        <v>104513412.04106022</v>
       </c>
       <c r="C18" s="38">
         <f ca="1">(C14+C15)*C16</f>
-        <v>729468326.24321437</v>
+        <v>942801490.74331033</v>
       </c>
       <c r="D18" s="38">
         <f ca="1">(D14+D15)*D16</f>
-        <v>360868165.13546956</v>
+        <v>262958347.8458544</v>
       </c>
       <c r="E18" s="34"/>
       <c r="F18" s="28">
         <f ca="1">B18+C18+D18</f>
-        <v>1224431601.2892604</v>
+        <v>1310273250.6302249</v>
       </c>
       <c r="G18" s="34"/>
       <c r="H18" s="34"/>
@@ -26937,7 +26937,7 @@
       <c r="E19" s="34"/>
       <c r="F19" s="28">
         <f ca="1">STDEV(F22:F129)</f>
-        <v>146580672.06642663</v>
+        <v>174422766.69596881</v>
       </c>
       <c r="G19" s="34"/>
       <c r="H19" s="44" t="s">
@@ -26962,13 +26962,13 @@
       <c r="E20" s="34"/>
       <c r="F20" s="28">
         <f ca="1">AVERAGE(F22:F129)</f>
-        <v>978768055.60451877</v>
+        <v>990808487.81082928</v>
       </c>
       <c r="G20" s="34"/>
       <c r="H20" s="44"/>
       <c r="I20" s="43">
         <f ca="1">100*F19/F20</f>
-        <v>14.97603760432227</v>
+        <v>17.604084829890013</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -26989,7 +26989,7 @@
       </c>
       <c r="F22" s="28">
         <f ca="1">F18</f>
-        <v>1224431601.2892604</v>
+        <v>1310273250.6302249</v>
       </c>
       <c r="G22" s="34"/>
       <c r="H22" s="34"/>
@@ -27000,7 +27000,7 @@
       </c>
       <c r="F23" s="28">
         <f t="dataTable" ref="F23:F129" dt2D="0" dtr="0" r1="F21" ca="1"/>
-        <v>1360402977.0931516</v>
+        <v>942106902.77980328</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -27010,7 +27010,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="28">
-        <v>878839334.22732043</v>
+        <v>821228523.21013188</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -27020,7 +27020,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="28">
-        <v>942213671.35208297</v>
+        <v>1240654863.9085083</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -27030,7 +27030,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="28">
-        <v>1016773752.118397</v>
+        <v>1000742007.6578035</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -27040,7 +27040,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="28">
-        <v>885371226.5824008</v>
+        <v>1122383812.8621593</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -27050,7 +27050,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="28">
-        <v>966216825.56362796</v>
+        <v>1106226867.4379272</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -27060,7 +27060,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="28">
-        <v>1036245155.7074149</v>
+        <v>824816783.11115813</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -27070,7 +27070,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="28">
-        <v>826258080.6189611</v>
+        <v>959974426.9894067</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -27080,7 +27080,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="28">
-        <v>1092189757.7672353</v>
+        <v>979838719.22158885</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -27090,7 +27090,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="28">
-        <v>980149537.73582935</v>
+        <v>1033238739.6036327</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -27100,7 +27100,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="28">
-        <v>1052139326.2462509</v>
+        <v>934627233.88074827</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -27110,7 +27110,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="28">
-        <v>938556844.57724452</v>
+        <v>819024137.72478199</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -27120,7 +27120,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="28">
-        <v>1140954889.0858588</v>
+        <v>1073663467.8491125</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -27130,7 +27130,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="28">
-        <v>753805274.91585422</v>
+        <v>1061940266.0620117</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -27140,7 +27140,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="28">
-        <v>1025256655.4286406</v>
+        <v>1038071808.0015988</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -27150,7 +27150,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="28">
-        <v>910106898.93960905</v>
+        <v>985540152.964378</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -27160,7 +27160,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="28">
-        <v>1218688447.1232133</v>
+        <v>894949879.34010625</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -27170,7 +27170,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="28">
-        <v>994177530.97146666</v>
+        <v>874059929.35061169</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -27180,7 +27180,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="28">
-        <v>772865563.0904274</v>
+        <v>1197075015.742815</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -27190,7 +27190,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="28">
-        <v>853074142.7874403</v>
+        <v>1021579668.5434325</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -27200,7 +27200,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="28">
-        <v>763596889.69157815</v>
+        <v>979173390.48257196</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -27210,7 +27210,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="28">
-        <v>1254459239.8866029</v>
+        <v>807382900.44919276</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -27220,7 +27220,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="28">
-        <v>1082911755.4037824</v>
+        <v>1257173987.3959022</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -27230,7 +27230,7 @@
         <v>25</v>
       </c>
       <c r="F46" s="28">
-        <v>993034830.80845571</v>
+        <v>1025325845.4608819</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -27240,7 +27240,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="28">
-        <v>1021038146.2559521</v>
+        <v>1118149388.6696301</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -27250,7 +27250,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="28">
-        <v>1193334014.0598381</v>
+        <v>1164879775.3972018</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -27260,7 +27260,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="28">
-        <v>1126989410.6879089</v>
+        <v>847544373.02134895</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -27270,7 +27270,7 @@
         <v>29</v>
       </c>
       <c r="F50" s="28">
-        <v>1313544614.3431482</v>
+        <v>858065876.19767761</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -27280,7 +27280,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="28">
-        <v>928886191.57044339</v>
+        <v>840339955.13526809</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -27290,7 +27290,7 @@
         <v>31</v>
       </c>
       <c r="F52" s="28">
-        <v>801430835.62961543</v>
+        <v>741238740.1177578</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -27300,7 +27300,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="28">
-        <v>992083163.4867121</v>
+        <v>814883620.30349672</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -27310,7 +27310,7 @@
         <v>33</v>
       </c>
       <c r="F54" s="28">
-        <v>1091855031.4714785</v>
+        <v>867265802.78980041</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -27320,7 +27320,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="28">
-        <v>1128812472.7759099</v>
+        <v>1088955711.7786613</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -27330,7 +27330,7 @@
         <v>35</v>
       </c>
       <c r="F56" s="28">
-        <v>935666639.6791805</v>
+        <v>856932439.13745975</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -27340,7 +27340,7 @@
         <v>36</v>
       </c>
       <c r="F57" s="28">
-        <v>820713526.79627347</v>
+        <v>820325088.99692464</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -27350,7 +27350,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="28">
-        <v>849007549.56478333</v>
+        <v>1274183521.3081167</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -27360,7 +27360,7 @@
         <v>38</v>
       </c>
       <c r="F59" s="28">
-        <v>858984963.9977963</v>
+        <v>720134053.26054168</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -27370,7 +27370,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="28">
-        <v>803390016.50571525</v>
+        <v>778004446.79895747</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -27380,7 +27380,7 @@
         <v>40</v>
       </c>
       <c r="F61" s="28">
-        <v>972817369.90698457</v>
+        <v>828583394.48334754</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -27390,7 +27390,7 @@
         <v>41</v>
       </c>
       <c r="F62" s="28">
-        <v>1003358375.3281407</v>
+        <v>1229392672.6496115</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -27400,7 +27400,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="28">
-        <v>797962007.44271481</v>
+        <v>1057168892.4985948</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -27410,7 +27410,7 @@
         <v>43</v>
       </c>
       <c r="F64" s="28">
-        <v>872751482.7885623</v>
+        <v>1187057996.0198295</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -27420,7 +27420,7 @@
         <v>44</v>
       </c>
       <c r="F65" s="28">
-        <v>948643417.87480879</v>
+        <v>1209848896.5029883</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -27430,7 +27430,7 @@
         <v>45</v>
       </c>
       <c r="F66" s="28">
-        <v>801911405.09206557</v>
+        <v>1111201613.9820094</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -27440,7 +27440,7 @@
         <v>46</v>
       </c>
       <c r="F67" s="28">
-        <v>926883851.28904176</v>
+        <v>848864980.4812007</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -27450,7 +27450,7 @@
         <v>47</v>
       </c>
       <c r="F68" s="28">
-        <v>1117932010.5105052</v>
+        <v>1049993115.0585759</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -27460,7 +27460,7 @@
         <v>48</v>
       </c>
       <c r="F69" s="28">
-        <v>951456384.04146314</v>
+        <v>940937846.0962131</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -27470,7 +27470,7 @@
         <v>49</v>
       </c>
       <c r="F70" s="28">
-        <v>840558063.78900993</v>
+        <v>1218958700.6591311</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -27480,7 +27480,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="28">
-        <v>882782366.5477407</v>
+        <v>1140226675.2435479</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -27490,7 +27490,7 @@
         <v>51</v>
       </c>
       <c r="F72" s="28">
-        <v>975339181.9137001</v>
+        <v>811489180.26060951</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -27500,7 +27500,7 @@
         <v>52</v>
       </c>
       <c r="F73" s="28">
-        <v>841562121.95789933</v>
+        <v>1003320228.0139132</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -27510,7 +27510,7 @@
         <v>53</v>
       </c>
       <c r="F74" s="28">
-        <v>1155079857.1682286</v>
+        <v>1276745172.9278538</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -27520,7 +27520,7 @@
         <v>54</v>
       </c>
       <c r="F75" s="28">
-        <v>1123794361.2931423</v>
+        <v>786016581.33187807</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
@@ -27530,7 +27530,7 @@
         <v>55</v>
       </c>
       <c r="F76" s="28">
-        <v>1087288756.4066863</v>
+        <v>863891944.19703019</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
@@ -27540,7 +27540,7 @@
         <v>56</v>
       </c>
       <c r="F77" s="28">
-        <v>1120732561.2044668</v>
+        <v>736738156.63907409</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
@@ -27550,7 +27550,7 @@
         <v>57</v>
       </c>
       <c r="F78" s="28">
-        <v>1042850748.6655116</v>
+        <v>977067039.87970662</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
@@ -27560,7 +27560,7 @@
         <v>58</v>
       </c>
       <c r="F79" s="28">
-        <v>992318809.12086606</v>
+        <v>755475453.67823708</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -27570,7 +27570,7 @@
         <v>59</v>
       </c>
       <c r="F80" s="28">
-        <v>1253124646.7442601</v>
+        <v>886807770.61696005</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -27580,7 +27580,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="28">
-        <v>831204263.78619897</v>
+        <v>1170866332.2638273</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -27590,7 +27590,7 @@
         <v>61</v>
       </c>
       <c r="F82" s="28">
-        <v>1026415237.0883656</v>
+        <v>923972190.14612925</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -27600,7 +27600,7 @@
         <v>62</v>
       </c>
       <c r="F83" s="28">
-        <v>1067558150.5326047</v>
+        <v>836189294.73795581</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -27610,7 +27610,7 @@
         <v>63</v>
       </c>
       <c r="F84" s="28">
-        <v>701169238.48218167</v>
+        <v>892801796.10970128</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -27620,7 +27620,7 @@
         <v>64</v>
       </c>
       <c r="F85" s="28">
-        <v>1174469305.4373043</v>
+        <v>948566787.32448316</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -27630,7 +27630,7 @@
         <v>65</v>
       </c>
       <c r="F86" s="28">
-        <v>899267932.55867338</v>
+        <v>1195067660.8791533</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
@@ -27640,7 +27640,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="28">
-        <v>814505210.01877499</v>
+        <v>1259091329.7347634</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
@@ -27650,7 +27650,7 @@
         <v>67</v>
       </c>
       <c r="F88" s="28">
-        <v>673156542.09185743</v>
+        <v>544659367.87978113</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
@@ -27660,7 +27660,7 @@
         <v>68</v>
       </c>
       <c r="F89" s="28">
-        <v>679193235.89464855</v>
+        <v>728032826.34814858</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -27670,7 +27670,7 @@
         <v>69</v>
       </c>
       <c r="F90" s="28">
-        <v>1088518330.9487221</v>
+        <v>1130912094.7981856</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
@@ -27680,7 +27680,7 @@
         <v>70</v>
       </c>
       <c r="F91" s="28">
-        <v>1227353939.0305331</v>
+        <v>887984758.45694613</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -27690,7 +27690,7 @@
         <v>71</v>
       </c>
       <c r="F92" s="28">
-        <v>1057662505.3988115</v>
+        <v>1010736566.6190469</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -27700,7 +27700,7 @@
         <v>72</v>
       </c>
       <c r="F93" s="28">
-        <v>1019389942.3884231</v>
+        <v>872870607.06125689</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -27710,7 +27710,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="28">
-        <v>719851398.70436192</v>
+        <v>1212404691.3824615</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -27720,7 +27720,7 @@
         <v>74</v>
       </c>
       <c r="F95" s="28">
-        <v>1039729501.3362515</v>
+        <v>1165490017.1574948</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -27730,7 +27730,7 @@
         <v>75</v>
       </c>
       <c r="F96" s="28">
-        <v>732782650.73330855</v>
+        <v>1053103226.2424784</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -27740,7 +27740,7 @@
         <v>76</v>
       </c>
       <c r="F97" s="28">
-        <v>877758171.10588253</v>
+        <v>1246556384.3292484</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
@@ -27750,7 +27750,7 @@
         <v>77</v>
       </c>
       <c r="F98" s="28">
-        <v>1166719664.7649508</v>
+        <v>973923539.80619943</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -27760,7 +27760,7 @@
         <v>78</v>
       </c>
       <c r="F99" s="28">
-        <v>1004797986.8364279</v>
+        <v>1410232016.9254808</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -27770,7 +27770,7 @@
         <v>79</v>
       </c>
       <c r="F100" s="28">
-        <v>890642267.92521024</v>
+        <v>769267412.58391941</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -27780,7 +27780,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="28">
-        <v>982206810.23563194</v>
+        <v>1053698435.987251</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
@@ -27790,7 +27790,7 @@
         <v>81</v>
       </c>
       <c r="F102" s="28">
-        <v>1099270600.060087</v>
+        <v>1323671752.4012194</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
@@ -27800,7 +27800,7 @@
         <v>82</v>
       </c>
       <c r="F103" s="28">
-        <v>894436558.89956522</v>
+        <v>963583292.38286805</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
@@ -27810,7 +27810,7 @@
         <v>83</v>
       </c>
       <c r="F104" s="28">
-        <v>791254107.86665642</v>
+        <v>1053938434.8833303</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
@@ -27820,7 +27820,7 @@
         <v>84</v>
       </c>
       <c r="F105" s="28">
-        <v>968078855.30544829</v>
+        <v>1027950288.3901653</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -27830,7 +27830,7 @@
         <v>85</v>
       </c>
       <c r="F106" s="28">
-        <v>918961205.99703443</v>
+        <v>1165058049.8942385</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
@@ -27840,7 +27840,7 @@
         <v>86</v>
       </c>
       <c r="F107" s="28">
-        <v>1106280142.3572469</v>
+        <v>834206283.64428568</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
@@ -27850,7 +27850,7 @@
         <v>87</v>
       </c>
       <c r="F108" s="28">
-        <v>1203723114.6462579</v>
+        <v>786712675.91390872</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
@@ -27860,7 +27860,7 @@
         <v>88</v>
       </c>
       <c r="F109" s="28">
-        <v>971660900.6780746</v>
+        <v>862772327.51166463</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -27870,7 +27870,7 @@
         <v>89</v>
       </c>
       <c r="F110" s="28">
-        <v>956720991.12808454</v>
+        <v>972571650.98140097</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -27880,7 +27880,7 @@
         <v>90</v>
       </c>
       <c r="F111" s="28">
-        <v>1211481223.3357346</v>
+        <v>935811723.62468934</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
@@ -27890,7 +27890,7 @@
         <v>91</v>
       </c>
       <c r="F112" s="28">
-        <v>971728034.53010833</v>
+        <v>1082260383.4583757</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
@@ -27900,7 +27900,7 @@
         <v>92</v>
       </c>
       <c r="F113" s="28">
-        <v>983002874.57838297</v>
+        <v>760357194.6498754</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -27910,7 +27910,7 @@
         <v>93</v>
       </c>
       <c r="F114" s="28">
-        <v>1026308011.0775568</v>
+        <v>981368662.39140177</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
@@ -27920,7 +27920,7 @@
         <v>94</v>
       </c>
       <c r="F115" s="28">
-        <v>832655488.47050786</v>
+        <v>859046177.14765</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -27930,7 +27930,7 @@
         <v>95</v>
       </c>
       <c r="F116" s="28">
-        <v>1178475909.6403971</v>
+        <v>1141998073.3995972</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -27940,7 +27940,7 @@
         <v>96</v>
       </c>
       <c r="F117" s="28">
-        <v>1186557776.9630895</v>
+        <v>1196627300.2707906</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
@@ -27950,7 +27950,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="28">
-        <v>970596368.38937473</v>
+        <v>1255041356.8748982</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -27960,7 +27960,7 @@
         <v>98</v>
       </c>
       <c r="F119" s="28">
-        <v>997985852.85882616</v>
+        <v>1128767408.1987107</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -27970,7 +27970,7 @@
         <v>99</v>
       </c>
       <c r="F120" s="28">
-        <v>928655693.42428303</v>
+        <v>1121749919.0285537</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
@@ -27980,7 +27980,7 @@
         <v>100</v>
       </c>
       <c r="F121" s="28">
-        <v>868782597.5654906</v>
+        <v>968707429.8535639</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -27990,7 +27990,7 @@
         <v>101</v>
       </c>
       <c r="F122" s="28">
-        <v>825139476.162395</v>
+        <v>752517583.29454303</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
@@ -28000,7 +28000,7 @@
         <v>102</v>
       </c>
       <c r="F123" s="28">
-        <v>953368742.23765612</v>
+        <v>732608982.70307744</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -28010,7 +28010,7 @@
         <v>103</v>
       </c>
       <c r="F124" s="28">
-        <v>1008784993.6723735</v>
+        <v>808993699.09729755</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
@@ -28020,7 +28020,7 @@
         <v>104</v>
       </c>
       <c r="F125" s="28">
-        <v>1072600440.6898806</v>
+        <v>773559726.87656498</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
@@ -28030,7 +28030,7 @@
         <v>105</v>
       </c>
       <c r="F126" s="28">
-        <v>1031716224.857025</v>
+        <v>898428736.93493938</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -28040,7 +28040,7 @@
         <v>106</v>
       </c>
       <c r="F127" s="28">
-        <v>802040442.72740746</v>
+        <v>1367413658.9187984</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
@@ -28050,7 +28050,7 @@
         <v>107</v>
       </c>
       <c r="F128" s="28">
-        <v>783516951.43231142</v>
+        <v>990514962.19294727</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -28060,7 +28060,7 @@
         <v>108</v>
       </c>
       <c r="F129" s="28">
-        <v>951209575.5149467</v>
+        <v>952889927.08263683</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
@@ -28131,15 +28131,15 @@
       </c>
       <c r="B4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N6,Mappings!O6)</f>
-        <v>1304.242138316479</v>
+        <v>1122.9553601669243</v>
       </c>
       <c r="C4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N7,Mappings!O7)</f>
-        <v>269.54782823150015</v>
+        <v>260.43175365364988</v>
       </c>
       <c r="D4" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N8,Mappings!O8)</f>
-        <v>1237.5476280003375</v>
+        <v>921.72762583327608</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -28165,15 +28165,15 @@
       </c>
       <c r="B6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B5,B5*Mappings!E4)</f>
-        <v>2.3855010168951285</v>
+        <v>3.4350833696679985</v>
       </c>
       <c r="C6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C5,C5*Mappings!E3)</f>
-        <v>9.5546539777108084</v>
+        <v>8.6988185018413606</v>
       </c>
       <c r="D6" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),D5,D5*Mappings!E4)</f>
-        <v>3.7553326429288267</v>
+        <v>1.6901592074373524</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -28199,15 +28199,15 @@
       </c>
       <c r="B8" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(), B7, B7 * 25/100)</f>
-        <v>7194.5163818263027</v>
+        <v>6064.6926965708944</v>
       </c>
       <c r="C8" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(), C7, C7* 25/100)</f>
-        <v>7355.8524532433958</v>
+        <v>8894.5302799468973</v>
       </c>
       <c r="D8" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(), D7, D7* 25/100)</f>
-        <v>5469.8428313038776</v>
+        <v>5973.0382484185075</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -28235,15 +28235,15 @@
       </c>
       <c r="B10" s="28">
         <f ca="1">IF(B9&gt;0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L36))</f>
-        <v>112.37822044313572</v>
+        <v>43.756204137162733</v>
       </c>
       <c r="C10" s="28">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L36))</f>
-        <v>45.582612631581235</v>
+        <v>12.077050733615142</v>
       </c>
       <c r="D10" s="28">
         <f ca="1">IF(D9&gt;0,_xlfn.NORM.INV(RAND(),D9,D9*Dairy_Income_Roadmap!L38),_xlfn.NORM.INV(RAND(),ABS(D9),ABS(D9)*Dairy_Income_Roadmap!L38))</f>
-        <v>437.47323954638102</v>
+        <v>57.121704786732636</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -28291,15 +28291,15 @@
       </c>
       <c r="B14" s="28">
         <f ca="1">B4*B6</f>
-        <v>3111.2709472314373</v>
+        <v>3857.4452825889393</v>
       </c>
       <c r="C14" s="28">
         <f ca="1">C4*C6</f>
-        <v>2575.4362291954126</v>
+        <v>2265.448557149361</v>
       </c>
       <c r="D14" s="28">
         <f ca="1">D4*D6</f>
-        <v>4647.4030046088074</v>
+        <v>1557.8664335514825</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -28308,15 +28308,15 @@
       </c>
       <c r="B15" s="28">
         <f ca="1">D8-IF(D9&gt;0,D10,(-1)*D10)</f>
-        <v>5032.3695917574969</v>
+        <v>5915.9165436317744</v>
       </c>
       <c r="C15" s="28">
         <f t="shared" ref="C15:D15" ca="1" si="0">C8-C10</f>
-        <v>7310.2698406118143</v>
+        <v>8882.4532292132826</v>
       </c>
       <c r="D15" s="28">
         <f t="shared" ca="1" si="0"/>
-        <v>5032.3695917574969</v>
+        <v>5915.9165436317744</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -28325,15 +28325,15 @@
       </c>
       <c r="B16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>27526.134288396242</v>
+        <v>28169.789072968946</v>
       </c>
       <c r="C16" s="28">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>50835.643859934753</v>
+        <v>51774.936874117622</v>
       </c>
       <c r="D16" s="28">
         <f t="shared" ref="D16" ca="1" si="1">_xlfn.NORM.INV(RAND(),D11,D12)</f>
-        <v>28256.838724008423</v>
+        <v>29941.191367178049</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -28347,19 +28347,19 @@
       </c>
       <c r="B18" s="38">
         <f ca="1">(B14+B15)*B16</f>
-        <v>224162943.07263696</v>
+        <v>275313541.17844409</v>
       </c>
       <c r="C18" s="38">
         <f ca="1">(C14+C15)*C16</f>
-        <v>502546233.06871551</v>
+        <v>577181911.26778889</v>
       </c>
       <c r="D18" s="38">
         <f ca="1">(D14+D15)*D16</f>
-        <v>273519773.14059889</v>
+        <v>223773966.3566016</v>
       </c>
       <c r="F18" s="30">
         <f ca="1">B18+C18+D18</f>
-        <v>1000228949.2819513</v>
+        <v>1076269418.8028345</v>
       </c>
       <c r="G18" s="30"/>
       <c r="H18" s="30"/>
@@ -28380,7 +28380,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="30">
         <f ca="1">STDEV(F22:F129)</f>
-        <v>143577509.44045854</v>
+        <v>152570288.26806709</v>
       </c>
       <c r="G19" s="30"/>
       <c r="H19" s="42" t="s">
@@ -28404,13 +28404,13 @@
       <c r="E20" s="4"/>
       <c r="F20" s="30">
         <f ca="1">AVERAGE(F22:F129)</f>
-        <v>1025440434.2606989</v>
+        <v>1031708178.0037049</v>
       </c>
       <c r="G20" s="30"/>
       <c r="H20" s="42"/>
       <c r="I20" s="43">
         <f ca="1">100*F19/F20</f>
-        <v>14.001545545058608</v>
+        <v>14.788124347650486</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -28425,7 +28425,7 @@
       </c>
       <c r="F22" s="30">
         <f ca="1">F18</f>
-        <v>1000228949.2819513</v>
+        <v>1076269418.8028345</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
@@ -28436,7 +28436,7 @@
       </c>
       <c r="F23" s="30">
         <f t="dataTable" ref="F23:F129" dt2D="0" dtr="0" r1="F21" ca="1"/>
-        <v>1185910747.8006363</v>
+        <v>1016582072.3188963</v>
       </c>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
@@ -28446,7 +28446,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="30">
-        <v>823440327.85419142</v>
+        <v>1294592089.8284829</v>
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
@@ -28456,7 +28456,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="30">
-        <v>987990197.39776278</v>
+        <v>1139996262.9578972</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
@@ -28466,7 +28466,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="30">
-        <v>993647669.60291171</v>
+        <v>975486942.05255485</v>
       </c>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
@@ -28476,7 +28476,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="30">
-        <v>1047479603.4553792</v>
+        <v>1111315597.5080519</v>
       </c>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
@@ -28486,7 +28486,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="30">
-        <v>1114826082.6342659</v>
+        <v>909002210.86357141</v>
       </c>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
@@ -28496,7 +28496,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="30">
-        <v>1146369457.4032538</v>
+        <v>1148700877.2923069</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
@@ -28506,7 +28506,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="30">
-        <v>829177569.19650722</v>
+        <v>1227556953.4931581</v>
       </c>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
@@ -28516,7 +28516,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="30">
-        <v>1272542845.1911237</v>
+        <v>858870441.81287396</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
@@ -28526,7 +28526,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="30">
-        <v>1005773929.1152909</v>
+        <v>1065972563.6692533</v>
       </c>
       <c r="G32" s="37"/>
       <c r="H32" s="37"/>
@@ -28536,7 +28536,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="30">
-        <v>997505878.23755968</v>
+        <v>1125972547.1308374</v>
       </c>
       <c r="G33" s="37"/>
       <c r="H33" s="37"/>
@@ -28546,7 +28546,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="30">
-        <v>1148676458.2495072</v>
+        <v>1027322370.8989822</v>
       </c>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
@@ -28556,7 +28556,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="30">
-        <v>1105606367.0562363</v>
+        <v>1262357752.0882525</v>
       </c>
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
@@ -28566,7 +28566,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="30">
-        <v>826309407.66191733</v>
+        <v>1055992232.5188204</v>
       </c>
       <c r="G36" s="37"/>
       <c r="H36" s="37"/>
@@ -28576,7 +28576,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="30">
-        <v>913665474.26724446</v>
+        <v>1065930746.0252564</v>
       </c>
       <c r="G37" s="37"/>
       <c r="H37" s="37"/>
@@ -28586,7 +28586,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="30">
-        <v>1013705682.0678854</v>
+        <v>1209925375.0511265</v>
       </c>
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
@@ -28596,7 +28596,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="30">
-        <v>1009311042.4611354</v>
+        <v>1090897481.6040401</v>
       </c>
       <c r="G39" s="37"/>
       <c r="H39" s="37"/>
@@ -28606,7 +28606,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="30">
-        <v>1009335148.8260555</v>
+        <v>823659695.57884407</v>
       </c>
       <c r="G40" s="37"/>
       <c r="H40" s="37"/>
@@ -28616,7 +28616,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="30">
-        <v>998353320.42310274</v>
+        <v>1368985261.6640673</v>
       </c>
       <c r="G41" s="37"/>
       <c r="H41" s="37"/>
@@ -28626,7 +28626,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="30">
-        <v>975186220.56274819</v>
+        <v>1062111041.8423271</v>
       </c>
       <c r="G42" s="37"/>
       <c r="H42" s="37"/>
@@ -28636,7 +28636,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="30">
-        <v>836831541.17982292</v>
+        <v>1162952527.0825064</v>
       </c>
       <c r="G43" s="37"/>
       <c r="H43" s="37"/>
@@ -28646,7 +28646,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="30">
-        <v>940708749.01231372</v>
+        <v>1101673618.5380788</v>
       </c>
       <c r="G44" s="37"/>
       <c r="H44" s="37"/>
@@ -28656,7 +28656,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="30">
-        <v>1021923491.8303478</v>
+        <v>1118656456.298717</v>
       </c>
       <c r="G45" s="37"/>
       <c r="H45" s="37"/>
@@ -28666,7 +28666,7 @@
         <v>25</v>
       </c>
       <c r="F46" s="30">
-        <v>1024495510.1092989</v>
+        <v>974036833.34733188</v>
       </c>
       <c r="G46" s="37"/>
       <c r="H46" s="37"/>
@@ -28676,7 +28676,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="30">
-        <v>1268951172.3718951</v>
+        <v>1168780284.6625421</v>
       </c>
       <c r="G47" s="37"/>
       <c r="H47" s="37"/>
@@ -28686,7 +28686,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="30">
-        <v>766399484.64390409</v>
+        <v>1102823131.9722002</v>
       </c>
       <c r="G48" s="37"/>
       <c r="H48" s="37"/>
@@ -28696,7 +28696,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="30">
-        <v>691830525.2144016</v>
+        <v>1313256242.1234443</v>
       </c>
       <c r="G49" s="37"/>
       <c r="H49" s="37"/>
@@ -28706,7 +28706,7 @@
         <v>29</v>
       </c>
       <c r="F50" s="30">
-        <v>1196921292.7188213</v>
+        <v>907741622.79379654</v>
       </c>
       <c r="G50" s="37"/>
       <c r="H50" s="37"/>
@@ -28716,7 +28716,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="30">
-        <v>1204179892.0043426</v>
+        <v>1259434942.5251074</v>
       </c>
       <c r="G51" s="37"/>
       <c r="H51" s="37"/>
@@ -28726,7 +28726,7 @@
         <v>31</v>
       </c>
       <c r="F52" s="30">
-        <v>1258962991.8924873</v>
+        <v>1115357369.2563467</v>
       </c>
       <c r="G52" s="37"/>
       <c r="H52" s="37"/>
@@ -28736,7 +28736,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="30">
-        <v>820405412.27846909</v>
+        <v>868986083.62404394</v>
       </c>
       <c r="G53" s="37"/>
       <c r="H53" s="37"/>
@@ -28746,7 +28746,7 @@
         <v>33</v>
       </c>
       <c r="F54" s="30">
-        <v>1103199323.8836803</v>
+        <v>966516657.70934963</v>
       </c>
       <c r="G54" s="37"/>
       <c r="H54" s="37"/>
@@ -28756,7 +28756,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="30">
-        <v>1211658831.0359144</v>
+        <v>860538440.61017859</v>
       </c>
       <c r="G55" s="37"/>
       <c r="H55" s="37"/>
@@ -28766,7 +28766,7 @@
         <v>35</v>
       </c>
       <c r="F56" s="30">
-        <v>915025181.83639908</v>
+        <v>1110572033.9168739</v>
       </c>
       <c r="G56" s="37"/>
       <c r="H56" s="37"/>
@@ -28776,7 +28776,7 @@
         <v>36</v>
       </c>
       <c r="F57" s="30">
-        <v>859734846.09629226</v>
+        <v>1038018225.5276906</v>
       </c>
       <c r="G57" s="37"/>
       <c r="H57" s="37"/>
@@ -28786,7 +28786,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="30">
-        <v>1013377562.6582026</v>
+        <v>1145610284.6766748</v>
       </c>
       <c r="G58" s="37"/>
       <c r="H58" s="37"/>
@@ -28796,7 +28796,7 @@
         <v>38</v>
       </c>
       <c r="F59" s="30">
-        <v>1344154263.4727278</v>
+        <v>891986090.18226719</v>
       </c>
       <c r="G59" s="37"/>
       <c r="H59" s="37"/>
@@ -28806,7 +28806,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="30">
-        <v>1068073353.3145804</v>
+        <v>1160660637.0271254</v>
       </c>
       <c r="G60" s="37"/>
       <c r="H60" s="37"/>
@@ -28816,7 +28816,7 @@
         <v>40</v>
       </c>
       <c r="F61" s="30">
-        <v>809508537.26782537</v>
+        <v>1100265585.4758413</v>
       </c>
       <c r="G61" s="37"/>
       <c r="H61" s="37"/>
@@ -28826,7 +28826,7 @@
         <v>41</v>
       </c>
       <c r="F62" s="30">
-        <v>1177977085.8793397</v>
+        <v>834603269.02960443</v>
       </c>
       <c r="G62" s="37"/>
       <c r="H62" s="37"/>
@@ -28836,7 +28836,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="30">
-        <v>1188794016.8727231</v>
+        <v>783527989.04245949</v>
       </c>
       <c r="G63" s="37"/>
       <c r="H63" s="37"/>
@@ -28846,7 +28846,7 @@
         <v>43</v>
       </c>
       <c r="F64" s="30">
-        <v>985229996.72339499</v>
+        <v>805362167.62720871</v>
       </c>
       <c r="G64" s="37"/>
       <c r="H64" s="37"/>
@@ -28856,7 +28856,7 @@
         <v>44</v>
       </c>
       <c r="F65" s="30">
-        <v>1043472828.2276776</v>
+        <v>1224345869.7788591</v>
       </c>
       <c r="G65" s="37"/>
       <c r="H65" s="37"/>
@@ -28866,7 +28866,7 @@
         <v>45</v>
       </c>
       <c r="F66" s="30">
-        <v>994095661.87321675</v>
+        <v>1279558530.187927</v>
       </c>
       <c r="G66" s="37"/>
       <c r="H66" s="37"/>
@@ -28876,7 +28876,7 @@
         <v>46</v>
       </c>
       <c r="F67" s="30">
-        <v>1178778151.0582089</v>
+        <v>983007590.03807008</v>
       </c>
       <c r="G67" s="37"/>
       <c r="H67" s="37"/>
@@ -28886,7 +28886,7 @@
         <v>47</v>
       </c>
       <c r="F68" s="30">
-        <v>1000320822.0553935</v>
+        <v>909334762.46707857</v>
       </c>
       <c r="G68" s="37"/>
       <c r="H68" s="37"/>
@@ -28896,7 +28896,7 @@
         <v>48</v>
       </c>
       <c r="F69" s="30">
-        <v>1061788441.354234</v>
+        <v>1050862326.7229211</v>
       </c>
       <c r="G69" s="37"/>
       <c r="H69" s="37"/>
@@ -28906,7 +28906,7 @@
         <v>49</v>
       </c>
       <c r="F70" s="30">
-        <v>967918659.88093305</v>
+        <v>1116819863.671273</v>
       </c>
       <c r="G70" s="37"/>
       <c r="H70" s="37"/>
@@ -28916,7 +28916,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="30">
-        <v>1231735382.4677885</v>
+        <v>833182626.08225763</v>
       </c>
       <c r="G71" s="37"/>
       <c r="H71" s="37"/>
@@ -28926,7 +28926,7 @@
         <v>51</v>
       </c>
       <c r="F72" s="30">
-        <v>1215750525.7050281</v>
+        <v>1306433058.9119329</v>
       </c>
       <c r="G72" s="37"/>
       <c r="H72" s="37"/>
@@ -28936,7 +28936,7 @@
         <v>52</v>
       </c>
       <c r="F73" s="30">
-        <v>958239037.45009363</v>
+        <v>1085481516.7657511</v>
       </c>
       <c r="G73" s="37"/>
       <c r="H73" s="37"/>
@@ -28946,7 +28946,7 @@
         <v>53</v>
       </c>
       <c r="F74" s="30">
-        <v>783050762.25474799</v>
+        <v>867749291.29532695</v>
       </c>
       <c r="G74" s="37"/>
       <c r="H74" s="37"/>
@@ -28956,7 +28956,7 @@
         <v>54</v>
       </c>
       <c r="F75" s="30">
-        <v>1078203635.9026387</v>
+        <v>977636293.25905538</v>
       </c>
       <c r="G75" s="37"/>
       <c r="H75" s="37"/>
@@ -28966,7 +28966,7 @@
         <v>55</v>
       </c>
       <c r="F76" s="30">
-        <v>1015753439.8347285</v>
+        <v>988167397.75955462</v>
       </c>
       <c r="G76" s="37"/>
       <c r="H76" s="37"/>
@@ -28976,7 +28976,7 @@
         <v>56</v>
       </c>
       <c r="F77" s="30">
-        <v>1053747732.4645243</v>
+        <v>934556120.13232386</v>
       </c>
       <c r="G77" s="37"/>
       <c r="H77" s="37"/>
@@ -28986,7 +28986,7 @@
         <v>57</v>
       </c>
       <c r="F78" s="30">
-        <v>1181367410.030395</v>
+        <v>1056401394.2039249</v>
       </c>
       <c r="G78" s="37"/>
       <c r="H78" s="37"/>
@@ -28996,7 +28996,7 @@
         <v>58</v>
       </c>
       <c r="F79" s="30">
-        <v>846535262.93495953</v>
+        <v>758589493.62889338</v>
       </c>
       <c r="G79" s="37"/>
       <c r="H79" s="37"/>
@@ -29006,7 +29006,7 @@
         <v>59</v>
       </c>
       <c r="F80" s="30">
-        <v>1121819706.8199525</v>
+        <v>1060113139.8375094</v>
       </c>
       <c r="G80" s="37"/>
       <c r="H80" s="37"/>
@@ -29016,7 +29016,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="30">
-        <v>1289019930.5996916</v>
+        <v>1077440582.9213736</v>
       </c>
       <c r="G81" s="37"/>
       <c r="H81" s="37"/>
@@ -29026,7 +29026,7 @@
         <v>61</v>
       </c>
       <c r="F82" s="30">
-        <v>1273052218.7973347</v>
+        <v>1112751436.4558568</v>
       </c>
       <c r="G82" s="37"/>
       <c r="H82" s="37"/>
@@ -29036,7 +29036,7 @@
         <v>62</v>
       </c>
       <c r="F83" s="30">
-        <v>1210194837.3045487</v>
+        <v>905282426.32250464</v>
       </c>
       <c r="G83" s="37"/>
       <c r="H83" s="37"/>
@@ -29046,7 +29046,7 @@
         <v>63</v>
       </c>
       <c r="F84" s="30">
-        <v>850371474.4868114</v>
+        <v>1358958490.0402308</v>
       </c>
       <c r="G84" s="37"/>
       <c r="H84" s="37"/>
@@ -29056,7 +29056,7 @@
         <v>64</v>
       </c>
       <c r="F85" s="30">
-        <v>1094267420.5593598</v>
+        <v>854177736.56870675</v>
       </c>
       <c r="G85" s="37"/>
       <c r="H85" s="37"/>
@@ -29066,7 +29066,7 @@
         <v>65</v>
       </c>
       <c r="F86" s="30">
-        <v>1125581752.8881621</v>
+        <v>916678828.13767624</v>
       </c>
       <c r="G86" s="37"/>
       <c r="H86" s="37"/>
@@ -29076,7 +29076,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="30">
-        <v>1037053649.3379505</v>
+        <v>1173442156.3845768</v>
       </c>
       <c r="G87" s="37"/>
       <c r="H87" s="37"/>
@@ -29086,7 +29086,7 @@
         <v>67</v>
       </c>
       <c r="F88" s="30">
-        <v>808892314.65772772</v>
+        <v>1089133405.0641007</v>
       </c>
       <c r="G88" s="37"/>
       <c r="H88" s="37"/>
@@ -29096,7 +29096,7 @@
         <v>68</v>
       </c>
       <c r="F89" s="30">
-        <v>954926724.51247835</v>
+        <v>977196303.0006789</v>
       </c>
       <c r="G89" s="37"/>
       <c r="H89" s="37"/>
@@ -29106,7 +29106,7 @@
         <v>69</v>
       </c>
       <c r="F90" s="30">
-        <v>820621591.74420571</v>
+        <v>875162448.1351018</v>
       </c>
       <c r="G90" s="37"/>
       <c r="H90" s="37"/>
@@ -29116,7 +29116,7 @@
         <v>70</v>
       </c>
       <c r="F91" s="30">
-        <v>1024214965.4214154</v>
+        <v>1171123855.3181133</v>
       </c>
       <c r="G91" s="37"/>
       <c r="H91" s="37"/>
@@ -29126,7 +29126,7 @@
         <v>71</v>
       </c>
       <c r="F92" s="30">
-        <v>925744969.90452433</v>
+        <v>1039571758.3697069</v>
       </c>
       <c r="G92" s="37"/>
       <c r="H92" s="37"/>
@@ -29136,7 +29136,7 @@
         <v>72</v>
       </c>
       <c r="F93" s="30">
-        <v>974030346.8289299</v>
+        <v>879717715.17844903</v>
       </c>
       <c r="G93" s="37"/>
       <c r="H93" s="37"/>
@@ -29146,7 +29146,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="30">
-        <v>1018840673.4889772</v>
+        <v>928742693.96892643</v>
       </c>
       <c r="G94" s="37"/>
       <c r="H94" s="37"/>
@@ -29156,7 +29156,7 @@
         <v>74</v>
       </c>
       <c r="F95" s="30">
-        <v>979140908.34694481</v>
+        <v>913795691.81300759</v>
       </c>
       <c r="G95" s="37"/>
       <c r="H95" s="37"/>
@@ -29166,7 +29166,7 @@
         <v>75</v>
       </c>
       <c r="F96" s="30">
-        <v>899655461.66112304</v>
+        <v>1299070465.1611261</v>
       </c>
       <c r="G96" s="37"/>
       <c r="H96" s="37"/>
@@ -29176,7 +29176,7 @@
         <v>76</v>
       </c>
       <c r="F97" s="30">
-        <v>936334486.86219943</v>
+        <v>1122318206.1315148</v>
       </c>
       <c r="G97" s="37"/>
       <c r="H97" s="37"/>
@@ -29186,7 +29186,7 @@
         <v>77</v>
       </c>
       <c r="F98" s="30">
-        <v>1123133891.9396157</v>
+        <v>1015790303.0788646</v>
       </c>
       <c r="G98" s="37"/>
       <c r="H98" s="37"/>
@@ -29196,7 +29196,7 @@
         <v>78</v>
       </c>
       <c r="F99" s="30">
-        <v>1015923292.2198349</v>
+        <v>1133789756.0193584</v>
       </c>
       <c r="G99" s="37"/>
       <c r="H99" s="37"/>
@@ -29206,7 +29206,7 @@
         <v>79</v>
       </c>
       <c r="F100" s="30">
-        <v>1156734291.7553144</v>
+        <v>709862106.72295594</v>
       </c>
       <c r="G100" s="37"/>
       <c r="H100" s="37"/>
@@ -29216,7 +29216,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="30">
-        <v>1005475828.9549379</v>
+        <v>1009287361.1176329</v>
       </c>
       <c r="G101" s="37"/>
       <c r="H101" s="37"/>
@@ -29226,7 +29226,7 @@
         <v>81</v>
       </c>
       <c r="F102" s="30">
-        <v>1068883845.5595698</v>
+        <v>1229114934.193295</v>
       </c>
       <c r="G102" s="37"/>
       <c r="H102" s="37"/>
@@ -29236,7 +29236,7 @@
         <v>82</v>
       </c>
       <c r="F103" s="30">
-        <v>1027634173.5364854</v>
+        <v>1028563141.3743231</v>
       </c>
       <c r="G103" s="37"/>
       <c r="H103" s="37"/>
@@ -29246,7 +29246,7 @@
         <v>83</v>
       </c>
       <c r="F104" s="30">
-        <v>1130324234.9193177</v>
+        <v>831845184.70846117</v>
       </c>
       <c r="G104" s="37"/>
       <c r="H104" s="37"/>
@@ -29256,7 +29256,7 @@
         <v>84</v>
       </c>
       <c r="F105" s="30">
-        <v>841316434.26863408</v>
+        <v>1187293832.0478597</v>
       </c>
       <c r="G105" s="37"/>
       <c r="H105" s="37"/>
@@ -29266,7 +29266,7 @@
         <v>85</v>
       </c>
       <c r="F106" s="30">
-        <v>1034380807.2771027</v>
+        <v>1125183783.164561</v>
       </c>
       <c r="G106" s="37"/>
       <c r="H106" s="37"/>
@@ -29276,7 +29276,7 @@
         <v>86</v>
       </c>
       <c r="F107" s="30">
-        <v>900800586.89387751</v>
+        <v>927845538.60129333</v>
       </c>
       <c r="G107" s="37"/>
       <c r="H107" s="37"/>
@@ -29286,7 +29286,7 @@
         <v>87</v>
       </c>
       <c r="F108" s="30">
-        <v>1013800578.9258466</v>
+        <v>837864927.96809542</v>
       </c>
       <c r="G108" s="37"/>
       <c r="H108" s="37"/>
@@ -29296,7 +29296,7 @@
         <v>88</v>
       </c>
       <c r="F109" s="30">
-        <v>1099322454.0017614</v>
+        <v>1030285323.2785333</v>
       </c>
       <c r="G109" s="37"/>
       <c r="H109" s="37"/>
@@ -29306,7 +29306,7 @@
         <v>89</v>
       </c>
       <c r="F110" s="30">
-        <v>1236015433.3810182</v>
+        <v>1006236368.7850256</v>
       </c>
       <c r="G110" s="37"/>
       <c r="H110" s="37"/>
@@ -29316,7 +29316,7 @@
         <v>90</v>
       </c>
       <c r="F111" s="30">
-        <v>1308141590.1484964</v>
+        <v>788917664.58060503</v>
       </c>
       <c r="G111" s="37"/>
       <c r="H111" s="37"/>
@@ -29326,7 +29326,7 @@
         <v>91</v>
       </c>
       <c r="F112" s="30">
-        <v>846409041.45828938</v>
+        <v>879234962.83557904</v>
       </c>
       <c r="G112" s="37"/>
       <c r="H112" s="37"/>
@@ -29336,7 +29336,7 @@
         <v>92</v>
       </c>
       <c r="F113" s="30">
-        <v>812326990.83096659</v>
+        <v>724885312.02423012</v>
       </c>
       <c r="G113" s="37"/>
       <c r="H113" s="37"/>
@@ -29346,7 +29346,7 @@
         <v>93</v>
       </c>
       <c r="F114" s="30">
-        <v>823775840.42678308</v>
+        <v>1234093760.8850958</v>
       </c>
       <c r="G114" s="37"/>
       <c r="H114" s="37"/>
@@ -29356,7 +29356,7 @@
         <v>94</v>
       </c>
       <c r="F115" s="30">
-        <v>916078453.63695908</v>
+        <v>802913809.88406157</v>
       </c>
       <c r="G115" s="37"/>
       <c r="H115" s="37"/>
@@ -29366,7 +29366,7 @@
         <v>95</v>
       </c>
       <c r="F116" s="30">
-        <v>1058101242.0201473</v>
+        <v>1005160750.0226986</v>
       </c>
       <c r="G116" s="37"/>
       <c r="H116" s="37"/>
@@ -29376,7 +29376,7 @@
         <v>96</v>
       </c>
       <c r="F117" s="30">
-        <v>1095843286.4150815</v>
+        <v>868326893.05418575</v>
       </c>
       <c r="G117" s="37"/>
       <c r="H117" s="37"/>
@@ -29386,7 +29386,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="30">
-        <v>1059700314.0644228</v>
+        <v>1270359609.6426501</v>
       </c>
       <c r="G118" s="37"/>
       <c r="H118" s="37"/>
@@ -29396,7 +29396,7 @@
         <v>98</v>
       </c>
       <c r="F119" s="30">
-        <v>1154052515.5413022</v>
+        <v>789280311.88650274</v>
       </c>
       <c r="G119" s="37"/>
       <c r="H119" s="37"/>
@@ -29406,7 +29406,7 @@
         <v>99</v>
       </c>
       <c r="F120" s="30">
-        <v>920594202.56046915</v>
+        <v>1175473635.1096516</v>
       </c>
       <c r="G120" s="37"/>
       <c r="H120" s="37"/>
@@ -29416,7 +29416,7 @@
         <v>100</v>
       </c>
       <c r="F121" s="30">
-        <v>643352196.71198583</v>
+        <v>960078277.63614988</v>
       </c>
       <c r="G121" s="37"/>
       <c r="H121" s="37"/>
@@ -29426,7 +29426,7 @@
         <v>101</v>
       </c>
       <c r="F122" s="30">
-        <v>919849486.10584259</v>
+        <v>1163200879.0131881</v>
       </c>
       <c r="G122" s="37"/>
       <c r="H122" s="37"/>
@@ -29436,7 +29436,7 @@
         <v>102</v>
       </c>
       <c r="F123" s="30">
-        <v>1052422030.2032468</v>
+        <v>974140645.91523015</v>
       </c>
       <c r="G123" s="37"/>
       <c r="H123" s="37"/>
@@ -29446,7 +29446,7 @@
         <v>103</v>
       </c>
       <c r="F124" s="30">
-        <v>865272081.7139014</v>
+        <v>916655327.79259586</v>
       </c>
       <c r="G124" s="37"/>
       <c r="H124" s="37"/>
@@ -29456,7 +29456,7 @@
         <v>104</v>
       </c>
       <c r="F125" s="30">
-        <v>1100138421.8478315</v>
+        <v>1060300459.5399275</v>
       </c>
       <c r="G125" s="37"/>
       <c r="H125" s="37"/>
@@ -29466,7 +29466,7 @@
         <v>105</v>
       </c>
       <c r="F126" s="30">
-        <v>1173162889.1277952</v>
+        <v>968704768.44285107</v>
       </c>
       <c r="G126" s="37"/>
       <c r="H126" s="37"/>
@@ -29476,7 +29476,7 @@
         <v>106</v>
       </c>
       <c r="F127" s="30">
-        <v>1067406967.4094676</v>
+        <v>779204826.29965091</v>
       </c>
       <c r="G127" s="37"/>
       <c r="H127" s="37"/>
@@ -29486,7 +29486,7 @@
         <v>107</v>
       </c>
       <c r="F128" s="30">
-        <v>1205388768.594681</v>
+        <v>1016491350.4595397</v>
       </c>
       <c r="G128" s="37"/>
       <c r="H128" s="37"/>
@@ -29496,7 +29496,7 @@
         <v>108</v>
       </c>
       <c r="F129" s="30">
-        <v>1003898098.9437914</v>
+        <v>1138433516.5492859</v>
       </c>
       <c r="G129" s="37"/>
       <c r="H129" s="37"/>
@@ -29569,15 +29569,15 @@
       </c>
       <c r="B4" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N18,Mappings!O18)</f>
-        <v>1404.6375655931652</v>
+        <v>933.22401047666699</v>
       </c>
       <c r="C4" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N19,Mappings!O19)</f>
-        <v>264.81210706211226</v>
+        <v>348.88457488750146</v>
       </c>
       <c r="D4" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),Mappings!N20,Mappings!O20)</f>
-        <v>1005.5053943686274</v>
+        <v>1016.1819588782432</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -29605,15 +29605,15 @@
       </c>
       <c r="B6" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),B5,B5*Mappings!E4)</f>
-        <v>1.1852655822928455</v>
+        <v>0.61338039992527316</v>
       </c>
       <c r="C6" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),C5,C5*Mappings!E3)</f>
-        <v>4.3957408361638493</v>
+        <v>5.2044730309425908</v>
       </c>
       <c r="D6" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),D5,D5*Mappings!E4)</f>
-        <v>1.4897675139279665</v>
+        <v>2.2659472747064004</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -29641,15 +29641,15 @@
       </c>
       <c r="B8" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(), B7, B7 * 25/100)</f>
-        <v>5231.8537042913122</v>
+        <v>4496.2975517618825</v>
       </c>
       <c r="C8" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(), C7, C7* 25/100)</f>
-        <v>5522.8205555242403</v>
+        <v>6282.4437319817434</v>
       </c>
       <c r="D8" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(), D7, D7* 25/100)</f>
-        <v>10574.594091804654</v>
+        <v>7964.767739890327</v>
       </c>
       <c r="K8" s="44"/>
     </row>
@@ -29679,15 +29679,15 @@
       </c>
       <c r="B10" s="17">
         <f ca="1">IF(B9&gt;=0,_xlfn.NORM.INV(RAND(),B9,B9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(B9),ABS(B9)*Dairy_Income_Roadmap!L36))</f>
-        <v>113.47700852752303</v>
+        <v>152.75943200789874</v>
       </c>
       <c r="C10" s="17">
         <f ca="1">IF(C9&gt;0,_xlfn.NORM.INV(RAND(),C9,C9*Dairy_Income_Roadmap!L36),_xlfn.NORM.INV(RAND(),ABS(C9),ABS(C9)*Dairy_Income_Roadmap!L36))</f>
-        <v>129.52835340773953</v>
+        <v>104.57434197676208</v>
       </c>
       <c r="D10" s="17">
         <f ca="1">IF(D9&gt;0,_xlfn.NORM.INV(RAND(),D9,D9*Dairy_Income_Roadmap!L38),_xlfn.NORM.INV(RAND(),ABS(D9),ABS(D9)*Dairy_Income_Roadmap!L38))</f>
-        <v>31.22311601432807</v>
+        <v>103.35205685871738</v>
       </c>
       <c r="K10" s="44"/>
     </row>
@@ -29737,15 +29737,15 @@
       </c>
       <c r="B14" s="17">
         <f ca="1">B4*B6</f>
-        <v>1664.8685620931878</v>
+        <v>572.42131676604527</v>
       </c>
       <c r="C14" s="17">
         <f ca="1">C4*C6</f>
-        <v>1164.04539292352</v>
+        <v>1815.7603609138721</v>
       </c>
       <c r="D14" s="17">
         <f ca="1">D4*D6</f>
-        <v>1497.9692716097095</v>
+        <v>2302.6147403259665</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -29755,15 +29755,15 @@
       </c>
       <c r="B15" s="17">
         <f ca="1">B8-IF(B9&gt;0,B10,(-1)*B10)</f>
-        <v>5118.376695763789</v>
+        <v>4343.5381197539837</v>
       </c>
       <c r="C15" s="17">
         <f ca="1">C8-IF(C9&gt;0,C10,(-1)*C10)</f>
-        <v>5393.2922021165004</v>
+        <v>6177.8693900049811</v>
       </c>
       <c r="D15" s="17">
         <f ca="1">D8-IF(D9&gt;0,D10,(-1)*D10)</f>
-        <v>10543.370975790327</v>
+        <v>7861.4156830316097</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -29773,15 +29773,15 @@
       </c>
       <c r="B16" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),B11,B12)</f>
-        <v>28149.167408843747</v>
+        <v>28413.459958170257</v>
       </c>
       <c r="C16" s="17">
         <f ca="1">_xlfn.NORM.INV(RAND(),C11,C12)</f>
-        <v>51024.166278266253</v>
+        <v>53530.177444061614</v>
       </c>
       <c r="D16" s="17">
         <f t="shared" ref="D16" ca="1" si="0">_xlfn.NORM.INV(RAND(),D11,D12)</f>
-        <v>28002.464191982872</v>
+        <v>28466.307261090948</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -29791,19 +29791,19 @@
       </c>
       <c r="B18" s="9">
         <f ca="1">(B14+B15)*B16</f>
-        <v>190942706.33866152</v>
+        <v>139679416.60555106</v>
       </c>
       <c r="C18" s="9">
         <f ca="1">(C14+C15)*C16</f>
-        <v>334582683.79204857</v>
+        <v>427900418.98881626</v>
       </c>
       <c r="D18" s="9">
         <f ca="1">(D14+D15)*D16</f>
-        <v>337187199.10130167</v>
+        <v>289332413.04237312</v>
       </c>
       <c r="F18" s="30">
         <f ca="1">B18+C18+D18</f>
-        <v>862712589.2320118</v>
+        <v>856912248.63674045</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
@@ -29824,7 +29824,7 @@
       <c r="E19" s="4"/>
       <c r="F19" s="30">
         <f ca="1">STDEV(F22:F129)</f>
-        <v>117862152.06529197</v>
+        <v>115440081.0705173</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="44" t="s">
@@ -29848,13 +29848,13 @@
       <c r="E20" s="4"/>
       <c r="F20" s="30">
         <f ca="1">AVERAGE(F22:F129)</f>
-        <v>870968609.03494859</v>
+        <v>848401757.63498974</v>
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
       <c r="I20" s="43">
         <f ca="1">100*F19/F20</f>
-        <v>13.532307690846137</v>
+        <v>13.606770616826495</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -29869,7 +29869,7 @@
       </c>
       <c r="F22" s="30">
         <f ca="1">F18</f>
-        <v>862712589.2320118</v>
+        <v>856912248.63674045</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -29880,7 +29880,7 @@
       </c>
       <c r="F23" s="30">
         <f t="dataTable" ref="F23:F129" dt2D="0" dtr="0" r1="F21" ca="1"/>
-        <v>817553894.97571301</v>
+        <v>820726330.54600716</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -29890,7 +29890,7 @@
         <v>3</v>
       </c>
       <c r="F24" s="30">
-        <v>818017845.28486848</v>
+        <v>668066536.69986939</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -29900,7 +29900,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="30">
-        <v>589906627.18497348</v>
+        <v>949358758.34228802</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -29910,7 +29910,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="30">
-        <v>900017889.99780905</v>
+        <v>863574718.66921175</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -29920,7 +29920,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="30">
-        <v>818899541.40282702</v>
+        <v>735861869.90130758</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -29930,7 +29930,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="30">
-        <v>744633670.5846597</v>
+        <v>861799360.32453704</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -29940,7 +29940,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="30">
-        <v>594258402.09167624</v>
+        <v>737470767.1849463</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -29950,7 +29950,7 @@
         <v>9</v>
       </c>
       <c r="F30" s="30">
-        <v>1004362891.2165384</v>
+        <v>815607901.19864869</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -29960,7 +29960,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="30">
-        <v>1058420927.4595196</v>
+        <v>711276522.99623418</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -29970,7 +29970,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="30">
-        <v>891276859.63806105</v>
+        <v>1006523076.4220155</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -29980,7 +29980,7 @@
         <v>12</v>
       </c>
       <c r="F33" s="30">
-        <v>903316170.24323201</v>
+        <v>1106081570.8088739</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -29990,7 +29990,7 @@
         <v>13</v>
       </c>
       <c r="F34" s="30">
-        <v>805452068.15638423</v>
+        <v>986032043.46580791</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -30000,7 +30000,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="30">
-        <v>587955708.19643486</v>
+        <v>892485396.29375982</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -30010,7 +30010,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="30">
-        <v>781937649.17060852</v>
+        <v>834164669.05869782</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -30020,7 +30020,7 @@
         <v>16</v>
       </c>
       <c r="F37" s="30">
-        <v>689939461.95189738</v>
+        <v>928865474.66554677</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -30030,7 +30030,7 @@
         <v>17</v>
       </c>
       <c r="F38" s="30">
-        <v>849432690.91141272</v>
+        <v>899673352.95497489</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -30040,7 +30040,7 @@
         <v>18</v>
       </c>
       <c r="F39" s="30">
-        <v>773991661.94266009</v>
+        <v>995346546.84871888</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -30050,7 +30050,7 @@
         <v>19</v>
       </c>
       <c r="F40" s="30">
-        <v>745822250.60047269</v>
+        <v>781715960.69577265</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -30060,7 +30060,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="30">
-        <v>926089928.44128823</v>
+        <v>878664688.70357513</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -30070,7 +30070,7 @@
         <v>21</v>
       </c>
       <c r="F42" s="30">
-        <v>841023859.61932206</v>
+        <v>834891366.53747153</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -30080,7 +30080,7 @@
         <v>22</v>
       </c>
       <c r="F43" s="30">
-        <v>802300855.5978744</v>
+        <v>674537341.23751783</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -30090,7 +30090,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="30">
-        <v>773472672.66766715</v>
+        <v>899081805.21030986</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -30100,7 +30100,7 @@
         <v>24</v>
       </c>
       <c r="F45" s="30">
-        <v>928647832.34147322</v>
+        <v>670557367.99234307</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -30110,7 +30110,7 @@
         <v>25</v>
       </c>
       <c r="F46" s="30">
-        <v>815344296.22103882</v>
+        <v>882207111.94594038</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -30120,7 +30120,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="30">
-        <v>747220703.19921672</v>
+        <v>836636328.39235926</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -30130,7 +30130,7 @@
         <v>27</v>
       </c>
       <c r="F48" s="30">
-        <v>936518624.77376795</v>
+        <v>952306721.66145658</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -30140,7 +30140,7 @@
         <v>28</v>
       </c>
       <c r="F49" s="30">
-        <v>1038186145.8935637</v>
+        <v>827470253.00036955</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -30150,7 +30150,7 @@
         <v>29</v>
       </c>
       <c r="F50" s="30">
-        <v>1007857612.3814845</v>
+        <v>813666320.95427179</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -30160,7 +30160,7 @@
         <v>30</v>
       </c>
       <c r="F51" s="30">
-        <v>1017734171.9816761</v>
+        <v>912264440.26576293</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -30170,7 +30170,7 @@
         <v>31</v>
       </c>
       <c r="F52" s="30">
-        <v>860491561.94220936</v>
+        <v>748005423.22333384</v>
       </c>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -30180,7 +30180,7 @@
         <v>32</v>
       </c>
       <c r="F53" s="30">
-        <v>730420877.02356267</v>
+        <v>682217496.91967511</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -30190,7 +30190,7 @@
         <v>33</v>
       </c>
       <c r="F54" s="30">
-        <v>917225876.34758043</v>
+        <v>825729993.36114299</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -30200,7 +30200,7 @@
         <v>34</v>
       </c>
       <c r="F55" s="30">
-        <v>783548206.666412</v>
+        <v>849575724.02881479</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -30210,7 +30210,7 @@
         <v>35</v>
       </c>
       <c r="F56" s="30">
-        <v>817529851.32009161</v>
+        <v>836500837.06796157</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -30220,7 +30220,7 @@
         <v>36</v>
       </c>
       <c r="F57" s="30">
-        <v>983528088.80205584</v>
+        <v>1012260679.4302397</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -30230,7 +30230,7 @@
         <v>37</v>
       </c>
       <c r="F58" s="30">
-        <v>1121057687.4480546</v>
+        <v>692270796.13785803</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -30240,7 +30240,7 @@
         <v>38</v>
       </c>
       <c r="F59" s="30">
-        <v>784529044.0194869</v>
+        <v>746219620.89712942</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -30250,7 +30250,7 @@
         <v>39</v>
       </c>
       <c r="F60" s="30">
-        <v>848514319.3111546</v>
+        <v>945296147.08959925</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -30260,7 +30260,7 @@
         <v>40</v>
       </c>
       <c r="F61" s="30">
-        <v>815856265.98335564</v>
+        <v>759202356.91320765</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -30270,7 +30270,7 @@
         <v>41</v>
       </c>
       <c r="F62" s="30">
-        <v>930861691.8633889</v>
+        <v>828002482.01902807</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -30280,7 +30280,7 @@
         <v>42</v>
       </c>
       <c r="F63" s="30">
-        <v>776165342.41054296</v>
+        <v>801564254.9788214</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -30290,7 +30290,7 @@
         <v>43</v>
       </c>
       <c r="F64" s="30">
-        <v>1006933377.1404247</v>
+        <v>1093618460.1209054</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -30300,7 +30300,7 @@
         <v>44</v>
       </c>
       <c r="F65" s="30">
-        <v>925729210.33779287</v>
+        <v>728872061.47996402</v>
       </c>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
@@ -30310,7 +30310,7 @@
         <v>45</v>
       </c>
       <c r="F66" s="30">
-        <v>973272422.27196777</v>
+        <v>790171231.62043905</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
@@ -30320,7 +30320,7 @@
         <v>46</v>
       </c>
       <c r="F67" s="30">
-        <v>927846767.2480917</v>
+        <v>827968182.29192615</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
@@ -30330,7 +30330,7 @@
         <v>47</v>
       </c>
       <c r="F68" s="30">
-        <v>1021763623.3820503</v>
+        <v>1091332713.7176702</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -30340,7 +30340,7 @@
         <v>48</v>
       </c>
       <c r="F69" s="30">
-        <v>929812530.86470199</v>
+        <v>886604899.70053625</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
@@ -30350,7 +30350,7 @@
         <v>49</v>
       </c>
       <c r="F70" s="30">
-        <v>1007498961.1408989</v>
+        <v>1084918932.2812173</v>
       </c>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
@@ -30360,7 +30360,7 @@
         <v>50</v>
       </c>
       <c r="F71" s="30">
-        <v>939463284.22492695</v>
+        <v>905746472.57688856</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
@@ -30370,7 +30370,7 @@
         <v>51</v>
       </c>
       <c r="F72" s="30">
-        <v>857881226.78421307</v>
+        <v>938329466.65264165</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -30380,7 +30380,7 @@
         <v>52</v>
       </c>
       <c r="F73" s="30">
-        <v>657488910.09599137</v>
+        <v>777415024.63215089</v>
       </c>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -30390,7 +30390,7 @@
         <v>53</v>
       </c>
       <c r="F74" s="30">
-        <v>889836664.96548367</v>
+        <v>844306114.39939189</v>
       </c>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -30400,7 +30400,7 @@
         <v>54</v>
       </c>
       <c r="F75" s="30">
-        <v>975627297.96384525</v>
+        <v>851191753.79723883</v>
       </c>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
@@ -30410,7 +30410,7 @@
         <v>55</v>
       </c>
       <c r="F76" s="30">
-        <v>1004031862.3990505</v>
+        <v>843111203.12508917</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
@@ -30420,7 +30420,7 @@
         <v>56</v>
       </c>
       <c r="F77" s="30">
-        <v>790262947.21014464</v>
+        <v>1006068325.6626608</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
@@ -30430,7 +30430,7 @@
         <v>57</v>
       </c>
       <c r="F78" s="30">
-        <v>791207983.32645345</v>
+        <v>899444297.82441854</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
@@ -30440,7 +30440,7 @@
         <v>58</v>
       </c>
       <c r="F79" s="30">
-        <v>893990236.00094616</v>
+        <v>719636577.23959446</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -30450,7 +30450,7 @@
         <v>59</v>
       </c>
       <c r="F80" s="30">
-        <v>846232938.70996702</v>
+        <v>772577785.11679578</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
@@ -30460,7 +30460,7 @@
         <v>60</v>
       </c>
       <c r="F81" s="30">
-        <v>729131125.36118639</v>
+        <v>799929963.99558055</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
@@ -30470,7 +30470,7 @@
         <v>61</v>
       </c>
       <c r="F82" s="30">
-        <v>992653570.0073216</v>
+        <v>898602371.39487982</v>
       </c>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
@@ -30480,7 +30480,7 @@
         <v>62</v>
       </c>
       <c r="F83" s="30">
-        <v>972562104.2107079</v>
+        <v>854616807.05886841</v>
       </c>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
@@ -30490,7 +30490,7 @@
         <v>63</v>
       </c>
       <c r="F84" s="30">
-        <v>972696949.79073882</v>
+        <v>785200086.14512599</v>
       </c>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
@@ -30500,7 +30500,7 @@
         <v>64</v>
       </c>
       <c r="F85" s="30">
-        <v>658264839.65018404</v>
+        <v>736531643.19589984</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
@@ -30510,7 +30510,7 @@
         <v>65</v>
       </c>
       <c r="F86" s="30">
-        <v>819960922.70421505</v>
+        <v>809811445.82827461</v>
       </c>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
@@ -30520,7 +30520,7 @@
         <v>66</v>
       </c>
       <c r="F87" s="30">
-        <v>972995092.85547519</v>
+        <v>860538352.25145137</v>
       </c>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
@@ -30530,7 +30530,7 @@
         <v>67</v>
       </c>
       <c r="F88" s="30">
-        <v>884856471.56369805</v>
+        <v>862049432.30987263</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
@@ -30540,7 +30540,7 @@
         <v>68</v>
       </c>
       <c r="F89" s="30">
-        <v>825607932.37336087</v>
+        <v>724275099.28149962</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -30550,7 +30550,7 @@
         <v>69</v>
       </c>
       <c r="F90" s="30">
-        <v>777507256.17068934</v>
+        <v>1000644031.4793391</v>
       </c>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
@@ -30560,7 +30560,7 @@
         <v>70</v>
       </c>
       <c r="F91" s="30">
-        <v>660326228.40760255</v>
+        <v>783132317.70243597</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -30570,7 +30570,7 @@
         <v>71</v>
       </c>
       <c r="F92" s="30">
-        <v>1037796115.6823668</v>
+        <v>1061208195.148777</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -30580,7 +30580,7 @@
         <v>72</v>
       </c>
       <c r="F93" s="30">
-        <v>886942571.20479119</v>
+        <v>806435337.49541593</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
@@ -30590,7 +30590,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="30">
-        <v>1051656273.8188651</v>
+        <v>733909483.07787538</v>
       </c>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
@@ -30600,7 +30600,7 @@
         <v>74</v>
       </c>
       <c r="F95" s="30">
-        <v>1048914732.7267728</v>
+        <v>682764357.03979003</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -30610,7 +30610,7 @@
         <v>75</v>
       </c>
       <c r="F96" s="30">
-        <v>873596630.48751783</v>
+        <v>896297089.09715104</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -30620,7 +30620,7 @@
         <v>76</v>
       </c>
       <c r="F97" s="30">
-        <v>895149208.98993194</v>
+        <v>753449134.13760996</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
@@ -30630,7 +30630,7 @@
         <v>77</v>
       </c>
       <c r="F98" s="30">
-        <v>1090837615.4101186</v>
+        <v>629728135.84529018</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
@@ -30640,7 +30640,7 @@
         <v>78</v>
       </c>
       <c r="F99" s="30">
-        <v>1204665746.5504992</v>
+        <v>530753762.1972146</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
@@ -30650,7 +30650,7 @@
         <v>79</v>
       </c>
       <c r="F100" s="30">
-        <v>959942269.06428051</v>
+        <v>985000625.54617167</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
@@ -30660,7 +30660,7 @@
         <v>80</v>
       </c>
       <c r="F101" s="30">
-        <v>924476381.41506457</v>
+        <v>863587099.07661772</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
@@ -30670,7 +30670,7 @@
         <v>81</v>
       </c>
       <c r="F102" s="30">
-        <v>994271548.522506</v>
+        <v>1122940403.6002293</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
@@ -30680,7 +30680,7 @@
         <v>82</v>
       </c>
       <c r="F103" s="30">
-        <v>892089646.7259481</v>
+        <v>663271406.2498138</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
@@ -30690,7 +30690,7 @@
         <v>83</v>
       </c>
       <c r="F104" s="30">
-        <v>946134411.32498789</v>
+        <v>1081189106.1794713</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
@@ -30700,7 +30700,7 @@
         <v>84</v>
       </c>
       <c r="F105" s="30">
-        <v>739940558.87880814</v>
+        <v>853702693.11960602</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -30710,7 +30710,7 @@
         <v>85</v>
       </c>
       <c r="F106" s="30">
-        <v>972982247.67054975</v>
+        <v>888922744.12814832</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
@@ -30720,7 +30720,7 @@
         <v>86</v>
       </c>
       <c r="F107" s="30">
-        <v>883603211.19153953</v>
+        <v>708432030.31740713</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
@@ -30730,7 +30730,7 @@
         <v>87</v>
       </c>
       <c r="F108" s="30">
-        <v>885406637.92941737</v>
+        <v>769626571.46042717</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
@@ -30740,7 +30740,7 @@
         <v>88</v>
       </c>
       <c r="F109" s="30">
-        <v>935759584.45845735</v>
+        <v>849599761.16357696</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -30750,7 +30750,7 @@
         <v>89</v>
       </c>
       <c r="F110" s="30">
-        <v>836198961.47990203</v>
+        <v>860381016.10696459</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -30760,7 +30760,7 @@
         <v>90</v>
       </c>
       <c r="F111" s="30">
-        <v>730610253.06810594</v>
+        <v>798308929.2410562</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
@@ -30770,7 +30770,7 @@
         <v>91</v>
       </c>
       <c r="F112" s="30">
-        <v>873611939.39895451</v>
+        <v>802374247.79259419</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
@@ -30780,7 +30780,7 @@
         <v>92</v>
       </c>
       <c r="F113" s="30">
-        <v>956798268.75923467</v>
+        <v>874685576.09206271</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -30790,7 +30790,7 @@
         <v>93</v>
       </c>
       <c r="F114" s="30">
-        <v>844431477.6455164</v>
+        <v>874883935.99421394</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
@@ -30800,7 +30800,7 @@
         <v>94</v>
       </c>
       <c r="F115" s="30">
-        <v>798433945.58515239</v>
+        <v>727114989.56505132</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -30810,7 +30810,7 @@
         <v>95</v>
       </c>
       <c r="F116" s="30">
-        <v>757348859.96561348</v>
+        <v>953024715.49406624</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -30820,7 +30820,7 @@
         <v>96</v>
       </c>
       <c r="F117" s="30">
-        <v>789321898.16855335</v>
+        <v>1113307456.5072985</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
@@ -30830,7 +30830,7 @@
         <v>97</v>
       </c>
       <c r="F118" s="30">
-        <v>939697847.52450669</v>
+        <v>779240562.20349288</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -30840,7 +30840,7 @@
         <v>98</v>
       </c>
       <c r="F119" s="30">
-        <v>903370433.48034108</v>
+        <v>880006531.62659407</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -30850,7 +30850,7 @@
         <v>99</v>
       </c>
       <c r="F120" s="30">
-        <v>689591761.69056976</v>
+        <v>806702931.79840541</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
@@ -30860,7 +30860,7 @@
         <v>100</v>
       </c>
       <c r="F121" s="30">
-        <v>719570692.31791091</v>
+        <v>729213717.68391585</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
@@ -30870,7 +30870,7 @@
         <v>101</v>
       </c>
       <c r="F122" s="30">
-        <v>867359456.19005668</v>
+        <v>1069458838.5697515</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
@@ -30880,7 +30880,7 @@
         <v>102</v>
       </c>
       <c r="F123" s="30">
-        <v>835730779.08198738</v>
+        <v>874433645.77335548</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -30890,7 +30890,7 @@
         <v>103</v>
       </c>
       <c r="F124" s="30">
-        <v>629502568.39285874</v>
+        <v>945265413.84352231</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
@@ -30900,7 +30900,7 @@
         <v>104</v>
       </c>
       <c r="F125" s="30">
-        <v>935403227.51227069</v>
+        <v>890850370.30584466</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="4"/>
@@ -30910,7 +30910,7 @@
         <v>105</v>
       </c>
       <c r="F126" s="30">
-        <v>972258053.78229141</v>
+        <v>799261535.68051934</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="4"/>
@@ -30920,7 +30920,7 @@
         <v>106</v>
       </c>
       <c r="F127" s="30">
-        <v>806952283.21133041</v>
+        <v>885505736.63380837</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="4"/>
@@ -30930,7 +30930,7 @@
         <v>107</v>
       </c>
       <c r="F128" s="30">
-        <v>874690583.79948115</v>
+        <v>801351557.16800904</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -30940,7 +30940,7 @@
         <v>108</v>
       </c>
       <c r="F129" s="30">
-        <v>932084039.00722158</v>
+        <v>743882465.05286789</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
